--- a/Eurorack_USB-C_Power_Supply/Eurorack_USB-C_Power_Supply_bom.xlsx
+++ b/Eurorack_USB-C_Power_Supply/Eurorack_USB-C_Power_Supply_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/Eurorack_USB-C_Power_Supply/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBE7010-0D10-3541-8FF6-6F656279E5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1360D46-1980-034D-BDE5-65A5F629F589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29900" yWindow="-8020" windowWidth="28800" windowHeight="18560" xr2:uid="{6A056D03-5A41-7E4C-9F1A-726EE5E8421D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Eurorack USB-C Power Supply" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Eurorack USB-C Power Supply'!$A$1:$E$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Eurorack USB-C Power Supply'!$A$1:$E$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="406">
   <si>
     <t>D</t>
   </si>
@@ -1321,6 +1321,9 @@
    If you plan to use 5V from USB, then you have to connect both ground together (upper filled zone and lower)
    As such you can scratch the top silkscreen near central pin of DC-DC connector on the left and solder it to filled area. (see a pic)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">5 pins 2.00mm pitch </t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1564,20 +1567,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1601,13 +1603,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>47033</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1662,13 +1664,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>50801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>796099</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1706,17 +1708,17 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1059160</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>820480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1588360</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>144940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Ink 5">
@@ -1735,7 +1737,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Ink 5">
@@ -2095,10 +2097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AJ513"/>
+  <dimension ref="A2:AJ514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2139,13 +2141,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="4" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2438,127 +2440,131 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:29" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:29" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="12"/>
       <c r="E40" s="13"/>
     </row>
-    <row r="41" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
+    <row r="41" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-    </row>
-    <row r="42" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="1:29" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:29" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="5"/>
-      <c r="R43" t="s">
-        <v>2</v>
-      </c>
-      <c r="S43" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="E44" s="5"/>
+      <c r="R44" t="s">
+        <v>2</v>
+      </c>
+      <c r="S44" t="s">
         <v>148</v>
       </c>
-      <c r="T43">
-        <v>1</v>
-      </c>
-      <c r="V43" t="s">
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="V44" t="s">
         <v>149</v>
       </c>
-      <c r="W43" t="s">
+      <c r="W44" t="s">
         <v>150</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AA44" t="s">
         <v>12</v>
       </c>
-      <c r="AB43">
-        <v>1</v>
-      </c>
-      <c r="AC43" t="s">
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AC44" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
@@ -2568,37 +2574,17 @@
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8"/>
-      <c r="R47" t="s">
-        <v>2</v>
-      </c>
-      <c r="S47" t="s">
-        <v>148</v>
-      </c>
-      <c r="T47">
-        <v>1</v>
-      </c>
-      <c r="V47" t="s">
-        <v>149</v>
-      </c>
-      <c r="W47" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB47">
-        <v>6</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>155</v>
-      </c>
+      <c r="A47" s="14"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
       <c r="R48" t="s">
         <v>2</v>
       </c>
@@ -2615,13 +2601,13 @@
         <v>150</v>
       </c>
       <c r="AA48" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="AB48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC48" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="18:29" x14ac:dyDescent="0.2">
@@ -2641,13 +2627,13 @@
         <v>150</v>
       </c>
       <c r="AA49" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="AB49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC49" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="18:29" x14ac:dyDescent="0.2">
@@ -2670,10 +2656,10 @@
         <v>12</v>
       </c>
       <c r="AB50">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="18:29" x14ac:dyDescent="0.2">
@@ -2696,10 +2682,10 @@
         <v>12</v>
       </c>
       <c r="AB51">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="18:29" x14ac:dyDescent="0.2">
@@ -2722,10 +2708,10 @@
         <v>12</v>
       </c>
       <c r="AB52">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="18:29" x14ac:dyDescent="0.2">
@@ -2748,10 +2734,10 @@
         <v>12</v>
       </c>
       <c r="AB53">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="18:29" x14ac:dyDescent="0.2">
@@ -2774,10 +2760,10 @@
         <v>12</v>
       </c>
       <c r="AB54">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="18:29" x14ac:dyDescent="0.2">
@@ -2797,33 +2783,39 @@
         <v>150</v>
       </c>
       <c r="AA55" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="AB55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC55" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R56" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S56" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="T56">
-        <v>2</v>
-      </c>
-      <c r="U56" t="s">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="V56" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="W56" t="s">
-        <v>12</v>
+        <v>150</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB56">
+        <v>14</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="18:29" x14ac:dyDescent="0.2">
@@ -2836,17 +2828,14 @@
       <c r="T57">
         <v>2</v>
       </c>
+      <c r="U57" t="s">
+        <v>159</v>
+      </c>
       <c r="V57" t="s">
         <v>133</v>
       </c>
       <c r="W57" t="s">
         <v>12</v>
-      </c>
-      <c r="X57" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="58" spans="18:29" x14ac:dyDescent="0.2">
@@ -2866,10 +2855,10 @@
         <v>12</v>
       </c>
       <c r="X58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y58" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="18:29" x14ac:dyDescent="0.2">
@@ -2888,8 +2877,11 @@
       <c r="W59" t="s">
         <v>12</v>
       </c>
-      <c r="Z59" t="s">
-        <v>161</v>
+      <c r="X59" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="18:29" x14ac:dyDescent="0.2">
@@ -2908,14 +2900,8 @@
       <c r="W60" t="s">
         <v>12</v>
       </c>
-      <c r="AA60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB60">
-        <v>1</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>162</v>
+      <c r="Z60" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="18:29" x14ac:dyDescent="0.2">
@@ -2938,7 +2924,7 @@
         <v>12</v>
       </c>
       <c r="AB61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC61" t="s">
         <v>162</v>
@@ -2949,22 +2935,25 @@
         <v>6</v>
       </c>
       <c r="S62" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V62" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="W62" t="s">
-        <v>4</v>
-      </c>
-      <c r="X62" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>160</v>
+        <v>12</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB62">
+        <v>2</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="18:29" x14ac:dyDescent="0.2">
@@ -2984,10 +2973,10 @@
         <v>4</v>
       </c>
       <c r="X63" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y63" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="18:29" x14ac:dyDescent="0.2">
@@ -3006,8 +2995,11 @@
       <c r="W64" t="s">
         <v>4</v>
       </c>
-      <c r="Z64" t="s">
-        <v>163</v>
+      <c r="X64" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="18:29" x14ac:dyDescent="0.2">
@@ -3026,14 +3018,8 @@
       <c r="W65" t="s">
         <v>4</v>
       </c>
-      <c r="AA65" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB65">
-        <v>1</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>162</v>
+      <c r="Z65" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="18:29" x14ac:dyDescent="0.2">
@@ -3056,7 +3042,7 @@
         <v>12</v>
       </c>
       <c r="AB66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC66" t="s">
         <v>162</v>
@@ -3082,7 +3068,7 @@
         <v>12</v>
       </c>
       <c r="AB67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC67" t="s">
         <v>162</v>
@@ -3108,7 +3094,7 @@
         <v>12</v>
       </c>
       <c r="AB68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC68" t="s">
         <v>162</v>
@@ -3134,7 +3120,7 @@
         <v>12</v>
       </c>
       <c r="AB69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC69" t="s">
         <v>162</v>
@@ -3142,25 +3128,28 @@
     </row>
     <row r="70" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R70" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="S70" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="T70">
+        <v>3</v>
+      </c>
+      <c r="V70" t="s">
+        <v>5</v>
+      </c>
+      <c r="W70" t="s">
         <v>4</v>
       </c>
-      <c r="V70" t="s">
-        <v>31</v>
-      </c>
-      <c r="W70" t="s">
+      <c r="AA70" t="s">
         <v>12</v>
       </c>
-      <c r="X70" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>32</v>
+      <c r="AB70">
+        <v>5</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="18:29" x14ac:dyDescent="0.2">
@@ -3180,7 +3169,7 @@
         <v>12</v>
       </c>
       <c r="X71" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y71" t="s">
         <v>32</v>
@@ -3202,8 +3191,11 @@
       <c r="W72" t="s">
         <v>12</v>
       </c>
-      <c r="Z72" t="s">
-        <v>164</v>
+      <c r="X72" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="18:29" x14ac:dyDescent="0.2">
@@ -3222,14 +3214,8 @@
       <c r="W73" t="s">
         <v>12</v>
       </c>
-      <c r="AA73" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB73">
-        <v>1</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>162</v>
+      <c r="Z73" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="18:29" x14ac:dyDescent="0.2">
@@ -3252,7 +3238,7 @@
         <v>12</v>
       </c>
       <c r="AB74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC74" t="s">
         <v>162</v>
@@ -3263,22 +3249,25 @@
         <v>14</v>
       </c>
       <c r="S75" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="T75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V75" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="W75" t="s">
         <v>12</v>
       </c>
-      <c r="X75" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>0</v>
+      <c r="AA75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB75">
+        <v>2</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="18:29" x14ac:dyDescent="0.2">
@@ -3298,7 +3287,7 @@
         <v>12</v>
       </c>
       <c r="X76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y76" t="s">
         <v>0</v>
@@ -3320,8 +3309,11 @@
       <c r="W77" t="s">
         <v>12</v>
       </c>
-      <c r="Z77" t="s">
-        <v>165</v>
+      <c r="X77" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="18:29" x14ac:dyDescent="0.2">
@@ -3341,7 +3333,7 @@
         <v>12</v>
       </c>
       <c r="Z78" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="18:29" x14ac:dyDescent="0.2">
@@ -3361,7 +3353,7 @@
         <v>12</v>
       </c>
       <c r="Z79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="18:29" x14ac:dyDescent="0.2">
@@ -3381,7 +3373,7 @@
         <v>12</v>
       </c>
       <c r="Z80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="18:29" x14ac:dyDescent="0.2">
@@ -3400,14 +3392,8 @@
       <c r="W81" t="s">
         <v>12</v>
       </c>
-      <c r="AA81" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB81">
-        <v>1</v>
-      </c>
-      <c r="AC81" t="s">
-        <v>162</v>
+      <c r="Z81" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="18:29" x14ac:dyDescent="0.2">
@@ -3427,10 +3413,10 @@
         <v>12</v>
       </c>
       <c r="AA82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AB82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC82" t="s">
         <v>162</v>
@@ -3441,22 +3427,25 @@
         <v>14</v>
       </c>
       <c r="S83" t="s">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="T83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V83" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="W83" t="s">
         <v>12</v>
       </c>
-      <c r="X83" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>171</v>
+      <c r="AA83" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB83">
+        <v>2</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="18:29" x14ac:dyDescent="0.2">
@@ -3476,10 +3465,10 @@
         <v>12</v>
       </c>
       <c r="X84" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y84" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="18:29" x14ac:dyDescent="0.2">
@@ -3498,14 +3487,11 @@
       <c r="W85" t="s">
         <v>12</v>
       </c>
-      <c r="AA85">
-        <v>1</v>
-      </c>
-      <c r="AB85">
-        <v>1</v>
-      </c>
-      <c r="AC85" t="s">
-        <v>162</v>
+      <c r="X85" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="18:29" x14ac:dyDescent="0.2">
@@ -3525,10 +3511,10 @@
         <v>12</v>
       </c>
       <c r="AA86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC86" t="s">
         <v>162</v>
@@ -3551,10 +3537,10 @@
         <v>12</v>
       </c>
       <c r="AA87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC87" t="s">
         <v>162</v>
@@ -3565,22 +3551,25 @@
         <v>14</v>
       </c>
       <c r="S88" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="T88">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V88" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="W88" t="s">
         <v>12</v>
       </c>
-      <c r="X88" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>0</v>
+      <c r="AA88">
+        <v>3</v>
+      </c>
+      <c r="AB88">
+        <v>3</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="18:29" x14ac:dyDescent="0.2">
@@ -3600,10 +3589,10 @@
         <v>12</v>
       </c>
       <c r="X89" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y89" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="18:29" x14ac:dyDescent="0.2">
@@ -3622,8 +3611,11 @@
       <c r="W90" t="s">
         <v>12</v>
       </c>
-      <c r="Z90" t="s">
-        <v>172</v>
+      <c r="X90" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="18:29" x14ac:dyDescent="0.2">
@@ -3643,7 +3635,7 @@
         <v>12</v>
       </c>
       <c r="Z91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="18:29" x14ac:dyDescent="0.2">
@@ -3663,7 +3655,7 @@
         <v>12</v>
       </c>
       <c r="Z92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="18:29" x14ac:dyDescent="0.2">
@@ -3682,14 +3674,8 @@
       <c r="W93" t="s">
         <v>12</v>
       </c>
-      <c r="AA93" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB93">
-        <v>1</v>
-      </c>
-      <c r="AC93" t="s">
-        <v>162</v>
+      <c r="Z93" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="18:29" x14ac:dyDescent="0.2">
@@ -3709,10 +3695,10 @@
         <v>12</v>
       </c>
       <c r="AA94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AB94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC94" t="s">
         <v>162</v>
@@ -3723,22 +3709,25 @@
         <v>14</v>
       </c>
       <c r="S95" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="T95">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V95" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="W95" t="s">
         <v>12</v>
       </c>
-      <c r="X95" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>15</v>
+      <c r="AA95" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB95">
+        <v>2</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="18:29" x14ac:dyDescent="0.2">
@@ -3758,7 +3747,7 @@
         <v>12</v>
       </c>
       <c r="X96" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y96" t="s">
         <v>15</v>
@@ -3780,8 +3769,11 @@
       <c r="W97" t="s">
         <v>12</v>
       </c>
-      <c r="Z97" t="s">
-        <v>175</v>
+      <c r="X97" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="18:29" x14ac:dyDescent="0.2">
@@ -3800,14 +3792,8 @@
       <c r="W98" t="s">
         <v>12</v>
       </c>
-      <c r="AA98" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB98">
-        <v>1</v>
-      </c>
-      <c r="AC98" t="s">
-        <v>162</v>
+      <c r="Z98" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="99" spans="18:29" x14ac:dyDescent="0.2">
@@ -3830,7 +3816,7 @@
         <v>12</v>
       </c>
       <c r="AB99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC99" t="s">
         <v>162</v>
@@ -3838,22 +3824,28 @@
     </row>
     <row r="100" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R100" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="S100" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="T100">
-        <v>9</v>
-      </c>
-      <c r="U100" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="V100" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="W100" t="s">
-        <v>93</v>
+        <v>12</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB100">
+        <v>2</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="18:29" x14ac:dyDescent="0.2">
@@ -3866,17 +3858,14 @@
       <c r="T101">
         <v>9</v>
       </c>
+      <c r="U101" t="s">
+        <v>176</v>
+      </c>
       <c r="V101" t="s">
         <v>94</v>
       </c>
       <c r="W101" t="s">
         <v>93</v>
-      </c>
-      <c r="X101" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y101" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="102" spans="18:29" x14ac:dyDescent="0.2">
@@ -3896,10 +3885,10 @@
         <v>93</v>
       </c>
       <c r="X102" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y102" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="18:29" x14ac:dyDescent="0.2">
@@ -3918,8 +3907,11 @@
       <c r="W103" t="s">
         <v>93</v>
       </c>
-      <c r="Z103" t="s">
-        <v>177</v>
+      <c r="X103" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="18:29" x14ac:dyDescent="0.2">
@@ -3939,7 +3931,7 @@
         <v>93</v>
       </c>
       <c r="Z104" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="18:29" x14ac:dyDescent="0.2">
@@ -3958,14 +3950,8 @@
       <c r="W105" t="s">
         <v>93</v>
       </c>
-      <c r="AA105" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB105">
-        <v>1</v>
-      </c>
-      <c r="AC105" t="s">
-        <v>180</v>
+      <c r="Z105" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="106" spans="18:29" x14ac:dyDescent="0.2">
@@ -3985,13 +3971,13 @@
         <v>93</v>
       </c>
       <c r="AA106" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="AB106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC106" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="107" spans="18:29" x14ac:dyDescent="0.2">
@@ -4011,10 +3997,10 @@
         <v>93</v>
       </c>
       <c r="AA107" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="AB107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC107" t="s">
         <v>162</v>
@@ -4037,13 +4023,13 @@
         <v>93</v>
       </c>
       <c r="AA108" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="AB108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC108" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="18:29" x14ac:dyDescent="0.2">
@@ -4063,13 +4049,13 @@
         <v>93</v>
       </c>
       <c r="AA109" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="AB109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC109" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="18:29" x14ac:dyDescent="0.2">
@@ -4089,10 +4075,10 @@
         <v>93</v>
       </c>
       <c r="AA110" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="AB110">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC110" t="s">
         <v>162</v>
@@ -4115,10 +4101,10 @@
         <v>93</v>
       </c>
       <c r="AA111" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB111">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC111" t="s">
         <v>162</v>
@@ -4141,10 +4127,10 @@
         <v>93</v>
       </c>
       <c r="AA112" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="AB112">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC112" t="s">
         <v>162</v>
@@ -4152,25 +4138,28 @@
     </row>
     <row r="113" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R113" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="S113" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="T113">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V113" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="W113" t="s">
-        <v>76</v>
-      </c>
-      <c r="X113" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y113" t="s">
-        <v>152</v>
+        <v>93</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB113">
+        <v>8</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="18:29" x14ac:dyDescent="0.2">
@@ -4190,10 +4179,10 @@
         <v>76</v>
       </c>
       <c r="X114" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y114" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="18:29" x14ac:dyDescent="0.2">
@@ -4212,8 +4201,11 @@
       <c r="W115" t="s">
         <v>76</v>
       </c>
-      <c r="Z115" t="s">
-        <v>183</v>
+      <c r="X115" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="18:29" x14ac:dyDescent="0.2">
@@ -4233,7 +4225,7 @@
         <v>76</v>
       </c>
       <c r="Z116" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="18:29" x14ac:dyDescent="0.2">
@@ -4252,14 +4244,8 @@
       <c r="W117" t="s">
         <v>76</v>
       </c>
-      <c r="AA117" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB117">
-        <v>1</v>
-      </c>
-      <c r="AC117" t="s">
-        <v>186</v>
+      <c r="Z117" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="118" spans="18:29" x14ac:dyDescent="0.2">
@@ -4279,10 +4265,10 @@
         <v>76</v>
       </c>
       <c r="AA118" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AB118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC118" t="s">
         <v>186</v>
@@ -4305,10 +4291,10 @@
         <v>76</v>
       </c>
       <c r="AA119" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC119" t="s">
         <v>186</v>
@@ -4331,13 +4317,13 @@
         <v>76</v>
       </c>
       <c r="AA120" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC120" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="18:29" x14ac:dyDescent="0.2">
@@ -4357,13 +4343,13 @@
         <v>76</v>
       </c>
       <c r="AA121" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AB121">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC121" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="18:29" x14ac:dyDescent="0.2">
@@ -4383,13 +4369,13 @@
         <v>76</v>
       </c>
       <c r="AA122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB122">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC122" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="18:29" x14ac:dyDescent="0.2">
@@ -4409,10 +4395,10 @@
         <v>76</v>
       </c>
       <c r="AA123" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB123">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC123" t="s">
         <v>186</v>
@@ -4435,10 +4421,10 @@
         <v>76</v>
       </c>
       <c r="AA124" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB124">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC124" t="s">
         <v>186</v>
@@ -4461,10 +4447,10 @@
         <v>76</v>
       </c>
       <c r="AA125" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB125">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC125" t="s">
         <v>186</v>
@@ -4487,10 +4473,10 @@
         <v>76</v>
       </c>
       <c r="AA126" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AB126">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC126" t="s">
         <v>186</v>
@@ -4513,10 +4499,10 @@
         <v>76</v>
       </c>
       <c r="AA127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AB127">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC127" t="s">
         <v>186</v>
@@ -4539,10 +4525,10 @@
         <v>76</v>
       </c>
       <c r="AA128" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB128">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC128" t="s">
         <v>186</v>
@@ -4565,10 +4551,10 @@
         <v>76</v>
       </c>
       <c r="AA129" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AB129">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC129" t="s">
         <v>186</v>
@@ -4591,13 +4577,13 @@
         <v>76</v>
       </c>
       <c r="AA130" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AB130">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC130" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" spans="18:29" x14ac:dyDescent="0.2">
@@ -4617,13 +4603,13 @@
         <v>76</v>
       </c>
       <c r="AA131" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB131">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC131" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132" spans="18:29" x14ac:dyDescent="0.2">
@@ -4643,10 +4629,10 @@
         <v>76</v>
       </c>
       <c r="AA132" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AB132">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC132" t="s">
         <v>186</v>
@@ -4669,10 +4655,10 @@
         <v>76</v>
       </c>
       <c r="AA133" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB133">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC133" t="s">
         <v>186</v>
@@ -4695,10 +4681,10 @@
         <v>76</v>
       </c>
       <c r="AA134" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB134">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC134" t="s">
         <v>186</v>
@@ -4706,25 +4692,28 @@
     </row>
     <row r="135" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R135" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="S135" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="T135">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V135" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="W135" t="s">
-        <v>139</v>
-      </c>
-      <c r="X135" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y135" t="s">
-        <v>152</v>
+        <v>76</v>
+      </c>
+      <c r="AA135" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB135">
+        <v>18</v>
+      </c>
+      <c r="AC135" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="18:29" x14ac:dyDescent="0.2">
@@ -4744,10 +4733,10 @@
         <v>139</v>
       </c>
       <c r="X136" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y136" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="18:29" x14ac:dyDescent="0.2">
@@ -4767,10 +4756,10 @@
         <v>139</v>
       </c>
       <c r="X137" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="Y137" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="18:29" x14ac:dyDescent="0.2">
@@ -4790,10 +4779,10 @@
         <v>139</v>
       </c>
       <c r="X138" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y138" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
     </row>
     <row r="139" spans="18:29" x14ac:dyDescent="0.2">
@@ -4813,10 +4802,10 @@
         <v>139</v>
       </c>
       <c r="X139" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="Y139" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="18:29" x14ac:dyDescent="0.2">
@@ -4836,10 +4825,10 @@
         <v>139</v>
       </c>
       <c r="X140" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Y140" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="18:29" x14ac:dyDescent="0.2">
@@ -4859,10 +4848,10 @@
         <v>139</v>
       </c>
       <c r="X141" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="Y141" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="18:29" x14ac:dyDescent="0.2">
@@ -4882,10 +4871,10 @@
         <v>139</v>
       </c>
       <c r="X142" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="Y142" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="18:29" x14ac:dyDescent="0.2">
@@ -4905,10 +4894,10 @@
         <v>139</v>
       </c>
       <c r="X143" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Y143" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="18:29" x14ac:dyDescent="0.2">
@@ -4928,10 +4917,10 @@
         <v>139</v>
       </c>
       <c r="X144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y144" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="18:29" x14ac:dyDescent="0.2">
@@ -4951,10 +4940,10 @@
         <v>139</v>
       </c>
       <c r="X145" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y145" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="18:29" x14ac:dyDescent="0.2">
@@ -4974,10 +4963,10 @@
         <v>139</v>
       </c>
       <c r="X146" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Y146" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="18:29" x14ac:dyDescent="0.2">
@@ -4997,10 +4986,10 @@
         <v>139</v>
       </c>
       <c r="X147" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y147" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148" spans="18:29" x14ac:dyDescent="0.2">
@@ -5019,14 +5008,11 @@
       <c r="W148" t="s">
         <v>139</v>
       </c>
-      <c r="AA148" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB148">
-        <v>1</v>
-      </c>
-      <c r="AC148" t="s">
-        <v>157</v>
+      <c r="X148" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y148" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="18:29" x14ac:dyDescent="0.2">
@@ -5046,10 +5032,10 @@
         <v>139</v>
       </c>
       <c r="AA149" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="AB149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC149" t="s">
         <v>157</v>
@@ -5072,36 +5058,39 @@
         <v>139</v>
       </c>
       <c r="AA150" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="AB150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC150" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R151" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="S151" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="T151">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V151" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="W151" t="s">
-        <v>41</v>
-      </c>
-      <c r="X151" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y151" t="s">
-        <v>210</v>
+        <v>139</v>
+      </c>
+      <c r="AA151" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB151">
+        <v>3</v>
+      </c>
+      <c r="AC151" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="152" spans="18:29" x14ac:dyDescent="0.2">
@@ -5121,10 +5110,10 @@
         <v>41</v>
       </c>
       <c r="X152" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y152" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
     </row>
     <row r="153" spans="18:29" x14ac:dyDescent="0.2">
@@ -5144,10 +5133,10 @@
         <v>41</v>
       </c>
       <c r="X153" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="Y153" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="154" spans="18:29" x14ac:dyDescent="0.2">
@@ -5167,10 +5156,10 @@
         <v>41</v>
       </c>
       <c r="X154" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y154" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="155" spans="18:29" x14ac:dyDescent="0.2">
@@ -5190,10 +5179,10 @@
         <v>41</v>
       </c>
       <c r="X155" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="Y155" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156" spans="18:29" x14ac:dyDescent="0.2">
@@ -5213,10 +5202,10 @@
         <v>41</v>
       </c>
       <c r="X156" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Y156" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="18:29" x14ac:dyDescent="0.2">
@@ -5236,10 +5225,10 @@
         <v>41</v>
       </c>
       <c r="X157" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="Y157" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="18:29" x14ac:dyDescent="0.2">
@@ -5259,10 +5248,10 @@
         <v>41</v>
       </c>
       <c r="X158" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="Y158" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="159" spans="18:29" x14ac:dyDescent="0.2">
@@ -5282,10 +5271,10 @@
         <v>41</v>
       </c>
       <c r="X159" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Y159" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="18:29" x14ac:dyDescent="0.2">
@@ -5305,10 +5294,10 @@
         <v>41</v>
       </c>
       <c r="X160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y160" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="161" spans="18:36" x14ac:dyDescent="0.2">
@@ -5328,10 +5317,10 @@
         <v>41</v>
       </c>
       <c r="X161" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y161" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="18:36" x14ac:dyDescent="0.2">
@@ -5351,10 +5340,10 @@
         <v>41</v>
       </c>
       <c r="X162" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Y162" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="18:36" x14ac:dyDescent="0.2">
@@ -5374,10 +5363,10 @@
         <v>41</v>
       </c>
       <c r="X163" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y163" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="164" spans="18:36" x14ac:dyDescent="0.2">
@@ -5396,14 +5385,11 @@
       <c r="W164" t="s">
         <v>41</v>
       </c>
-      <c r="AA164" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB164">
-        <v>1</v>
-      </c>
-      <c r="AC164" t="s">
-        <v>162</v>
+      <c r="X164" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y164" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="18:36" x14ac:dyDescent="0.2">
@@ -5423,10 +5409,10 @@
         <v>41</v>
       </c>
       <c r="AA165" t="s">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="AB165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC165" t="s">
         <v>162</v>
@@ -5449,100 +5435,109 @@
         <v>41</v>
       </c>
       <c r="AA166" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="AB166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC166" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="167" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AD167" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE167" t="s">
-        <v>212</v>
+      <c r="R167" t="s">
+        <v>46</v>
+      </c>
+      <c r="S167" t="s">
+        <v>47</v>
+      </c>
+      <c r="T167">
+        <v>12</v>
+      </c>
+      <c r="V167" t="s">
+        <v>45</v>
+      </c>
+      <c r="W167" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB167">
+        <v>3</v>
+      </c>
+      <c r="AC167" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD168" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE168" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="169" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD169" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AE169" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="170" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD170" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="AE170" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="171" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD171" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AE171" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="172" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD172" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AE172" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="173" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD173" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174" spans="18:36" x14ac:dyDescent="0.2">
+      <c r="AD174" t="s">
         <v>46</v>
       </c>
-      <c r="AE173" t="s">
+      <c r="AE174" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="174" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AF174">
-        <v>1</v>
-      </c>
-      <c r="AG174" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH174">
-        <v>1</v>
-      </c>
-      <c r="AI174">
-        <v>1</v>
-      </c>
-      <c r="AJ174" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="175" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AF175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG175" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ175" t="s">
         <v>3</v>
@@ -5550,33 +5545,33 @@
     </row>
     <row r="176" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AF176">
+        <v>2</v>
+      </c>
+      <c r="AG176" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH176">
+        <v>2</v>
+      </c>
+      <c r="AI176">
         <v>3</v>
       </c>
-      <c r="AG176" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH176">
+      <c r="AJ176" t="s">
         <v>3</v>
-      </c>
-      <c r="AI176">
-        <v>1</v>
-      </c>
-      <c r="AJ176" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="177" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG177" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AH177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ177" t="s">
         <v>8</v>
@@ -5584,33 +5579,33 @@
     </row>
     <row r="178" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF178">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG178" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AH178">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ178" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF179">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG179" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AH179">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ179" t="s">
         <v>9</v>
@@ -5618,33 +5613,33 @@
     </row>
     <row r="180" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF180">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG180" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AH180">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ180" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF181">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG181" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AH181">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ181" t="s">
         <v>10</v>
@@ -5652,19 +5647,19 @@
     </row>
     <row r="182" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF182">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG182" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AH182">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ182" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="32:36" x14ac:dyDescent="0.2">
@@ -5678,27 +5673,27 @@
         <v>9</v>
       </c>
       <c r="AI183">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ183" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
     </row>
     <row r="184" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF184">
+        <v>9</v>
+      </c>
+      <c r="AG184" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH184">
+        <v>9</v>
+      </c>
+      <c r="AI184">
+        <v>5</v>
+      </c>
+      <c r="AJ184" t="s">
         <v>10</v>
-      </c>
-      <c r="AG184" t="s">
-        <v>228</v>
-      </c>
-      <c r="AH184">
-        <v>10</v>
-      </c>
-      <c r="AI184">
-        <v>4</v>
-      </c>
-      <c r="AJ184" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="185" spans="32:36" x14ac:dyDescent="0.2">
@@ -5712,27 +5707,27 @@
         <v>10</v>
       </c>
       <c r="AI185">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ185" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF186">
+        <v>10</v>
+      </c>
+      <c r="AG186" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH186">
+        <v>10</v>
+      </c>
+      <c r="AI186">
+        <v>2</v>
+      </c>
+      <c r="AJ186" t="s">
         <v>11</v>
-      </c>
-      <c r="AG186" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH186">
-        <v>11</v>
-      </c>
-      <c r="AI186">
-        <v>4</v>
-      </c>
-      <c r="AJ186" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="187" spans="32:36" x14ac:dyDescent="0.2">
@@ -5746,27 +5741,27 @@
         <v>11</v>
       </c>
       <c r="AI187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ187" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF188">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG188" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AH188">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ188" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="32:36" x14ac:dyDescent="0.2">
@@ -5780,27 +5775,27 @@
         <v>12</v>
       </c>
       <c r="AI189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ189" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF190">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG190" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AH190">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI190">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ190" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="32:36" x14ac:dyDescent="0.2">
@@ -5814,44 +5809,44 @@
         <v>13</v>
       </c>
       <c r="AI191">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ191" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF192">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG192" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AH192">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ192" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF193">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG193" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH193">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI193">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AJ193" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
     </row>
     <row r="194" spans="32:36" x14ac:dyDescent="0.2">
@@ -5868,7 +5863,7 @@
         <v>9</v>
       </c>
       <c r="AJ194" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" spans="32:36" x14ac:dyDescent="0.2">
@@ -5882,7 +5877,7 @@
         <v>15</v>
       </c>
       <c r="AI195">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ195" t="s">
         <v>1</v>
@@ -5899,10 +5894,10 @@
         <v>15</v>
       </c>
       <c r="AI196">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AJ196" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="32:36" x14ac:dyDescent="0.2">
@@ -5916,10 +5911,10 @@
         <v>15</v>
       </c>
       <c r="AI197">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ197" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198" spans="32:36" x14ac:dyDescent="0.2">
@@ -5933,7 +5928,7 @@
         <v>15</v>
       </c>
       <c r="AI198">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ198" t="s">
         <v>1</v>
@@ -5950,7 +5945,7 @@
         <v>15</v>
       </c>
       <c r="AI199">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ199" t="s">
         <v>1</v>
@@ -5967,10 +5962,10 @@
         <v>15</v>
       </c>
       <c r="AI200">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ200" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="32:36" x14ac:dyDescent="0.2">
@@ -5984,7 +5979,7 @@
         <v>15</v>
       </c>
       <c r="AI201">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AJ201" t="s">
         <v>19</v>
@@ -6001,7 +5996,7 @@
         <v>15</v>
       </c>
       <c r="AI202">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AJ202" t="s">
         <v>19</v>
@@ -6018,10 +6013,10 @@
         <v>15</v>
       </c>
       <c r="AI203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ203" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204" spans="32:36" x14ac:dyDescent="0.2">
@@ -6035,41 +6030,41 @@
         <v>15</v>
       </c>
       <c r="AI204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ204" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF205">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG205" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AH205">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI205">
         <v>1</v>
       </c>
       <c r="AJ205" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF206">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG206" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AH206">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ206" t="s">
         <v>20</v>
@@ -6077,16 +6072,16 @@
     </row>
     <row r="207" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF207">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG207" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AH207">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI207">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ207" t="s">
         <v>20</v>
@@ -6103,41 +6098,41 @@
         <v>18</v>
       </c>
       <c r="AI208">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ208" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF209">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG209" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AH209">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI209">
         <v>1</v>
       </c>
       <c r="AJ209" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="210" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF210">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG210" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AH210">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ210" t="s">
         <v>21</v>
@@ -6145,16 +6140,16 @@
     </row>
     <row r="211" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF211">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG211" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AH211">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI211">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ211" t="s">
         <v>21</v>
@@ -6171,41 +6166,41 @@
         <v>21</v>
       </c>
       <c r="AI212">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ212" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF213">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG213" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH213">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI213">
         <v>1</v>
       </c>
       <c r="AJ213" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
     </row>
     <row r="214" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF214">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG214" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH214">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ214" t="s">
         <v>22</v>
@@ -6213,16 +6208,16 @@
     </row>
     <row r="215" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF215">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG215" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AH215">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI215">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ215" t="s">
         <v>22</v>
@@ -6239,27 +6234,27 @@
         <v>24</v>
       </c>
       <c r="AI216">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ216" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF217">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG217" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH217">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI217">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ217" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="218" spans="32:36" x14ac:dyDescent="0.2">
@@ -6273,27 +6268,27 @@
         <v>25</v>
       </c>
       <c r="AI218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ218" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="219" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF219">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG219" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AH219">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI219">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ219" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="220" spans="32:36" x14ac:dyDescent="0.2">
@@ -6307,27 +6302,27 @@
         <v>26</v>
       </c>
       <c r="AI220">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ220" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF221">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG221" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AH221">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI221">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ221" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="222" spans="32:36" x14ac:dyDescent="0.2">
@@ -6341,27 +6336,27 @@
         <v>27</v>
       </c>
       <c r="AI222">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ222" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF223">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG223" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH223">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ223" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="224" spans="32:36" x14ac:dyDescent="0.2">
@@ -6375,41 +6370,41 @@
         <v>28</v>
       </c>
       <c r="AI224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ224" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF225">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG225" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH225">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI225">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ225" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="226" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF226">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG226" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH226">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ226" t="s">
         <v>61</v>
@@ -6417,33 +6412,33 @@
     </row>
     <row r="227" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF227">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG227" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AH227">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI227">
         <v>1</v>
       </c>
       <c r="AJ227" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="228" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF228">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG228" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH228">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ228" t="s">
         <v>27</v>
@@ -6451,16 +6446,16 @@
     </row>
     <row r="229" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF229">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG229" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH229">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI229">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ229" t="s">
         <v>27</v>
@@ -6477,27 +6472,27 @@
         <v>33</v>
       </c>
       <c r="AI230">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ230" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
     </row>
     <row r="231" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF231">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG231" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="AH231">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AI231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ231" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="232" spans="32:36" x14ac:dyDescent="0.2">
@@ -6514,7 +6509,7 @@
         <v>2</v>
       </c>
       <c r="AJ232" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="233" spans="32:36" x14ac:dyDescent="0.2">
@@ -6528,10 +6523,10 @@
         <v>34</v>
       </c>
       <c r="AI233">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ233" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="234" spans="32:36" x14ac:dyDescent="0.2">
@@ -6545,10 +6540,10 @@
         <v>34</v>
       </c>
       <c r="AI234">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ234" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="235" spans="32:36" x14ac:dyDescent="0.2">
@@ -6565,7 +6560,7 @@
         <v>2</v>
       </c>
       <c r="AJ235" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="236" spans="32:36" x14ac:dyDescent="0.2">
@@ -6582,7 +6577,7 @@
         <v>2</v>
       </c>
       <c r="AJ236" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="237" spans="32:36" x14ac:dyDescent="0.2">
@@ -6599,7 +6594,7 @@
         <v>2</v>
       </c>
       <c r="AJ237" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="238" spans="32:36" x14ac:dyDescent="0.2">
@@ -6616,7 +6611,7 @@
         <v>2</v>
       </c>
       <c r="AJ238" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
     </row>
     <row r="239" spans="32:36" x14ac:dyDescent="0.2">
@@ -6633,7 +6628,7 @@
         <v>2</v>
       </c>
       <c r="AJ239" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
     </row>
     <row r="240" spans="32:36" x14ac:dyDescent="0.2">
@@ -6650,7 +6645,7 @@
         <v>2</v>
       </c>
       <c r="AJ240" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="241" spans="32:36" x14ac:dyDescent="0.2">
@@ -6664,10 +6659,10 @@
         <v>34</v>
       </c>
       <c r="AI241">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ241" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
     </row>
     <row r="242" spans="32:36" x14ac:dyDescent="0.2">
@@ -6681,10 +6676,10 @@
         <v>34</v>
       </c>
       <c r="AI242">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ242" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
     </row>
     <row r="243" spans="32:36" x14ac:dyDescent="0.2">
@@ -6701,7 +6696,7 @@
         <v>2</v>
       </c>
       <c r="AJ243" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
     </row>
     <row r="244" spans="32:36" x14ac:dyDescent="0.2">
@@ -6718,7 +6713,7 @@
         <v>2</v>
       </c>
       <c r="AJ244" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="245" spans="32:36" x14ac:dyDescent="0.2">
@@ -6732,10 +6727,10 @@
         <v>34</v>
       </c>
       <c r="AI245">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ245" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="32:36" x14ac:dyDescent="0.2">
@@ -6749,10 +6744,10 @@
         <v>34</v>
       </c>
       <c r="AI246">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ246" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="247" spans="32:36" x14ac:dyDescent="0.2">
@@ -6769,7 +6764,7 @@
         <v>2</v>
       </c>
       <c r="AJ247" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="248" spans="32:36" x14ac:dyDescent="0.2">
@@ -6786,7 +6781,7 @@
         <v>2</v>
       </c>
       <c r="AJ248" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="32:36" x14ac:dyDescent="0.2">
@@ -6803,7 +6798,7 @@
         <v>2</v>
       </c>
       <c r="AJ249" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
     </row>
     <row r="250" spans="32:36" x14ac:dyDescent="0.2">
@@ -6817,10 +6812,10 @@
         <v>34</v>
       </c>
       <c r="AI250">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ250" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
     </row>
     <row r="251" spans="32:36" x14ac:dyDescent="0.2">
@@ -6834,10 +6829,10 @@
         <v>34</v>
       </c>
       <c r="AI251">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ251" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="252" spans="32:36" x14ac:dyDescent="0.2">
@@ -6851,10 +6846,10 @@
         <v>34</v>
       </c>
       <c r="AI252">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ252" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253" spans="32:36" x14ac:dyDescent="0.2">
@@ -6871,7 +6866,7 @@
         <v>7</v>
       </c>
       <c r="AJ253" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="254" spans="32:36" x14ac:dyDescent="0.2">
@@ -6885,10 +6880,10 @@
         <v>34</v>
       </c>
       <c r="AI254">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ254" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="32:36" x14ac:dyDescent="0.2">
@@ -6905,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="AJ255" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="256" spans="32:36" x14ac:dyDescent="0.2">
@@ -6922,7 +6917,7 @@
         <v>2</v>
       </c>
       <c r="AJ256" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="32:36" x14ac:dyDescent="0.2">
@@ -6936,10 +6931,10 @@
         <v>34</v>
       </c>
       <c r="AI257">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ257" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="258" spans="32:36" x14ac:dyDescent="0.2">
@@ -6953,10 +6948,10 @@
         <v>34</v>
       </c>
       <c r="AI258">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ258" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="259" spans="32:36" x14ac:dyDescent="0.2">
@@ -6973,7 +6968,7 @@
         <v>2</v>
       </c>
       <c r="AJ259" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="260" spans="32:36" x14ac:dyDescent="0.2">
@@ -6987,10 +6982,10 @@
         <v>34</v>
       </c>
       <c r="AI260">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ260" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
     </row>
     <row r="261" spans="32:36" x14ac:dyDescent="0.2">
@@ -7004,10 +6999,10 @@
         <v>34</v>
       </c>
       <c r="AI261">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ261" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="262" spans="32:36" x14ac:dyDescent="0.2">
@@ -7021,10 +7016,10 @@
         <v>34</v>
       </c>
       <c r="AI262">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ262" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
     </row>
     <row r="263" spans="32:36" x14ac:dyDescent="0.2">
@@ -7038,10 +7033,10 @@
         <v>34</v>
       </c>
       <c r="AI263">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ263" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
     </row>
     <row r="264" spans="32:36" x14ac:dyDescent="0.2">
@@ -7058,24 +7053,24 @@
         <v>2</v>
       </c>
       <c r="AJ264" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
     </row>
     <row r="265" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF265">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG265" t="s">
-        <v>252</v>
+        <v>156</v>
       </c>
       <c r="AH265">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI265">
         <v>2</v>
       </c>
       <c r="AJ265" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="266" spans="32:36" x14ac:dyDescent="0.2">
@@ -7089,27 +7084,27 @@
         <v>35</v>
       </c>
       <c r="AI266">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ266" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="267" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF267">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG267" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH267">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI267">
         <v>4</v>
       </c>
       <c r="AJ267" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="268" spans="32:36" x14ac:dyDescent="0.2">
@@ -7123,41 +7118,41 @@
         <v>36</v>
       </c>
       <c r="AI268">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ268" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="269" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF269">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG269" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AH269">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI269">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ269" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="270" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF270">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG270" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH270">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI270">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ270" t="s">
         <v>62</v>
@@ -7165,19 +7160,19 @@
     </row>
     <row r="271" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF271">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG271" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH271">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI271">
         <v>1</v>
       </c>
       <c r="AJ271" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="272" spans="32:36" x14ac:dyDescent="0.2">
@@ -7191,27 +7186,27 @@
         <v>39</v>
       </c>
       <c r="AI272">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ272" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="273" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF273">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG273" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH273">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AI273">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ273" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="32:36" x14ac:dyDescent="0.2">
@@ -7225,27 +7220,27 @@
         <v>40</v>
       </c>
       <c r="AI274">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ274" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="275" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF275">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG275" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH275">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AI275">
         <v>5</v>
       </c>
       <c r="AJ275" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276" spans="32:36" x14ac:dyDescent="0.2">
@@ -7259,27 +7254,27 @@
         <v>41</v>
       </c>
       <c r="AI276">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ276" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF277">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG277" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH277">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI277">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AJ277" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="278" spans="32:36" x14ac:dyDescent="0.2">
@@ -7293,7 +7288,7 @@
         <v>42</v>
       </c>
       <c r="AI278">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ278" t="s">
         <v>39</v>
@@ -7310,10 +7305,10 @@
         <v>42</v>
       </c>
       <c r="AI279">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ279" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="280" spans="32:36" x14ac:dyDescent="0.2">
@@ -7327,10 +7322,10 @@
         <v>42</v>
       </c>
       <c r="AI280">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AJ280" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="281" spans="32:36" x14ac:dyDescent="0.2">
@@ -7344,10 +7339,10 @@
         <v>42</v>
       </c>
       <c r="AI281">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ281" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="282" spans="32:36" x14ac:dyDescent="0.2">
@@ -7361,7 +7356,7 @@
         <v>42</v>
       </c>
       <c r="AI282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ282" t="s">
         <v>35</v>
@@ -7378,7 +7373,7 @@
         <v>42</v>
       </c>
       <c r="AI283">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AJ283" t="s">
         <v>35</v>
@@ -7395,10 +7390,10 @@
         <v>42</v>
       </c>
       <c r="AI284">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ284" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="285" spans="32:36" x14ac:dyDescent="0.2">
@@ -7412,10 +7407,10 @@
         <v>42</v>
       </c>
       <c r="AI285">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AJ285" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="286" spans="32:36" x14ac:dyDescent="0.2">
@@ -7429,10 +7424,10 @@
         <v>42</v>
       </c>
       <c r="AI286">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AJ286" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="287" spans="32:36" x14ac:dyDescent="0.2">
@@ -7446,10 +7441,10 @@
         <v>42</v>
       </c>
       <c r="AI287">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AJ287" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="288" spans="32:36" x14ac:dyDescent="0.2">
@@ -7463,27 +7458,27 @@
         <v>42</v>
       </c>
       <c r="AI288">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AJ288" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="289" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF289">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG289" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AH289">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI289">
         <v>1</v>
       </c>
       <c r="AJ289" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
     </row>
     <row r="290" spans="32:36" x14ac:dyDescent="0.2">
@@ -7497,27 +7492,27 @@
         <v>43</v>
       </c>
       <c r="AI290">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ290" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="291" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF291">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG291" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AH291">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI291">
         <v>5</v>
       </c>
       <c r="AJ291" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="292" spans="32:36" x14ac:dyDescent="0.2">
@@ -7531,27 +7526,27 @@
         <v>44</v>
       </c>
       <c r="AI292">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ292" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
     </row>
     <row r="293" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF293">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG293" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AH293">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI293">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ293" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="294" spans="32:36" x14ac:dyDescent="0.2">
@@ -7565,27 +7560,27 @@
         <v>45</v>
       </c>
       <c r="AI294">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ294" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="295" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF295">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AG295" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH295">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI295">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ295" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="296" spans="32:36" x14ac:dyDescent="0.2">
@@ -7599,27 +7594,27 @@
         <v>46</v>
       </c>
       <c r="AI296">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ296" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="297" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF297">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG297" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AH297">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI297">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ297" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="298" spans="32:36" x14ac:dyDescent="0.2">
@@ -7633,24 +7628,24 @@
         <v>47</v>
       </c>
       <c r="AI298">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AJ298" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="299" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF299">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AG299" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH299">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI299">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ299" t="s">
         <v>35</v>
@@ -7667,27 +7662,27 @@
         <v>48</v>
       </c>
       <c r="AI300">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AJ300" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="301" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF301">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG301" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AH301">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI301">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ301" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="302" spans="32:36" x14ac:dyDescent="0.2">
@@ -7701,27 +7696,27 @@
         <v>49</v>
       </c>
       <c r="AI302">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ302" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="303" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF303">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG303" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AH303">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI303">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ303" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="304" spans="32:36" x14ac:dyDescent="0.2">
@@ -7735,27 +7730,27 @@
         <v>50</v>
       </c>
       <c r="AI304">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ304" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="305" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF305">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG305" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AH305">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI305">
         <v>3</v>
       </c>
       <c r="AJ305" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="306" spans="32:36" x14ac:dyDescent="0.2">
@@ -7769,27 +7764,27 @@
         <v>51</v>
       </c>
       <c r="AI306">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ306" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="307" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF307">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG307" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AH307">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI307">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ307" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="308" spans="32:36" x14ac:dyDescent="0.2">
@@ -7803,27 +7798,27 @@
         <v>52</v>
       </c>
       <c r="AI308">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ308" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="309" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF309">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG309" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH309">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI309">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ309" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="310" spans="32:36" x14ac:dyDescent="0.2">
@@ -7837,27 +7832,27 @@
         <v>53</v>
       </c>
       <c r="AI310">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AJ310" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="311" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF311">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG311" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AH311">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI311">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AJ311" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="312" spans="32:36" x14ac:dyDescent="0.2">
@@ -7871,27 +7866,27 @@
         <v>54</v>
       </c>
       <c r="AI312">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AJ312" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="313" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF313">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG313" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AH313">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI313">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ313" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="314" spans="32:36" x14ac:dyDescent="0.2">
@@ -7905,27 +7900,27 @@
         <v>55</v>
       </c>
       <c r="AI314">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ314" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF315">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG315" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AH315">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI315">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ315" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="316" spans="32:36" x14ac:dyDescent="0.2">
@@ -7939,27 +7934,27 @@
         <v>56</v>
       </c>
       <c r="AI316">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ316" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF317">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG317" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH317">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI317">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ317" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="318" spans="32:36" x14ac:dyDescent="0.2">
@@ -7973,27 +7968,27 @@
         <v>57</v>
       </c>
       <c r="AI318">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ318" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF319">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG319" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH319">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI319">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ319" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="320" spans="32:36" x14ac:dyDescent="0.2">
@@ -8007,27 +8002,27 @@
         <v>58</v>
       </c>
       <c r="AI320">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ320" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF321">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG321" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH321">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI321">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ321" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="322" spans="32:36" x14ac:dyDescent="0.2">
@@ -8041,27 +8036,27 @@
         <v>59</v>
       </c>
       <c r="AI322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ322" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="323" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF323">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG323" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AH323">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI323">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ323" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="324" spans="32:36" x14ac:dyDescent="0.2">
@@ -8075,27 +8070,27 @@
         <v>60</v>
       </c>
       <c r="AI324">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ324" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="325" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF325">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG325" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AH325">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI325">
         <v>1</v>
       </c>
       <c r="AJ325" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="326" spans="32:36" x14ac:dyDescent="0.2">
@@ -8109,24 +8104,24 @@
         <v>61</v>
       </c>
       <c r="AI326">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ326" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="327" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF327">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG327" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AH327">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI327">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ327" t="s">
         <v>19</v>
@@ -8143,27 +8138,27 @@
         <v>62</v>
       </c>
       <c r="AI328">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ328" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="329" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF329">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG329" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AH329">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI329">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ329" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="330" spans="32:36" x14ac:dyDescent="0.2">
@@ -8177,27 +8172,27 @@
         <v>63</v>
       </c>
       <c r="AI330">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ330" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="331" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF331">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG331" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH331">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI331">
         <v>1</v>
       </c>
       <c r="AJ331" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="332" spans="32:36" x14ac:dyDescent="0.2">
@@ -8211,27 +8206,27 @@
         <v>64</v>
       </c>
       <c r="AI332">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ332" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="333" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF333">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG333" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AH333">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AI333">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AJ333" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="334" spans="32:36" x14ac:dyDescent="0.2">
@@ -8248,24 +8243,24 @@
         <v>2</v>
       </c>
       <c r="AJ334" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="335" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF335">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG335" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH335">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI335">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ335" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="336" spans="32:36" x14ac:dyDescent="0.2">
@@ -8279,27 +8274,27 @@
         <v>66</v>
       </c>
       <c r="AI336">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ336" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="337" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF337">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG337" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH337">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI337">
         <v>2</v>
       </c>
       <c r="AJ337" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="338" spans="32:36" x14ac:dyDescent="0.2">
@@ -8313,24 +8308,24 @@
         <v>67</v>
       </c>
       <c r="AI338">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ338" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="339" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF339">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG339" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AH339">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI339">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ339" t="s">
         <v>75</v>
@@ -8338,16 +8333,16 @@
     </row>
     <row r="340" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF340">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG340" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH340">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI340">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ340" t="s">
         <v>75</v>
@@ -8364,41 +8359,41 @@
         <v>69</v>
       </c>
       <c r="AI341">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ341" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="342" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF342">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG342" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH342">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI342">
         <v>4</v>
       </c>
       <c r="AJ342" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF343">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG343" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AH343">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI343">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AJ343" t="s">
         <v>75</v>
@@ -8406,16 +8401,16 @@
     </row>
     <row r="344" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF344">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG344" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AH344">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI344">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ344" t="s">
         <v>75</v>
@@ -8432,41 +8427,41 @@
         <v>72</v>
       </c>
       <c r="AI345">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AJ345" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="346" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF346">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG346" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AH346">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI346">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AJ346" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="347" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF347">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG347" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH347">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI347">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ347" t="s">
         <v>75</v>
@@ -8474,19 +8469,19 @@
     </row>
     <row r="348" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF348">
+        <v>74</v>
+      </c>
+      <c r="AG348" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH348">
+        <v>74</v>
+      </c>
+      <c r="AI348">
+        <v>10</v>
+      </c>
+      <c r="AJ348" t="s">
         <v>75</v>
-      </c>
-      <c r="AG348" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH348">
-        <v>75</v>
-      </c>
-      <c r="AI348">
-        <v>1</v>
-      </c>
-      <c r="AJ348" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="349" spans="32:36" x14ac:dyDescent="0.2">
@@ -8500,24 +8495,24 @@
         <v>75</v>
       </c>
       <c r="AI349">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AJ349" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="350" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF350">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG350" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AH350">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI350">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ350" t="s">
         <v>75</v>
@@ -8525,16 +8520,16 @@
     </row>
     <row r="351" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF351">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG351" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AH351">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI351">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ351" t="s">
         <v>75</v>
@@ -8542,16 +8537,16 @@
     </row>
     <row r="352" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF352">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG352" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AH352">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AI352">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ352" t="s">
         <v>75</v>
@@ -8559,16 +8554,16 @@
     </row>
     <row r="353" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF353">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG353" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AH353">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI353">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ353" t="s">
         <v>75</v>
@@ -8576,16 +8571,16 @@
     </row>
     <row r="354" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF354">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG354" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AH354">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AI354">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ354" t="s">
         <v>75</v>
@@ -8602,27 +8597,27 @@
         <v>80</v>
       </c>
       <c r="AI355">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AJ355" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="356" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF356">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG356" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AH356">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI356">
         <v>2</v>
       </c>
       <c r="AJ356" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="357" spans="32:36" x14ac:dyDescent="0.2">
@@ -8636,27 +8631,27 @@
         <v>81</v>
       </c>
       <c r="AI357">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ357" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="358" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF358">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG358" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AH358">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI358">
         <v>1</v>
       </c>
       <c r="AJ358" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="359" spans="32:36" x14ac:dyDescent="0.2">
@@ -8670,27 +8665,27 @@
         <v>82</v>
       </c>
       <c r="AI359">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ359" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="360" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF360">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG360" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AH360">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI360">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ360" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="361" spans="32:36" x14ac:dyDescent="0.2">
@@ -8707,24 +8702,24 @@
         <v>1</v>
       </c>
       <c r="AJ361" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="362" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF362">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG362" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH362">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI362">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AJ362" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="363" spans="32:36" x14ac:dyDescent="0.2">
@@ -8738,27 +8733,27 @@
         <v>84</v>
       </c>
       <c r="AI363">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AJ363" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="364" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF364">
+        <v>84</v>
+      </c>
+      <c r="AG364" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH364">
+        <v>84</v>
+      </c>
+      <c r="AI364">
+        <v>2</v>
+      </c>
+      <c r="AJ364" t="s">
         <v>85</v>
-      </c>
-      <c r="AG364" t="s">
-        <v>302</v>
-      </c>
-      <c r="AH364">
-        <v>85</v>
-      </c>
-      <c r="AI364">
-        <v>1</v>
-      </c>
-      <c r="AJ364" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="365" spans="32:36" x14ac:dyDescent="0.2">
@@ -8775,24 +8770,24 @@
         <v>1</v>
       </c>
       <c r="AJ365" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="366" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF366">
+        <v>85</v>
+      </c>
+      <c r="AG366" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH366">
+        <v>85</v>
+      </c>
+      <c r="AI366">
+        <v>1</v>
+      </c>
+      <c r="AJ366" t="s">
         <v>86</v>
-      </c>
-      <c r="AG366" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH366">
-        <v>86</v>
-      </c>
-      <c r="AI366">
-        <v>1</v>
-      </c>
-      <c r="AJ366" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="367" spans="32:36" x14ac:dyDescent="0.2">
@@ -8809,24 +8804,24 @@
         <v>1</v>
       </c>
       <c r="AJ367" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="368" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF368">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG368" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AH368">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI368">
         <v>1</v>
       </c>
       <c r="AJ368" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="369" spans="32:36" x14ac:dyDescent="0.2">
@@ -8840,44 +8835,44 @@
         <v>87</v>
       </c>
       <c r="AI369">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ369" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="370" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF370">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG370" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AH370">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI370">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AJ370" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="371" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF371">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG371" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AH371">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI371">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AJ371" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="372" spans="32:36" x14ac:dyDescent="0.2">
@@ -8891,7 +8886,7 @@
         <v>89</v>
       </c>
       <c r="AI372">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ372" t="s">
         <v>90</v>
@@ -8908,7 +8903,7 @@
         <v>89</v>
       </c>
       <c r="AI373">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ373" t="s">
         <v>90</v>
@@ -8925,7 +8920,7 @@
         <v>89</v>
       </c>
       <c r="AI374">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AJ374" t="s">
         <v>90</v>
@@ -8942,7 +8937,7 @@
         <v>89</v>
       </c>
       <c r="AI375">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ375" t="s">
         <v>90</v>
@@ -8959,7 +8954,7 @@
         <v>89</v>
       </c>
       <c r="AI376">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ376" t="s">
         <v>90</v>
@@ -8976,10 +8971,10 @@
         <v>89</v>
       </c>
       <c r="AI377">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AJ377" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="378" spans="32:36" x14ac:dyDescent="0.2">
@@ -8993,7 +8988,7 @@
         <v>89</v>
       </c>
       <c r="AI378">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AJ378" t="s">
         <v>91</v>
@@ -9010,7 +9005,7 @@
         <v>89</v>
       </c>
       <c r="AI379">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ379" t="s">
         <v>91</v>
@@ -9027,7 +9022,7 @@
         <v>89</v>
       </c>
       <c r="AI380">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AJ380" t="s">
         <v>91</v>
@@ -9044,7 +9039,7 @@
         <v>89</v>
       </c>
       <c r="AI381">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ381" t="s">
         <v>91</v>
@@ -9061,7 +9056,7 @@
         <v>89</v>
       </c>
       <c r="AI382">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ382" t="s">
         <v>91</v>
@@ -9069,33 +9064,33 @@
     </row>
     <row r="383" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF383">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG383" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AH383">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI383">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AJ383" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="384" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF384">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG384" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AH384">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI384">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ384" t="s">
         <v>92</v>
@@ -9112,10 +9107,10 @@
         <v>91</v>
       </c>
       <c r="AI385">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ385" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="386" spans="32:36" x14ac:dyDescent="0.2">
@@ -9132,24 +9127,24 @@
         <v>1</v>
       </c>
       <c r="AJ386" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="387" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF387">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG387" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AH387">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI387">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ387" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="388" spans="32:36" x14ac:dyDescent="0.2">
@@ -9163,10 +9158,10 @@
         <v>92</v>
       </c>
       <c r="AI388">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ388" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="389" spans="32:36" x14ac:dyDescent="0.2">
@@ -9180,44 +9175,44 @@
         <v>92</v>
       </c>
       <c r="AI389">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ389" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="390" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF390">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG390" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AH390">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI390">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ390" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="391" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF391">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG391" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AH391">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI391">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ391" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="392" spans="32:36" x14ac:dyDescent="0.2">
@@ -9231,10 +9226,10 @@
         <v>94</v>
       </c>
       <c r="AI392">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ392" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="32:36" x14ac:dyDescent="0.2">
@@ -9248,41 +9243,41 @@
         <v>94</v>
       </c>
       <c r="AI393">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ393" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="394" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF394">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG394" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AH394">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI394">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ394" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="395" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF395">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG395" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AH395">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI395">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ395" t="s">
         <v>102</v>
@@ -9290,16 +9285,16 @@
     </row>
     <row r="396" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF396">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG396" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AH396">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI396">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ396" t="s">
         <v>102</v>
@@ -9316,27 +9311,27 @@
         <v>97</v>
       </c>
       <c r="AI397">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ397" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="398" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF398">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG398" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AH398">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI398">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ398" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="399" spans="32:36" x14ac:dyDescent="0.2">
@@ -9350,58 +9345,58 @@
         <v>98</v>
       </c>
       <c r="AI399">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ399" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="400" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF400">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG400" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AH400">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AI400">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ400" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="401" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF401">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG401" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AH401">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI401">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ401" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="402" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF402">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG402" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AH402">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI402">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ402" t="s">
         <v>105</v>
@@ -9418,10 +9413,10 @@
         <v>101</v>
       </c>
       <c r="AI403">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ403" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="404" spans="32:36" x14ac:dyDescent="0.2">
@@ -9438,24 +9433,24 @@
         <v>1</v>
       </c>
       <c r="AJ404" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="405" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF405">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG405" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH405">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI405">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ405" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="406" spans="32:36" x14ac:dyDescent="0.2">
@@ -9469,10 +9464,10 @@
         <v>102</v>
       </c>
       <c r="AI406">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ406" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="407" spans="32:36" x14ac:dyDescent="0.2">
@@ -9486,41 +9481,41 @@
         <v>102</v>
       </c>
       <c r="AI407">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ407" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="408" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF408">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG408" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH408">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI408">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ408" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="409" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF409">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG409" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH409">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AI409">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ409" t="s">
         <v>105</v>
@@ -9537,10 +9532,10 @@
         <v>104</v>
       </c>
       <c r="AI410">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ410" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="411" spans="32:36" x14ac:dyDescent="0.2">
@@ -9554,41 +9549,41 @@
         <v>104</v>
       </c>
       <c r="AI411">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ411" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="412" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF412">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG412" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH412">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI412">
         <v>1</v>
       </c>
       <c r="AJ412" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
     </row>
     <row r="413" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF413">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG413" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH413">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI413">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ413" t="s">
         <v>110</v>
@@ -9596,16 +9591,16 @@
     </row>
     <row r="414" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF414">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG414" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH414">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AI414">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ414" t="s">
         <v>110</v>
@@ -9622,27 +9617,27 @@
         <v>107</v>
       </c>
       <c r="AI415">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ415" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="416" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF416">
+        <v>107</v>
+      </c>
+      <c r="AG416" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH416">
+        <v>107</v>
+      </c>
+      <c r="AI416">
+        <v>2</v>
+      </c>
+      <c r="AJ416" t="s">
         <v>108</v>
-      </c>
-      <c r="AG416" t="s">
-        <v>325</v>
-      </c>
-      <c r="AH416">
-        <v>108</v>
-      </c>
-      <c r="AI416">
-        <v>1</v>
-      </c>
-      <c r="AJ416" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="417" spans="32:36" x14ac:dyDescent="0.2">
@@ -9656,27 +9651,27 @@
         <v>108</v>
       </c>
       <c r="AI417">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ417" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="418" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF418">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG418" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AH418">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AI418">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ418" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="419" spans="32:36" x14ac:dyDescent="0.2">
@@ -9693,24 +9688,24 @@
         <v>2</v>
       </c>
       <c r="AJ419" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
     </row>
     <row r="420" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF420">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG420" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AH420">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI420">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ420" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
     </row>
     <row r="421" spans="32:36" x14ac:dyDescent="0.2">
@@ -9724,27 +9719,27 @@
         <v>110</v>
       </c>
       <c r="AI421">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ421" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
     </row>
     <row r="422" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF422">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG422" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AH422">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI422">
         <v>2</v>
       </c>
       <c r="AJ422" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
     </row>
     <row r="423" spans="32:36" x14ac:dyDescent="0.2">
@@ -9761,24 +9756,24 @@
         <v>2</v>
       </c>
       <c r="AJ423" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
     </row>
     <row r="424" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF424">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG424" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AH424">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AI424">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ424" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
     </row>
     <row r="425" spans="32:36" x14ac:dyDescent="0.2">
@@ -9792,27 +9787,27 @@
         <v>112</v>
       </c>
       <c r="AI425">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ425" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
     </row>
     <row r="426" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF426">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG426" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AH426">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AI426">
         <v>2</v>
       </c>
       <c r="AJ426" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
     </row>
     <row r="427" spans="32:36" x14ac:dyDescent="0.2">
@@ -9829,24 +9824,24 @@
         <v>2</v>
       </c>
       <c r="AJ427" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="428" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF428">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG428" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AH428">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AI428">
         <v>2</v>
       </c>
       <c r="AJ428" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="429" spans="32:36" x14ac:dyDescent="0.2">
@@ -9860,27 +9855,27 @@
         <v>114</v>
       </c>
       <c r="AI429">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ429" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
     </row>
     <row r="430" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF430">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG430" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AH430">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AI430">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ430" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="431" spans="32:36" x14ac:dyDescent="0.2">
@@ -9897,21 +9892,21 @@
         <v>2</v>
       </c>
       <c r="AJ431" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="432" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF432">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG432" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH432">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AI432">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ432" t="s">
         <v>122</v>
@@ -9928,27 +9923,27 @@
         <v>116</v>
       </c>
       <c r="AI433">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ433" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
     </row>
     <row r="434" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF434">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG434" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH434">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AI434">
         <v>2</v>
       </c>
       <c r="AJ434" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
     </row>
     <row r="435" spans="32:36" x14ac:dyDescent="0.2">
@@ -9965,24 +9960,24 @@
         <v>2</v>
       </c>
       <c r="AJ435" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="436" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF436">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG436" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH436">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AI436">
         <v>2</v>
       </c>
       <c r="AJ436" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
     </row>
     <row r="437" spans="32:36" x14ac:dyDescent="0.2">
@@ -9996,27 +9991,27 @@
         <v>118</v>
       </c>
       <c r="AI437">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ437" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
     </row>
     <row r="438" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF438">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG438" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AH438">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AI438">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ438" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="439" spans="32:36" x14ac:dyDescent="0.2">
@@ -10033,24 +10028,24 @@
         <v>2</v>
       </c>
       <c r="AJ439" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="440" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF440">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG440" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AH440">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI440">
         <v>2</v>
       </c>
       <c r="AJ440" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
     </row>
     <row r="441" spans="32:36" x14ac:dyDescent="0.2">
@@ -10064,27 +10059,27 @@
         <v>120</v>
       </c>
       <c r="AI441">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ441" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
     </row>
     <row r="442" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF442">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG442" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AH442">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI442">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ442" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="443" spans="32:36" x14ac:dyDescent="0.2">
@@ -10101,24 +10096,24 @@
         <v>2</v>
       </c>
       <c r="AJ443" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="444" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF444">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG444" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH444">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI444">
         <v>2</v>
       </c>
       <c r="AJ444" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
     </row>
     <row r="445" spans="32:36" x14ac:dyDescent="0.2">
@@ -10132,27 +10127,27 @@
         <v>122</v>
       </c>
       <c r="AI445">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ445" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
     </row>
     <row r="446" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF446">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG446" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AH446">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI446">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ446" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="447" spans="32:36" x14ac:dyDescent="0.2">
@@ -10169,24 +10164,24 @@
         <v>2</v>
       </c>
       <c r="AJ447" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="448" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF448">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG448" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AH448">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI448">
         <v>2</v>
       </c>
       <c r="AJ448" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
     </row>
     <row r="449" spans="32:36" x14ac:dyDescent="0.2">
@@ -10200,27 +10195,27 @@
         <v>124</v>
       </c>
       <c r="AI449">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ449" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
     </row>
     <row r="450" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF450">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG450" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AH450">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI450">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ450" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="451" spans="32:36" x14ac:dyDescent="0.2">
@@ -10237,24 +10232,24 @@
         <v>2</v>
       </c>
       <c r="AJ451" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="452" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF452">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG452" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH452">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AI452">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ452" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="453" spans="32:36" x14ac:dyDescent="0.2">
@@ -10268,27 +10263,27 @@
         <v>126</v>
       </c>
       <c r="AI453">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ453" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
     </row>
     <row r="454" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF454">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG454" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AH454">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI454">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ454" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="455" spans="32:36" x14ac:dyDescent="0.2">
@@ -10302,27 +10297,27 @@
         <v>127</v>
       </c>
       <c r="AI455">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ455" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
     <row r="456" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF456">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG456" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AH456">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI456">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ456" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="457" spans="32:36" x14ac:dyDescent="0.2">
@@ -10336,27 +10331,27 @@
         <v>128</v>
       </c>
       <c r="AI457">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ457" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="458" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF458">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG458" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AH458">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AI458">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ458" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="459" spans="32:36" x14ac:dyDescent="0.2">
@@ -10370,24 +10365,24 @@
         <v>129</v>
       </c>
       <c r="AI459">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ459" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="460" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF460">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG460" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AH460">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI460">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ460" t="s">
         <v>90</v>
@@ -10404,27 +10399,27 @@
         <v>130</v>
       </c>
       <c r="AI461">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ461" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
     </row>
     <row r="462" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF462">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG462" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH462">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI462">
         <v>1</v>
       </c>
       <c r="AJ462" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="463" spans="32:36" x14ac:dyDescent="0.2">
@@ -10438,27 +10433,27 @@
         <v>131</v>
       </c>
       <c r="AI463">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ463" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="464" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF464">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG464" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AH464">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI464">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ464" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="465" spans="32:36" x14ac:dyDescent="0.2">
@@ -10472,27 +10467,27 @@
         <v>132</v>
       </c>
       <c r="AI465">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ465" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
     </row>
     <row r="466" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF466">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG466" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AH466">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI466">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ466" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
     </row>
     <row r="467" spans="32:36" x14ac:dyDescent="0.2">
@@ -10506,27 +10501,27 @@
         <v>133</v>
       </c>
       <c r="AI467">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ467" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
     </row>
     <row r="468" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF468">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG468" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH468">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AI468">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ468" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
     </row>
     <row r="469" spans="32:36" x14ac:dyDescent="0.2">
@@ -10540,24 +10535,24 @@
         <v>134</v>
       </c>
       <c r="AI469">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ469" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="470" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF470">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG470" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AH470">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AI470">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ470" t="s">
         <v>91</v>
@@ -10574,27 +10569,27 @@
         <v>135</v>
       </c>
       <c r="AI471">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ471" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
     </row>
     <row r="472" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF472">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG472" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AH472">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AI472">
         <v>1</v>
       </c>
       <c r="AJ472" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="473" spans="32:36" x14ac:dyDescent="0.2">
@@ -10611,7 +10606,7 @@
         <v>1</v>
       </c>
       <c r="AJ473" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="474" spans="32:36" x14ac:dyDescent="0.2">
@@ -10625,10 +10620,10 @@
         <v>136</v>
       </c>
       <c r="AI474">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ474" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="475" spans="32:36" x14ac:dyDescent="0.2">
@@ -10642,27 +10637,27 @@
         <v>136</v>
       </c>
       <c r="AI475">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ475" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="476" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF476">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG476" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH476">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AI476">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ476" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
     </row>
     <row r="477" spans="32:36" x14ac:dyDescent="0.2">
@@ -10676,10 +10671,10 @@
         <v>137</v>
       </c>
       <c r="AI477">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ477" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="478" spans="32:36" x14ac:dyDescent="0.2">
@@ -10696,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="AJ478" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="479" spans="32:36" x14ac:dyDescent="0.2">
@@ -10713,7 +10708,7 @@
         <v>1</v>
       </c>
       <c r="AJ479" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="480" spans="32:36" x14ac:dyDescent="0.2">
@@ -10727,10 +10722,10 @@
         <v>137</v>
       </c>
       <c r="AI480">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ480" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="481" spans="32:36" x14ac:dyDescent="0.2">
@@ -10744,10 +10739,10 @@
         <v>137</v>
       </c>
       <c r="AI481">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ481" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="482" spans="32:36" x14ac:dyDescent="0.2">
@@ -10761,10 +10756,10 @@
         <v>137</v>
       </c>
       <c r="AI482">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ482" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="483" spans="32:36" x14ac:dyDescent="0.2">
@@ -10778,10 +10773,10 @@
         <v>137</v>
       </c>
       <c r="AI483">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ483" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="484" spans="32:36" x14ac:dyDescent="0.2">
@@ -10798,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="AJ484" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="485" spans="32:36" x14ac:dyDescent="0.2">
@@ -10815,7 +10810,7 @@
         <v>1</v>
       </c>
       <c r="AJ485" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="486" spans="32:36" x14ac:dyDescent="0.2">
@@ -10829,10 +10824,10 @@
         <v>137</v>
       </c>
       <c r="AI486">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ486" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="487" spans="32:36" x14ac:dyDescent="0.2">
@@ -10846,10 +10841,10 @@
         <v>137</v>
       </c>
       <c r="AI487">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AJ487" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="488" spans="32:36" x14ac:dyDescent="0.2">
@@ -10863,10 +10858,10 @@
         <v>137</v>
       </c>
       <c r="AI488">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ488" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="489" spans="32:36" x14ac:dyDescent="0.2">
@@ -10883,7 +10878,7 @@
         <v>1</v>
       </c>
       <c r="AJ489" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="490" spans="32:36" x14ac:dyDescent="0.2">
@@ -10897,10 +10892,10 @@
         <v>137</v>
       </c>
       <c r="AI490">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ490" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="491" spans="32:36" x14ac:dyDescent="0.2">
@@ -10914,10 +10909,10 @@
         <v>137</v>
       </c>
       <c r="AI491">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AJ491" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="492" spans="32:36" x14ac:dyDescent="0.2">
@@ -10934,7 +10929,7 @@
         <v>2</v>
       </c>
       <c r="AJ492" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="493" spans="32:36" x14ac:dyDescent="0.2">
@@ -10948,10 +10943,10 @@
         <v>137</v>
       </c>
       <c r="AI493">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AJ493" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="494" spans="32:36" x14ac:dyDescent="0.2">
@@ -10965,10 +10960,10 @@
         <v>137</v>
       </c>
       <c r="AI494">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ494" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="495" spans="32:36" x14ac:dyDescent="0.2">
@@ -10985,7 +10980,7 @@
         <v>1</v>
       </c>
       <c r="AJ495" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
     </row>
     <row r="496" spans="32:36" x14ac:dyDescent="0.2">
@@ -11002,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="AJ496" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="497" spans="32:36" x14ac:dyDescent="0.2">
@@ -11016,10 +11011,10 @@
         <v>137</v>
       </c>
       <c r="AI497">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ497" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="498" spans="32:36" x14ac:dyDescent="0.2">
@@ -11033,10 +11028,10 @@
         <v>137</v>
       </c>
       <c r="AI498">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ498" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="499" spans="32:36" x14ac:dyDescent="0.2">
@@ -11053,7 +11048,7 @@
         <v>1</v>
       </c>
       <c r="AJ499" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="500" spans="32:36" x14ac:dyDescent="0.2">
@@ -11070,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="AJ500" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="501" spans="32:36" x14ac:dyDescent="0.2">
@@ -11087,7 +11082,7 @@
         <v>1</v>
       </c>
       <c r="AJ501" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
     </row>
     <row r="502" spans="32:36" x14ac:dyDescent="0.2">
@@ -11104,7 +11099,7 @@
         <v>1</v>
       </c>
       <c r="AJ502" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
     </row>
     <row r="503" spans="32:36" x14ac:dyDescent="0.2">
@@ -11121,7 +11116,7 @@
         <v>1</v>
       </c>
       <c r="AJ503" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="504" spans="32:36" x14ac:dyDescent="0.2">
@@ -11135,10 +11130,10 @@
         <v>137</v>
       </c>
       <c r="AI504">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ504" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="505" spans="32:36" x14ac:dyDescent="0.2">
@@ -11152,10 +11147,10 @@
         <v>137</v>
       </c>
       <c r="AI505">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ505" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="506" spans="32:36" x14ac:dyDescent="0.2">
@@ -11172,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="AJ506" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="507" spans="32:36" x14ac:dyDescent="0.2">
@@ -11189,7 +11184,7 @@
         <v>1</v>
       </c>
       <c r="AJ507" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="508" spans="32:36" x14ac:dyDescent="0.2">
@@ -11206,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="AJ508" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="509" spans="32:36" x14ac:dyDescent="0.2">
@@ -11220,10 +11215,10 @@
         <v>137</v>
       </c>
       <c r="AI509">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ509" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
     </row>
     <row r="510" spans="32:36" x14ac:dyDescent="0.2">
@@ -11240,7 +11235,7 @@
         <v>2</v>
       </c>
       <c r="AJ510" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="511" spans="32:36" x14ac:dyDescent="0.2">
@@ -11254,27 +11249,27 @@
         <v>137</v>
       </c>
       <c r="AI511">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AJ511" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="512" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF512">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG512" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AH512">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI512">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AJ512" t="s">
-        <v>138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="32:36" x14ac:dyDescent="0.2">
@@ -11288,24 +11283,41 @@
         <v>138</v>
       </c>
       <c r="AI513">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ513" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="514" spans="32:36" x14ac:dyDescent="0.2">
+      <c r="AF514">
+        <v>138</v>
+      </c>
+      <c r="AG514" t="s">
+        <v>355</v>
+      </c>
+      <c r="AH514">
+        <v>138</v>
+      </c>
+      <c r="AI514">
+        <v>1</v>
+      </c>
+      <c r="AJ514" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AT532">
-    <sortCondition ref="A4:A532"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AT533">
+    <sortCondition ref="A4:A533"/>
   </sortState>
   <mergeCells count="7">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A45:C45"/>
     <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Eurorack_USB-C_Power_Supply/Eurorack_USB-C_Power_Supply_bom.xlsx
+++ b/Eurorack_USB-C_Power_Supply/Eurorack_USB-C_Power_Supply_bom.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/Eurorack_USB-C_Power_Supply/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Documents/GitHub/Midi-boards/Eurorack_USB-C_Power_Supply/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3259A405-BD18-AC44-861D-4A51E731DD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A2C59D-1960-9C46-9C73-01D16EFC99E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29940" yWindow="-8020" windowWidth="28800" windowHeight="18560" xr2:uid="{6A056D03-5A41-7E4C-9F1A-726EE5E8421D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" xr2:uid="{6A056D03-5A41-7E4C-9F1A-726EE5E8421D}"/>
   </bookViews>
   <sheets>
     <sheet name="Eurorack USB-C Power Supply" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Eurorack USB-C Power Supply'!$A$1:$E$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Eurorack USB-C Power Supply'!$A$1:$E$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="413">
   <si>
     <t>D</t>
   </si>
@@ -1319,12 +1319,15 @@
   <si>
     <t>Traco Power TEM 3W 3-0522N</t>
   </si>
+  <si>
+    <t>https://github.com/Deftaudio/Midi-boards</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1365,6 +1368,29 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1534,7 +1560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1561,23 +1587,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1601,13 +1626,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>47033</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1958,10 +1983,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AJ517"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:AJ518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E53" sqref="A1:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2002,213 +2030,207 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="4" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:29" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="5" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="R5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" t="s">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="R6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
         <v>149</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W6" t="s">
         <v>150</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA6" t="s">
         <v>12</v>
       </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D10" s="4">
-        <v>104</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="4">
+        <v>104</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>378</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>383</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -2217,279 +2239,281 @@
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="R23" t="s">
-        <v>14</v>
-      </c>
-      <c r="S23" t="s">
-        <v>32</v>
-      </c>
-      <c r="T23">
-        <v>4</v>
-      </c>
-      <c r="V23" t="s">
-        <v>31</v>
-      </c>
-      <c r="W23" t="s">
-        <v>12</v>
-      </c>
-      <c r="X23" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="R24" t="s">
+        <v>14</v>
+      </c>
+      <c r="S24" t="s">
+        <v>32</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="V24" t="s">
+        <v>31</v>
+      </c>
+      <c r="W24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X24" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="C34" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="1:29" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="s">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:29" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="12"/>
       <c r="E45" s="13"/>
     </row>
-    <row r="46" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
-        <v>368</v>
+    <row r="46" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="24" t="s">
+        <v>401</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="24"/>
-    </row>
-    <row r="47" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
+      <c r="D46" s="12"/>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="27"/>
+    </row>
+    <row r="48" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="E47" s="5"/>
-      <c r="R47" t="s">
-        <v>2</v>
-      </c>
-      <c r="S47" t="s">
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="E48" s="5"/>
+      <c r="R48" t="s">
+        <v>2</v>
+      </c>
+      <c r="S48" t="s">
         <v>148</v>
       </c>
-      <c r="T47">
-        <v>1</v>
-      </c>
-      <c r="V47" t="s">
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="V48" t="s">
         <v>149</v>
       </c>
-      <c r="W47" t="s">
+      <c r="W48" t="s">
         <v>150</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AA48" t="s">
         <v>12</v>
       </c>
-      <c r="AB47">
-        <v>1</v>
-      </c>
-      <c r="AC47" t="s">
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AC48" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="s">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A49" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
@@ -2499,37 +2523,17 @@
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8"/>
-      <c r="R51" t="s">
-        <v>2</v>
-      </c>
-      <c r="S51" t="s">
-        <v>148</v>
-      </c>
-      <c r="T51">
-        <v>1</v>
-      </c>
-      <c r="V51" t="s">
-        <v>149</v>
-      </c>
-      <c r="W51" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB51">
-        <v>6</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>155</v>
-      </c>
+      <c r="A51" s="14"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8"/>
       <c r="R52" t="s">
         <v>2</v>
       </c>
@@ -2546,13 +2550,13 @@
         <v>150</v>
       </c>
       <c r="AA52" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="AB52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
@@ -2572,13 +2576,13 @@
         <v>150</v>
       </c>
       <c r="AA53" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="AB53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC53" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
@@ -2601,10 +2605,10 @@
         <v>12</v>
       </c>
       <c r="AB54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
@@ -2627,10 +2631,10 @@
         <v>12</v>
       </c>
       <c r="AB55">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
@@ -2653,10 +2657,10 @@
         <v>12</v>
       </c>
       <c r="AB56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
@@ -2679,10 +2683,10 @@
         <v>12</v>
       </c>
       <c r="AB57">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
@@ -2705,10 +2709,10 @@
         <v>12</v>
       </c>
       <c r="AB58">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC58" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
@@ -2728,33 +2732,39 @@
         <v>150</v>
       </c>
       <c r="AA59" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="AB59">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC59" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R60" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S60" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="T60">
-        <v>2</v>
-      </c>
-      <c r="U60" t="s">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="V60" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="W60" t="s">
-        <v>12</v>
+        <v>150</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB60">
+        <v>14</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
@@ -2767,17 +2777,14 @@
       <c r="T61">
         <v>2</v>
       </c>
+      <c r="U61" t="s">
+        <v>159</v>
+      </c>
       <c r="V61" t="s">
         <v>133</v>
       </c>
       <c r="W61" t="s">
         <v>12</v>
-      </c>
-      <c r="X61" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
@@ -2797,10 +2804,10 @@
         <v>12</v>
       </c>
       <c r="X62" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y62" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
@@ -2819,8 +2826,11 @@
       <c r="W63" t="s">
         <v>12</v>
       </c>
-      <c r="Z63" t="s">
-        <v>161</v>
+      <c r="X63" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
@@ -2839,14 +2849,8 @@
       <c r="W64" t="s">
         <v>12</v>
       </c>
-      <c r="AA64" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB64">
-        <v>1</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>162</v>
+      <c r="Z64" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="18:29" x14ac:dyDescent="0.2">
@@ -2869,7 +2873,7 @@
         <v>12</v>
       </c>
       <c r="AB65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC65" t="s">
         <v>162</v>
@@ -2880,22 +2884,25 @@
         <v>6</v>
       </c>
       <c r="S66" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V66" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="W66" t="s">
-        <v>4</v>
-      </c>
-      <c r="X66" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>160</v>
+        <v>12</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB66">
+        <v>2</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="18:29" x14ac:dyDescent="0.2">
@@ -2915,10 +2922,10 @@
         <v>4</v>
       </c>
       <c r="X67" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y67" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="18:29" x14ac:dyDescent="0.2">
@@ -2937,8 +2944,11 @@
       <c r="W68" t="s">
         <v>4</v>
       </c>
-      <c r="Z68" t="s">
-        <v>163</v>
+      <c r="X68" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="18:29" x14ac:dyDescent="0.2">
@@ -2957,14 +2967,8 @@
       <c r="W69" t="s">
         <v>4</v>
       </c>
-      <c r="AA69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB69">
-        <v>1</v>
-      </c>
-      <c r="AC69" t="s">
-        <v>162</v>
+      <c r="Z69" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="18:29" x14ac:dyDescent="0.2">
@@ -2987,7 +2991,7 @@
         <v>12</v>
       </c>
       <c r="AB70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC70" t="s">
         <v>162</v>
@@ -3013,7 +3017,7 @@
         <v>12</v>
       </c>
       <c r="AB71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC71" t="s">
         <v>162</v>
@@ -3039,7 +3043,7 @@
         <v>12</v>
       </c>
       <c r="AB72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC72" t="s">
         <v>162</v>
@@ -3065,7 +3069,7 @@
         <v>12</v>
       </c>
       <c r="AB73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC73" t="s">
         <v>162</v>
@@ -3073,25 +3077,28 @@
     </row>
     <row r="74" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R74" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="S74" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="T74">
+        <v>3</v>
+      </c>
+      <c r="V74" t="s">
+        <v>5</v>
+      </c>
+      <c r="W74" t="s">
         <v>4</v>
       </c>
-      <c r="V74" t="s">
-        <v>31</v>
-      </c>
-      <c r="W74" t="s">
+      <c r="AA74" t="s">
         <v>12</v>
       </c>
-      <c r="X74" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>32</v>
+      <c r="AB74">
+        <v>5</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="18:29" x14ac:dyDescent="0.2">
@@ -3111,7 +3118,7 @@
         <v>12</v>
       </c>
       <c r="X75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y75" t="s">
         <v>32</v>
@@ -3133,8 +3140,11 @@
       <c r="W76" t="s">
         <v>12</v>
       </c>
-      <c r="Z76" t="s">
-        <v>164</v>
+      <c r="X76" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="18:29" x14ac:dyDescent="0.2">
@@ -3153,14 +3163,8 @@
       <c r="W77" t="s">
         <v>12</v>
       </c>
-      <c r="AA77" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB77">
-        <v>1</v>
-      </c>
-      <c r="AC77" t="s">
-        <v>162</v>
+      <c r="Z77" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="18:29" x14ac:dyDescent="0.2">
@@ -3183,7 +3187,7 @@
         <v>12</v>
       </c>
       <c r="AB78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC78" t="s">
         <v>162</v>
@@ -3194,22 +3198,25 @@
         <v>14</v>
       </c>
       <c r="S79" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="T79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V79" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="W79" t="s">
         <v>12</v>
       </c>
-      <c r="X79" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>0</v>
+      <c r="AA79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB79">
+        <v>2</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="18:29" x14ac:dyDescent="0.2">
@@ -3229,7 +3236,7 @@
         <v>12</v>
       </c>
       <c r="X80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y80" t="s">
         <v>0</v>
@@ -3251,8 +3258,11 @@
       <c r="W81" t="s">
         <v>12</v>
       </c>
-      <c r="Z81" t="s">
-        <v>165</v>
+      <c r="X81" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="18:29" x14ac:dyDescent="0.2">
@@ -3272,7 +3282,7 @@
         <v>12</v>
       </c>
       <c r="Z82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="18:29" x14ac:dyDescent="0.2">
@@ -3292,7 +3302,7 @@
         <v>12</v>
       </c>
       <c r="Z83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="18:29" x14ac:dyDescent="0.2">
@@ -3312,7 +3322,7 @@
         <v>12</v>
       </c>
       <c r="Z84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="18:29" x14ac:dyDescent="0.2">
@@ -3331,14 +3341,8 @@
       <c r="W85" t="s">
         <v>12</v>
       </c>
-      <c r="AA85" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB85">
-        <v>1</v>
-      </c>
-      <c r="AC85" t="s">
-        <v>162</v>
+      <c r="Z85" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="18:29" x14ac:dyDescent="0.2">
@@ -3358,10 +3362,10 @@
         <v>12</v>
       </c>
       <c r="AA86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AB86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC86" t="s">
         <v>162</v>
@@ -3372,22 +3376,25 @@
         <v>14</v>
       </c>
       <c r="S87" t="s">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="T87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V87" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="W87" t="s">
         <v>12</v>
       </c>
-      <c r="X87" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>171</v>
+      <c r="AA87" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB87">
+        <v>2</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="18:29" x14ac:dyDescent="0.2">
@@ -3407,10 +3414,10 @@
         <v>12</v>
       </c>
       <c r="X88" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y88" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="18:29" x14ac:dyDescent="0.2">
@@ -3429,14 +3436,11 @@
       <c r="W89" t="s">
         <v>12</v>
       </c>
-      <c r="AA89">
-        <v>1</v>
-      </c>
-      <c r="AB89">
-        <v>1</v>
-      </c>
-      <c r="AC89" t="s">
-        <v>162</v>
+      <c r="X89" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="18:29" x14ac:dyDescent="0.2">
@@ -3456,10 +3460,10 @@
         <v>12</v>
       </c>
       <c r="AA90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC90" t="s">
         <v>162</v>
@@ -3482,10 +3486,10 @@
         <v>12</v>
       </c>
       <c r="AA91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC91" t="s">
         <v>162</v>
@@ -3496,22 +3500,25 @@
         <v>14</v>
       </c>
       <c r="S92" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="T92">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V92" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="W92" t="s">
         <v>12</v>
       </c>
-      <c r="X92" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>0</v>
+      <c r="AA92">
+        <v>3</v>
+      </c>
+      <c r="AB92">
+        <v>3</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="18:29" x14ac:dyDescent="0.2">
@@ -3531,10 +3538,10 @@
         <v>12</v>
       </c>
       <c r="X93" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y93" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="18:29" x14ac:dyDescent="0.2">
@@ -3553,8 +3560,11 @@
       <c r="W94" t="s">
         <v>12</v>
       </c>
-      <c r="Z94" t="s">
-        <v>172</v>
+      <c r="X94" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="18:29" x14ac:dyDescent="0.2">
@@ -3574,7 +3584,7 @@
         <v>12</v>
       </c>
       <c r="Z95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="18:29" x14ac:dyDescent="0.2">
@@ -3594,7 +3604,7 @@
         <v>12</v>
       </c>
       <c r="Z96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="18:29" x14ac:dyDescent="0.2">
@@ -3613,14 +3623,8 @@
       <c r="W97" t="s">
         <v>12</v>
       </c>
-      <c r="AA97" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB97">
-        <v>1</v>
-      </c>
-      <c r="AC97" t="s">
-        <v>162</v>
+      <c r="Z97" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="18:29" x14ac:dyDescent="0.2">
@@ -3640,10 +3644,10 @@
         <v>12</v>
       </c>
       <c r="AA98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AB98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC98" t="s">
         <v>162</v>
@@ -3654,22 +3658,25 @@
         <v>14</v>
       </c>
       <c r="S99" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="T99">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V99" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="W99" t="s">
         <v>12</v>
       </c>
-      <c r="X99" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y99" t="s">
-        <v>15</v>
+      <c r="AA99" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB99">
+        <v>2</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="18:29" x14ac:dyDescent="0.2">
@@ -3689,7 +3696,7 @@
         <v>12</v>
       </c>
       <c r="X100" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y100" t="s">
         <v>15</v>
@@ -3711,8 +3718,11 @@
       <c r="W101" t="s">
         <v>12</v>
       </c>
-      <c r="Z101" t="s">
-        <v>175</v>
+      <c r="X101" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="18:29" x14ac:dyDescent="0.2">
@@ -3731,14 +3741,8 @@
       <c r="W102" t="s">
         <v>12</v>
       </c>
-      <c r="AA102" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB102">
-        <v>1</v>
-      </c>
-      <c r="AC102" t="s">
-        <v>162</v>
+      <c r="Z102" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="18:29" x14ac:dyDescent="0.2">
@@ -3761,7 +3765,7 @@
         <v>12</v>
       </c>
       <c r="AB103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC103" t="s">
         <v>162</v>
@@ -3769,22 +3773,28 @@
     </row>
     <row r="104" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R104" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="S104" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="T104">
-        <v>9</v>
-      </c>
-      <c r="U104" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="V104" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="W104" t="s">
-        <v>93</v>
+        <v>12</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB104">
+        <v>2</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="18:29" x14ac:dyDescent="0.2">
@@ -3797,17 +3807,14 @@
       <c r="T105">
         <v>9</v>
       </c>
+      <c r="U105" t="s">
+        <v>176</v>
+      </c>
       <c r="V105" t="s">
         <v>94</v>
       </c>
       <c r="W105" t="s">
         <v>93</v>
-      </c>
-      <c r="X105" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y105" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="106" spans="18:29" x14ac:dyDescent="0.2">
@@ -3827,10 +3834,10 @@
         <v>93</v>
       </c>
       <c r="X106" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y106" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="18:29" x14ac:dyDescent="0.2">
@@ -3849,8 +3856,11 @@
       <c r="W107" t="s">
         <v>93</v>
       </c>
-      <c r="Z107" t="s">
-        <v>177</v>
+      <c r="X107" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="18:29" x14ac:dyDescent="0.2">
@@ -3870,7 +3880,7 @@
         <v>93</v>
       </c>
       <c r="Z108" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109" spans="18:29" x14ac:dyDescent="0.2">
@@ -3889,14 +3899,8 @@
       <c r="W109" t="s">
         <v>93</v>
       </c>
-      <c r="AA109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB109">
-        <v>1</v>
-      </c>
-      <c r="AC109" t="s">
-        <v>180</v>
+      <c r="Z109" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="18:29" x14ac:dyDescent="0.2">
@@ -3916,13 +3920,13 @@
         <v>93</v>
       </c>
       <c r="AA110" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="AB110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC110" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="18:29" x14ac:dyDescent="0.2">
@@ -3942,10 +3946,10 @@
         <v>93</v>
       </c>
       <c r="AA111" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="AB111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC111" t="s">
         <v>162</v>
@@ -3968,13 +3972,13 @@
         <v>93</v>
       </c>
       <c r="AA112" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="AB112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC112" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="18:29" x14ac:dyDescent="0.2">
@@ -3994,13 +3998,13 @@
         <v>93</v>
       </c>
       <c r="AA113" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="AB113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC113" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="18:29" x14ac:dyDescent="0.2">
@@ -4020,10 +4024,10 @@
         <v>93</v>
       </c>
       <c r="AA114" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="AB114">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC114" t="s">
         <v>162</v>
@@ -4046,10 +4050,10 @@
         <v>93</v>
       </c>
       <c r="AA115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB115">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC115" t="s">
         <v>162</v>
@@ -4072,10 +4076,10 @@
         <v>93</v>
       </c>
       <c r="AA116" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="AB116">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC116" t="s">
         <v>162</v>
@@ -4083,25 +4087,28 @@
     </row>
     <row r="117" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R117" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="S117" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="T117">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V117" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="W117" t="s">
-        <v>76</v>
-      </c>
-      <c r="X117" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y117" t="s">
-        <v>152</v>
+        <v>93</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB117">
+        <v>8</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="18:29" x14ac:dyDescent="0.2">
@@ -4121,10 +4128,10 @@
         <v>76</v>
       </c>
       <c r="X118" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y118" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="18:29" x14ac:dyDescent="0.2">
@@ -4143,8 +4150,11 @@
       <c r="W119" t="s">
         <v>76</v>
       </c>
-      <c r="Z119" t="s">
-        <v>183</v>
+      <c r="X119" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="18:29" x14ac:dyDescent="0.2">
@@ -4164,7 +4174,7 @@
         <v>76</v>
       </c>
       <c r="Z120" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" spans="18:29" x14ac:dyDescent="0.2">
@@ -4183,14 +4193,8 @@
       <c r="W121" t="s">
         <v>76</v>
       </c>
-      <c r="AA121" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB121">
-        <v>1</v>
-      </c>
-      <c r="AC121" t="s">
-        <v>186</v>
+      <c r="Z121" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="18:29" x14ac:dyDescent="0.2">
@@ -4210,10 +4214,10 @@
         <v>76</v>
       </c>
       <c r="AA122" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AB122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC122" t="s">
         <v>186</v>
@@ -4236,10 +4240,10 @@
         <v>76</v>
       </c>
       <c r="AA123" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC123" t="s">
         <v>186</v>
@@ -4262,13 +4266,13 @@
         <v>76</v>
       </c>
       <c r="AA124" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC124" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125" spans="18:29" x14ac:dyDescent="0.2">
@@ -4288,13 +4292,13 @@
         <v>76</v>
       </c>
       <c r="AA125" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AB125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC125" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="18:29" x14ac:dyDescent="0.2">
@@ -4314,13 +4318,13 @@
         <v>76</v>
       </c>
       <c r="AA126" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB126">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC126" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="18:29" x14ac:dyDescent="0.2">
@@ -4340,10 +4344,10 @@
         <v>76</v>
       </c>
       <c r="AA127" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB127">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC127" t="s">
         <v>186</v>
@@ -4366,10 +4370,10 @@
         <v>76</v>
       </c>
       <c r="AA128" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC128" t="s">
         <v>186</v>
@@ -4392,10 +4396,10 @@
         <v>76</v>
       </c>
       <c r="AA129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB129">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC129" t="s">
         <v>186</v>
@@ -4418,10 +4422,10 @@
         <v>76</v>
       </c>
       <c r="AA130" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AB130">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC130" t="s">
         <v>186</v>
@@ -4444,10 +4448,10 @@
         <v>76</v>
       </c>
       <c r="AA131" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AB131">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC131" t="s">
         <v>186</v>
@@ -4470,10 +4474,10 @@
         <v>76</v>
       </c>
       <c r="AA132" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB132">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC132" t="s">
         <v>186</v>
@@ -4496,10 +4500,10 @@
         <v>76</v>
       </c>
       <c r="AA133" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AB133">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC133" t="s">
         <v>186</v>
@@ -4522,13 +4526,13 @@
         <v>76</v>
       </c>
       <c r="AA134" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AB134">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC134" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="18:29" x14ac:dyDescent="0.2">
@@ -4548,13 +4552,13 @@
         <v>76</v>
       </c>
       <c r="AA135" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB135">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC135" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="18:29" x14ac:dyDescent="0.2">
@@ -4574,10 +4578,10 @@
         <v>76</v>
       </c>
       <c r="AA136" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AB136">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC136" t="s">
         <v>186</v>
@@ -4600,10 +4604,10 @@
         <v>76</v>
       </c>
       <c r="AA137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB137">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC137" t="s">
         <v>186</v>
@@ -4626,10 +4630,10 @@
         <v>76</v>
       </c>
       <c r="AA138" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB138">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC138" t="s">
         <v>186</v>
@@ -4637,25 +4641,28 @@
     </row>
     <row r="139" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R139" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="S139" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="T139">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V139" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="W139" t="s">
-        <v>139</v>
-      </c>
-      <c r="X139" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y139" t="s">
-        <v>152</v>
+        <v>76</v>
+      </c>
+      <c r="AA139" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB139">
+        <v>18</v>
+      </c>
+      <c r="AC139" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="140" spans="18:29" x14ac:dyDescent="0.2">
@@ -4675,10 +4682,10 @@
         <v>139</v>
       </c>
       <c r="X140" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y140" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="18:29" x14ac:dyDescent="0.2">
@@ -4698,10 +4705,10 @@
         <v>139</v>
       </c>
       <c r="X141" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="Y141" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="18:29" x14ac:dyDescent="0.2">
@@ -4721,10 +4728,10 @@
         <v>139</v>
       </c>
       <c r="X142" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y142" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
     </row>
     <row r="143" spans="18:29" x14ac:dyDescent="0.2">
@@ -4744,10 +4751,10 @@
         <v>139</v>
       </c>
       <c r="X143" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="Y143" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="18:29" x14ac:dyDescent="0.2">
@@ -4767,10 +4774,10 @@
         <v>139</v>
       </c>
       <c r="X144" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Y144" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="18:29" x14ac:dyDescent="0.2">
@@ -4790,10 +4797,10 @@
         <v>139</v>
       </c>
       <c r="X145" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="Y145" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="18:29" x14ac:dyDescent="0.2">
@@ -4813,10 +4820,10 @@
         <v>139</v>
       </c>
       <c r="X146" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="Y146" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147" spans="18:29" x14ac:dyDescent="0.2">
@@ -4836,10 +4843,10 @@
         <v>139</v>
       </c>
       <c r="X147" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Y147" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="18:29" x14ac:dyDescent="0.2">
@@ -4859,10 +4866,10 @@
         <v>139</v>
       </c>
       <c r="X148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y148" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="149" spans="18:29" x14ac:dyDescent="0.2">
@@ -4882,10 +4889,10 @@
         <v>139</v>
       </c>
       <c r="X149" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y149" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" spans="18:29" x14ac:dyDescent="0.2">
@@ -4905,10 +4912,10 @@
         <v>139</v>
       </c>
       <c r="X150" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Y150" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="151" spans="18:29" x14ac:dyDescent="0.2">
@@ -4928,10 +4935,10 @@
         <v>139</v>
       </c>
       <c r="X151" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y151" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="18:29" x14ac:dyDescent="0.2">
@@ -4950,14 +4957,11 @@
       <c r="W152" t="s">
         <v>139</v>
       </c>
-      <c r="AA152" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB152">
-        <v>1</v>
-      </c>
-      <c r="AC152" t="s">
-        <v>157</v>
+      <c r="X152" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y152" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="18:29" x14ac:dyDescent="0.2">
@@ -4977,10 +4981,10 @@
         <v>139</v>
       </c>
       <c r="AA153" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="AB153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC153" t="s">
         <v>157</v>
@@ -5003,36 +5007,39 @@
         <v>139</v>
       </c>
       <c r="AA154" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="AB154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC154" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R155" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="S155" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="T155">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V155" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="W155" t="s">
-        <v>41</v>
-      </c>
-      <c r="X155" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y155" t="s">
-        <v>210</v>
+        <v>139</v>
+      </c>
+      <c r="AA155" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB155">
+        <v>3</v>
+      </c>
+      <c r="AC155" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="156" spans="18:29" x14ac:dyDescent="0.2">
@@ -5052,10 +5059,10 @@
         <v>41</v>
       </c>
       <c r="X156" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y156" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
     </row>
     <row r="157" spans="18:29" x14ac:dyDescent="0.2">
@@ -5075,10 +5082,10 @@
         <v>41</v>
       </c>
       <c r="X157" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="Y157" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="18:29" x14ac:dyDescent="0.2">
@@ -5098,10 +5105,10 @@
         <v>41</v>
       </c>
       <c r="X158" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y158" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="159" spans="18:29" x14ac:dyDescent="0.2">
@@ -5121,10 +5128,10 @@
         <v>41</v>
       </c>
       <c r="X159" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="Y159" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160" spans="18:29" x14ac:dyDescent="0.2">
@@ -5144,10 +5151,10 @@
         <v>41</v>
       </c>
       <c r="X160" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Y160" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="18:31" x14ac:dyDescent="0.2">
@@ -5167,10 +5174,10 @@
         <v>41</v>
       </c>
       <c r="X161" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="Y161" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="18:31" x14ac:dyDescent="0.2">
@@ -5190,10 +5197,10 @@
         <v>41</v>
       </c>
       <c r="X162" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="Y162" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="163" spans="18:31" x14ac:dyDescent="0.2">
@@ -5213,10 +5220,10 @@
         <v>41</v>
       </c>
       <c r="X163" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Y163" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="18:31" x14ac:dyDescent="0.2">
@@ -5236,10 +5243,10 @@
         <v>41</v>
       </c>
       <c r="X164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y164" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="165" spans="18:31" x14ac:dyDescent="0.2">
@@ -5259,10 +5266,10 @@
         <v>41</v>
       </c>
       <c r="X165" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y165" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166" spans="18:31" x14ac:dyDescent="0.2">
@@ -5282,10 +5289,10 @@
         <v>41</v>
       </c>
       <c r="X166" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Y166" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="18:31" x14ac:dyDescent="0.2">
@@ -5305,10 +5312,10 @@
         <v>41</v>
       </c>
       <c r="X167" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y167" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="18:31" x14ac:dyDescent="0.2">
@@ -5327,14 +5334,11 @@
       <c r="W168" t="s">
         <v>41</v>
       </c>
-      <c r="AA168" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB168">
-        <v>1</v>
-      </c>
-      <c r="AC168" t="s">
-        <v>162</v>
+      <c r="X168" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="18:31" x14ac:dyDescent="0.2">
@@ -5354,10 +5358,10 @@
         <v>41</v>
       </c>
       <c r="AA169" t="s">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="AB169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC169" t="s">
         <v>162</v>
@@ -5380,100 +5384,109 @@
         <v>41</v>
       </c>
       <c r="AA170" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="AB170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC170" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="171" spans="18:31" x14ac:dyDescent="0.2">
-      <c r="AD171" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE171" t="s">
-        <v>212</v>
+      <c r="R171" t="s">
+        <v>46</v>
+      </c>
+      <c r="S171" t="s">
+        <v>47</v>
+      </c>
+      <c r="T171">
+        <v>12</v>
+      </c>
+      <c r="V171" t="s">
+        <v>45</v>
+      </c>
+      <c r="W171" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA171" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB171">
+        <v>3</v>
+      </c>
+      <c r="AC171" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="172" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD172" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE172" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="173" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD173" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AE173" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="174" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD174" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="AE174" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="175" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD175" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AE175" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="176" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD176" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AE176" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="177" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD177" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE177" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="178" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD178" t="s">
         <v>46</v>
       </c>
-      <c r="AE177" t="s">
+      <c r="AE178" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="178" spans="30:36" x14ac:dyDescent="0.2">
-      <c r="AF178">
-        <v>1</v>
-      </c>
-      <c r="AG178" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH178">
-        <v>1</v>
-      </c>
-      <c r="AI178">
-        <v>1</v>
-      </c>
-      <c r="AJ178" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="179" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG179" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ179" t="s">
         <v>3</v>
@@ -5481,33 +5494,33 @@
     </row>
     <row r="180" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF180">
+        <v>2</v>
+      </c>
+      <c r="AG180" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH180">
+        <v>2</v>
+      </c>
+      <c r="AI180">
         <v>3</v>
       </c>
-      <c r="AG180" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH180">
+      <c r="AJ180" t="s">
         <v>3</v>
-      </c>
-      <c r="AI180">
-        <v>1</v>
-      </c>
-      <c r="AJ180" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="181" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF181">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG181" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AH181">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ181" t="s">
         <v>8</v>
@@ -5515,33 +5528,33 @@
     </row>
     <row r="182" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF182">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG182" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AH182">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF183">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG183" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AH183">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ183" t="s">
         <v>9</v>
@@ -5549,33 +5562,33 @@
     </row>
     <row r="184" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF184">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG184" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AH184">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ184" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF185">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG185" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AH185">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ185" t="s">
         <v>10</v>
@@ -5583,19 +5596,19 @@
     </row>
     <row r="186" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF186">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG186" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AH186">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ186" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="30:36" x14ac:dyDescent="0.2">
@@ -5609,27 +5622,27 @@
         <v>9</v>
       </c>
       <c r="AI187">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ187" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
     </row>
     <row r="188" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF188">
+        <v>9</v>
+      </c>
+      <c r="AG188" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH188">
+        <v>9</v>
+      </c>
+      <c r="AI188">
+        <v>5</v>
+      </c>
+      <c r="AJ188" t="s">
         <v>10</v>
-      </c>
-      <c r="AG188" t="s">
-        <v>228</v>
-      </c>
-      <c r="AH188">
-        <v>10</v>
-      </c>
-      <c r="AI188">
-        <v>4</v>
-      </c>
-      <c r="AJ188" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="189" spans="30:36" x14ac:dyDescent="0.2">
@@ -5643,27 +5656,27 @@
         <v>10</v>
       </c>
       <c r="AI189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ189" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF190">
+        <v>10</v>
+      </c>
+      <c r="AG190" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH190">
+        <v>10</v>
+      </c>
+      <c r="AI190">
+        <v>2</v>
+      </c>
+      <c r="AJ190" t="s">
         <v>11</v>
-      </c>
-      <c r="AG190" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH190">
-        <v>11</v>
-      </c>
-      <c r="AI190">
-        <v>4</v>
-      </c>
-      <c r="AJ190" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="191" spans="30:36" x14ac:dyDescent="0.2">
@@ -5677,27 +5690,27 @@
         <v>11</v>
       </c>
       <c r="AI191">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ191" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF192">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG192" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AH192">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI192">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ192" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="32:36" x14ac:dyDescent="0.2">
@@ -5711,27 +5724,27 @@
         <v>12</v>
       </c>
       <c r="AI193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ193" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF194">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG194" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AH194">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ194" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="32:36" x14ac:dyDescent="0.2">
@@ -5745,44 +5758,44 @@
         <v>13</v>
       </c>
       <c r="AI195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ195" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF196">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG196" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AH196">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ196" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF197">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG197" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH197">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI197">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AJ197" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
     </row>
     <row r="198" spans="32:36" x14ac:dyDescent="0.2">
@@ -5799,7 +5812,7 @@
         <v>9</v>
       </c>
       <c r="AJ198" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199" spans="32:36" x14ac:dyDescent="0.2">
@@ -5813,7 +5826,7 @@
         <v>15</v>
       </c>
       <c r="AI199">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ199" t="s">
         <v>1</v>
@@ -5830,10 +5843,10 @@
         <v>15</v>
       </c>
       <c r="AI200">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AJ200" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="32:36" x14ac:dyDescent="0.2">
@@ -5847,10 +5860,10 @@
         <v>15</v>
       </c>
       <c r="AI201">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ201" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202" spans="32:36" x14ac:dyDescent="0.2">
@@ -5864,7 +5877,7 @@
         <v>15</v>
       </c>
       <c r="AI202">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ202" t="s">
         <v>1</v>
@@ -5881,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="AI203">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ203" t="s">
         <v>1</v>
@@ -5898,10 +5911,10 @@
         <v>15</v>
       </c>
       <c r="AI204">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ204" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="32:36" x14ac:dyDescent="0.2">
@@ -5915,7 +5928,7 @@
         <v>15</v>
       </c>
       <c r="AI205">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AJ205" t="s">
         <v>19</v>
@@ -5932,7 +5945,7 @@
         <v>15</v>
       </c>
       <c r="AI206">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AJ206" t="s">
         <v>19</v>
@@ -5949,10 +5962,10 @@
         <v>15</v>
       </c>
       <c r="AI207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ207" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208" spans="32:36" x14ac:dyDescent="0.2">
@@ -5966,41 +5979,41 @@
         <v>15</v>
       </c>
       <c r="AI208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ208" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF209">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG209" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AH209">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI209">
         <v>1</v>
       </c>
       <c r="AJ209" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="210" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF210">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG210" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AH210">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ210" t="s">
         <v>20</v>
@@ -6008,16 +6021,16 @@
     </row>
     <row r="211" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF211">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG211" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AH211">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI211">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ211" t="s">
         <v>20</v>
@@ -6034,41 +6047,41 @@
         <v>18</v>
       </c>
       <c r="AI212">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ212" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF213">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG213" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AH213">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI213">
         <v>1</v>
       </c>
       <c r="AJ213" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="214" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF214">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG214" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AH214">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ214" t="s">
         <v>21</v>
@@ -6076,16 +6089,16 @@
     </row>
     <row r="215" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF215">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG215" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AH215">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI215">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ215" t="s">
         <v>21</v>
@@ -6102,41 +6115,41 @@
         <v>21</v>
       </c>
       <c r="AI216">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ216" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="217" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF217">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG217" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH217">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI217">
         <v>1</v>
       </c>
       <c r="AJ217" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
     </row>
     <row r="218" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF218">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG218" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH218">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ218" t="s">
         <v>22</v>
@@ -6144,16 +6157,16 @@
     </row>
     <row r="219" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF219">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG219" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AH219">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI219">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ219" t="s">
         <v>22</v>
@@ -6170,27 +6183,27 @@
         <v>24</v>
       </c>
       <c r="AI220">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ220" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF221">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG221" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH221">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ221" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="222" spans="32:36" x14ac:dyDescent="0.2">
@@ -6204,27 +6217,27 @@
         <v>25</v>
       </c>
       <c r="AI222">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ222" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="223" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF223">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG223" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AH223">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ223" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224" spans="32:36" x14ac:dyDescent="0.2">
@@ -6238,27 +6251,27 @@
         <v>26</v>
       </c>
       <c r="AI224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ224" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF225">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG225" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AH225">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI225">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ225" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="226" spans="32:36" x14ac:dyDescent="0.2">
@@ -6272,27 +6285,27 @@
         <v>27</v>
       </c>
       <c r="AI226">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ226" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="227" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF227">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG227" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH227">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI227">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ227" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="228" spans="32:36" x14ac:dyDescent="0.2">
@@ -6306,41 +6319,41 @@
         <v>28</v>
       </c>
       <c r="AI228">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ228" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="229" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF229">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG229" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH229">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ229" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="230" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF230">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG230" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH230">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ230" t="s">
         <v>61</v>
@@ -6348,33 +6361,33 @@
     </row>
     <row r="231" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF231">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG231" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AH231">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI231">
         <v>1</v>
       </c>
       <c r="AJ231" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="232" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF232">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG232" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH232">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ232" t="s">
         <v>27</v>
@@ -6382,16 +6395,16 @@
     </row>
     <row r="233" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF233">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG233" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH233">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI233">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ233" t="s">
         <v>27</v>
@@ -6408,27 +6421,27 @@
         <v>33</v>
       </c>
       <c r="AI234">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ234" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
     </row>
     <row r="235" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF235">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG235" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="AH235">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AI235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ235" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="236" spans="32:36" x14ac:dyDescent="0.2">
@@ -6445,7 +6458,7 @@
         <v>2</v>
       </c>
       <c r="AJ236" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="237" spans="32:36" x14ac:dyDescent="0.2">
@@ -6459,10 +6472,10 @@
         <v>34</v>
       </c>
       <c r="AI237">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ237" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="238" spans="32:36" x14ac:dyDescent="0.2">
@@ -6476,10 +6489,10 @@
         <v>34</v>
       </c>
       <c r="AI238">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ238" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="239" spans="32:36" x14ac:dyDescent="0.2">
@@ -6496,7 +6509,7 @@
         <v>2</v>
       </c>
       <c r="AJ239" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="32:36" x14ac:dyDescent="0.2">
@@ -6513,7 +6526,7 @@
         <v>2</v>
       </c>
       <c r="AJ240" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="241" spans="32:36" x14ac:dyDescent="0.2">
@@ -6530,7 +6543,7 @@
         <v>2</v>
       </c>
       <c r="AJ241" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="242" spans="32:36" x14ac:dyDescent="0.2">
@@ -6547,7 +6560,7 @@
         <v>2</v>
       </c>
       <c r="AJ242" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
     </row>
     <row r="243" spans="32:36" x14ac:dyDescent="0.2">
@@ -6564,7 +6577,7 @@
         <v>2</v>
       </c>
       <c r="AJ243" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
     </row>
     <row r="244" spans="32:36" x14ac:dyDescent="0.2">
@@ -6581,7 +6594,7 @@
         <v>2</v>
       </c>
       <c r="AJ244" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="245" spans="32:36" x14ac:dyDescent="0.2">
@@ -6595,10 +6608,10 @@
         <v>34</v>
       </c>
       <c r="AI245">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ245" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
     </row>
     <row r="246" spans="32:36" x14ac:dyDescent="0.2">
@@ -6612,10 +6625,10 @@
         <v>34</v>
       </c>
       <c r="AI246">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ246" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
     </row>
     <row r="247" spans="32:36" x14ac:dyDescent="0.2">
@@ -6632,7 +6645,7 @@
         <v>2</v>
       </c>
       <c r="AJ247" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
     </row>
     <row r="248" spans="32:36" x14ac:dyDescent="0.2">
@@ -6649,7 +6662,7 @@
         <v>2</v>
       </c>
       <c r="AJ248" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="249" spans="32:36" x14ac:dyDescent="0.2">
@@ -6663,10 +6676,10 @@
         <v>34</v>
       </c>
       <c r="AI249">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ249" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="32:36" x14ac:dyDescent="0.2">
@@ -6680,10 +6693,10 @@
         <v>34</v>
       </c>
       <c r="AI250">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ250" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="251" spans="32:36" x14ac:dyDescent="0.2">
@@ -6700,7 +6713,7 @@
         <v>2</v>
       </c>
       <c r="AJ251" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="252" spans="32:36" x14ac:dyDescent="0.2">
@@ -6717,7 +6730,7 @@
         <v>2</v>
       </c>
       <c r="AJ252" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="32:36" x14ac:dyDescent="0.2">
@@ -6734,7 +6747,7 @@
         <v>2</v>
       </c>
       <c r="AJ253" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
     </row>
     <row r="254" spans="32:36" x14ac:dyDescent="0.2">
@@ -6748,10 +6761,10 @@
         <v>34</v>
       </c>
       <c r="AI254">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ254" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
     </row>
     <row r="255" spans="32:36" x14ac:dyDescent="0.2">
@@ -6765,10 +6778,10 @@
         <v>34</v>
       </c>
       <c r="AI255">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ255" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="256" spans="32:36" x14ac:dyDescent="0.2">
@@ -6782,10 +6795,10 @@
         <v>34</v>
       </c>
       <c r="AI256">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ256" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="32:36" x14ac:dyDescent="0.2">
@@ -6802,7 +6815,7 @@
         <v>7</v>
       </c>
       <c r="AJ257" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="258" spans="32:36" x14ac:dyDescent="0.2">
@@ -6816,10 +6829,10 @@
         <v>34</v>
       </c>
       <c r="AI258">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ258" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="32:36" x14ac:dyDescent="0.2">
@@ -6836,7 +6849,7 @@
         <v>2</v>
       </c>
       <c r="AJ259" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="260" spans="32:36" x14ac:dyDescent="0.2">
@@ -6853,7 +6866,7 @@
         <v>2</v>
       </c>
       <c r="AJ260" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="32:36" x14ac:dyDescent="0.2">
@@ -6867,10 +6880,10 @@
         <v>34</v>
       </c>
       <c r="AI261">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ261" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="262" spans="32:36" x14ac:dyDescent="0.2">
@@ -6884,10 +6897,10 @@
         <v>34</v>
       </c>
       <c r="AI262">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ262" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263" spans="32:36" x14ac:dyDescent="0.2">
@@ -6904,7 +6917,7 @@
         <v>2</v>
       </c>
       <c r="AJ263" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="264" spans="32:36" x14ac:dyDescent="0.2">
@@ -6918,10 +6931,10 @@
         <v>34</v>
       </c>
       <c r="AI264">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ264" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
     </row>
     <row r="265" spans="32:36" x14ac:dyDescent="0.2">
@@ -6935,10 +6948,10 @@
         <v>34</v>
       </c>
       <c r="AI265">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ265" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="266" spans="32:36" x14ac:dyDescent="0.2">
@@ -6952,10 +6965,10 @@
         <v>34</v>
       </c>
       <c r="AI266">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ266" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
     </row>
     <row r="267" spans="32:36" x14ac:dyDescent="0.2">
@@ -6969,10 +6982,10 @@
         <v>34</v>
       </c>
       <c r="AI267">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ267" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
     </row>
     <row r="268" spans="32:36" x14ac:dyDescent="0.2">
@@ -6989,24 +7002,24 @@
         <v>2</v>
       </c>
       <c r="AJ268" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
     </row>
     <row r="269" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF269">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG269" t="s">
-        <v>252</v>
+        <v>156</v>
       </c>
       <c r="AH269">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI269">
         <v>2</v>
       </c>
       <c r="AJ269" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="270" spans="32:36" x14ac:dyDescent="0.2">
@@ -7020,27 +7033,27 @@
         <v>35</v>
       </c>
       <c r="AI270">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ270" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="271" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF271">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG271" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH271">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI271">
         <v>4</v>
       </c>
       <c r="AJ271" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="272" spans="32:36" x14ac:dyDescent="0.2">
@@ -7054,41 +7067,41 @@
         <v>36</v>
       </c>
       <c r="AI272">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ272" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="273" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF273">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG273" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AH273">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI273">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ273" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="274" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF274">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG274" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH274">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI274">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ274" t="s">
         <v>62</v>
@@ -7096,19 +7109,19 @@
     </row>
     <row r="275" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF275">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG275" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH275">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI275">
         <v>1</v>
       </c>
       <c r="AJ275" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="276" spans="32:36" x14ac:dyDescent="0.2">
@@ -7122,27 +7135,27 @@
         <v>39</v>
       </c>
       <c r="AI276">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ276" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="277" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF277">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG277" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH277">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AI277">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ277" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="32:36" x14ac:dyDescent="0.2">
@@ -7156,27 +7169,27 @@
         <v>40</v>
       </c>
       <c r="AI278">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ278" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="279" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF279">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG279" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH279">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AI279">
         <v>5</v>
       </c>
       <c r="AJ279" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280" spans="32:36" x14ac:dyDescent="0.2">
@@ -7190,27 +7203,27 @@
         <v>41</v>
       </c>
       <c r="AI280">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ280" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF281">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG281" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH281">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI281">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AJ281" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="282" spans="32:36" x14ac:dyDescent="0.2">
@@ -7224,7 +7237,7 @@
         <v>42</v>
       </c>
       <c r="AI282">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ282" t="s">
         <v>39</v>
@@ -7241,10 +7254,10 @@
         <v>42</v>
       </c>
       <c r="AI283">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ283" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="284" spans="32:36" x14ac:dyDescent="0.2">
@@ -7258,10 +7271,10 @@
         <v>42</v>
       </c>
       <c r="AI284">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AJ284" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="285" spans="32:36" x14ac:dyDescent="0.2">
@@ -7275,10 +7288,10 @@
         <v>42</v>
       </c>
       <c r="AI285">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ285" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="286" spans="32:36" x14ac:dyDescent="0.2">
@@ -7292,7 +7305,7 @@
         <v>42</v>
       </c>
       <c r="AI286">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ286" t="s">
         <v>35</v>
@@ -7309,7 +7322,7 @@
         <v>42</v>
       </c>
       <c r="AI287">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AJ287" t="s">
         <v>35</v>
@@ -7326,10 +7339,10 @@
         <v>42</v>
       </c>
       <c r="AI288">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ288" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="289" spans="32:36" x14ac:dyDescent="0.2">
@@ -7343,10 +7356,10 @@
         <v>42</v>
       </c>
       <c r="AI289">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AJ289" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="290" spans="32:36" x14ac:dyDescent="0.2">
@@ -7360,10 +7373,10 @@
         <v>42</v>
       </c>
       <c r="AI290">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AJ290" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="291" spans="32:36" x14ac:dyDescent="0.2">
@@ -7377,10 +7390,10 @@
         <v>42</v>
       </c>
       <c r="AI291">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AJ291" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="292" spans="32:36" x14ac:dyDescent="0.2">
@@ -7394,27 +7407,27 @@
         <v>42</v>
       </c>
       <c r="AI292">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AJ292" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="293" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF293">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG293" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AH293">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI293">
         <v>1</v>
       </c>
       <c r="AJ293" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
     </row>
     <row r="294" spans="32:36" x14ac:dyDescent="0.2">
@@ -7428,27 +7441,27 @@
         <v>43</v>
       </c>
       <c r="AI294">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ294" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="295" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF295">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG295" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AH295">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI295">
         <v>5</v>
       </c>
       <c r="AJ295" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="296" spans="32:36" x14ac:dyDescent="0.2">
@@ -7462,27 +7475,27 @@
         <v>44</v>
       </c>
       <c r="AI296">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ296" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
     </row>
     <row r="297" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF297">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG297" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AH297">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI297">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ297" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="298" spans="32:36" x14ac:dyDescent="0.2">
@@ -7496,27 +7509,27 @@
         <v>45</v>
       </c>
       <c r="AI298">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ298" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="299" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF299">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AG299" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH299">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI299">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ299" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="300" spans="32:36" x14ac:dyDescent="0.2">
@@ -7530,27 +7543,27 @@
         <v>46</v>
       </c>
       <c r="AI300">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ300" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="301" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF301">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG301" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AH301">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI301">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ301" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="302" spans="32:36" x14ac:dyDescent="0.2">
@@ -7564,24 +7577,24 @@
         <v>47</v>
       </c>
       <c r="AI302">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AJ302" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="303" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF303">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AG303" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH303">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI303">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ303" t="s">
         <v>35</v>
@@ -7598,27 +7611,27 @@
         <v>48</v>
       </c>
       <c r="AI304">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AJ304" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="305" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF305">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG305" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AH305">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ305" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="306" spans="32:36" x14ac:dyDescent="0.2">
@@ -7632,27 +7645,27 @@
         <v>49</v>
       </c>
       <c r="AI306">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ306" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="307" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF307">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG307" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AH307">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI307">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ307" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="308" spans="32:36" x14ac:dyDescent="0.2">
@@ -7666,27 +7679,27 @@
         <v>50</v>
       </c>
       <c r="AI308">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ308" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="309" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF309">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG309" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AH309">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI309">
         <v>3</v>
       </c>
       <c r="AJ309" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="310" spans="32:36" x14ac:dyDescent="0.2">
@@ -7700,27 +7713,27 @@
         <v>51</v>
       </c>
       <c r="AI310">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ310" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="311" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF311">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG311" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AH311">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI311">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ311" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="312" spans="32:36" x14ac:dyDescent="0.2">
@@ -7734,27 +7747,27 @@
         <v>52</v>
       </c>
       <c r="AI312">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ312" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="313" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF313">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG313" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH313">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI313">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ313" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="314" spans="32:36" x14ac:dyDescent="0.2">
@@ -7768,27 +7781,27 @@
         <v>53</v>
       </c>
       <c r="AI314">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AJ314" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="315" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF315">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG315" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AH315">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI315">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AJ315" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="316" spans="32:36" x14ac:dyDescent="0.2">
@@ -7802,27 +7815,27 @@
         <v>54</v>
       </c>
       <c r="AI316">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AJ316" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="317" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF317">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG317" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AH317">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI317">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ317" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="318" spans="32:36" x14ac:dyDescent="0.2">
@@ -7836,27 +7849,27 @@
         <v>55</v>
       </c>
       <c r="AI318">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ318" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF319">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG319" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AH319">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI319">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ319" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="320" spans="32:36" x14ac:dyDescent="0.2">
@@ -7870,27 +7883,27 @@
         <v>56</v>
       </c>
       <c r="AI320">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ320" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF321">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG321" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH321">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI321">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ321" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="322" spans="32:36" x14ac:dyDescent="0.2">
@@ -7904,27 +7917,27 @@
         <v>57</v>
       </c>
       <c r="AI322">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ322" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF323">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG323" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH323">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI323">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ323" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="324" spans="32:36" x14ac:dyDescent="0.2">
@@ -7938,27 +7951,27 @@
         <v>58</v>
       </c>
       <c r="AI324">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ324" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF325">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG325" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH325">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ325" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="326" spans="32:36" x14ac:dyDescent="0.2">
@@ -7972,27 +7985,27 @@
         <v>59</v>
       </c>
       <c r="AI326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ326" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="327" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF327">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG327" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AH327">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI327">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ327" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="328" spans="32:36" x14ac:dyDescent="0.2">
@@ -8006,27 +8019,27 @@
         <v>60</v>
       </c>
       <c r="AI328">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ328" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="329" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF329">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG329" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AH329">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI329">
         <v>1</v>
       </c>
       <c r="AJ329" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="330" spans="32:36" x14ac:dyDescent="0.2">
@@ -8040,24 +8053,24 @@
         <v>61</v>
       </c>
       <c r="AI330">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ330" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="331" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF331">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG331" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AH331">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI331">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ331" t="s">
         <v>19</v>
@@ -8074,27 +8087,27 @@
         <v>62</v>
       </c>
       <c r="AI332">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ332" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="333" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF333">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG333" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AH333">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI333">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ333" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="334" spans="32:36" x14ac:dyDescent="0.2">
@@ -8108,27 +8121,27 @@
         <v>63</v>
       </c>
       <c r="AI334">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ334" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="335" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF335">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG335" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH335">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI335">
         <v>1</v>
       </c>
       <c r="AJ335" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="336" spans="32:36" x14ac:dyDescent="0.2">
@@ -8142,27 +8155,27 @@
         <v>64</v>
       </c>
       <c r="AI336">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ336" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="337" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF337">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG337" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AH337">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AI337">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AJ337" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="338" spans="32:36" x14ac:dyDescent="0.2">
@@ -8179,24 +8192,24 @@
         <v>2</v>
       </c>
       <c r="AJ338" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="339" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF339">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG339" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH339">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI339">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ339" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="340" spans="32:36" x14ac:dyDescent="0.2">
@@ -8210,27 +8223,27 @@
         <v>66</v>
       </c>
       <c r="AI340">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ340" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="341" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF341">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG341" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH341">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI341">
         <v>2</v>
       </c>
       <c r="AJ341" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="342" spans="32:36" x14ac:dyDescent="0.2">
@@ -8244,24 +8257,24 @@
         <v>67</v>
       </c>
       <c r="AI342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ342" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="343" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF343">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG343" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AH343">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI343">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ343" t="s">
         <v>75</v>
@@ -8269,16 +8282,16 @@
     </row>
     <row r="344" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF344">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG344" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH344">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI344">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ344" t="s">
         <v>75</v>
@@ -8295,41 +8308,41 @@
         <v>69</v>
       </c>
       <c r="AI345">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ345" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="346" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF346">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG346" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH346">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI346">
         <v>4</v>
       </c>
       <c r="AJ346" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF347">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG347" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AH347">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI347">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AJ347" t="s">
         <v>75</v>
@@ -8337,16 +8350,16 @@
     </row>
     <row r="348" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF348">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG348" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AH348">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI348">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ348" t="s">
         <v>75</v>
@@ -8363,41 +8376,41 @@
         <v>72</v>
       </c>
       <c r="AI349">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AJ349" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="350" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF350">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG350" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AH350">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI350">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AJ350" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="351" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF351">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG351" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH351">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI351">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ351" t="s">
         <v>75</v>
@@ -8405,19 +8418,19 @@
     </row>
     <row r="352" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF352">
+        <v>74</v>
+      </c>
+      <c r="AG352" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH352">
+        <v>74</v>
+      </c>
+      <c r="AI352">
+        <v>10</v>
+      </c>
+      <c r="AJ352" t="s">
         <v>75</v>
-      </c>
-      <c r="AG352" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH352">
-        <v>75</v>
-      </c>
-      <c r="AI352">
-        <v>1</v>
-      </c>
-      <c r="AJ352" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="353" spans="32:36" x14ac:dyDescent="0.2">
@@ -8431,24 +8444,24 @@
         <v>75</v>
       </c>
       <c r="AI353">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AJ353" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="354" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF354">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG354" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AH354">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI354">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ354" t="s">
         <v>75</v>
@@ -8456,16 +8469,16 @@
     </row>
     <row r="355" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF355">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG355" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AH355">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI355">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ355" t="s">
         <v>75</v>
@@ -8473,16 +8486,16 @@
     </row>
     <row r="356" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF356">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG356" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AH356">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AI356">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ356" t="s">
         <v>75</v>
@@ -8490,16 +8503,16 @@
     </row>
     <row r="357" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF357">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG357" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AH357">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI357">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ357" t="s">
         <v>75</v>
@@ -8507,16 +8520,16 @@
     </row>
     <row r="358" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF358">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG358" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AH358">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AI358">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ358" t="s">
         <v>75</v>
@@ -8533,27 +8546,27 @@
         <v>80</v>
       </c>
       <c r="AI359">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AJ359" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="360" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF360">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG360" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AH360">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI360">
         <v>2</v>
       </c>
       <c r="AJ360" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="361" spans="32:36" x14ac:dyDescent="0.2">
@@ -8567,27 +8580,27 @@
         <v>81</v>
       </c>
       <c r="AI361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ361" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="362" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF362">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG362" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AH362">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI362">
         <v>1</v>
       </c>
       <c r="AJ362" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="363" spans="32:36" x14ac:dyDescent="0.2">
@@ -8601,27 +8614,27 @@
         <v>82</v>
       </c>
       <c r="AI363">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ363" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="364" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF364">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG364" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AH364">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI364">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ364" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="365" spans="32:36" x14ac:dyDescent="0.2">
@@ -8638,24 +8651,24 @@
         <v>1</v>
       </c>
       <c r="AJ365" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="366" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF366">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG366" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH366">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI366">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AJ366" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="367" spans="32:36" x14ac:dyDescent="0.2">
@@ -8669,27 +8682,27 @@
         <v>84</v>
       </c>
       <c r="AI367">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AJ367" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="368" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF368">
+        <v>84</v>
+      </c>
+      <c r="AG368" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH368">
+        <v>84</v>
+      </c>
+      <c r="AI368">
+        <v>2</v>
+      </c>
+      <c r="AJ368" t="s">
         <v>85</v>
-      </c>
-      <c r="AG368" t="s">
-        <v>302</v>
-      </c>
-      <c r="AH368">
-        <v>85</v>
-      </c>
-      <c r="AI368">
-        <v>1</v>
-      </c>
-      <c r="AJ368" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="369" spans="32:36" x14ac:dyDescent="0.2">
@@ -8706,24 +8719,24 @@
         <v>1</v>
       </c>
       <c r="AJ369" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="370" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF370">
+        <v>85</v>
+      </c>
+      <c r="AG370" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH370">
+        <v>85</v>
+      </c>
+      <c r="AI370">
+        <v>1</v>
+      </c>
+      <c r="AJ370" t="s">
         <v>86</v>
-      </c>
-      <c r="AG370" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH370">
-        <v>86</v>
-      </c>
-      <c r="AI370">
-        <v>1</v>
-      </c>
-      <c r="AJ370" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="371" spans="32:36" x14ac:dyDescent="0.2">
@@ -8740,24 +8753,24 @@
         <v>1</v>
       </c>
       <c r="AJ371" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="372" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF372">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG372" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AH372">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI372">
         <v>1</v>
       </c>
       <c r="AJ372" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="373" spans="32:36" x14ac:dyDescent="0.2">
@@ -8771,44 +8784,44 @@
         <v>87</v>
       </c>
       <c r="AI373">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ373" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="374" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF374">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG374" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AH374">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI374">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AJ374" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="375" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF375">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG375" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AH375">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI375">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AJ375" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="376" spans="32:36" x14ac:dyDescent="0.2">
@@ -8822,7 +8835,7 @@
         <v>89</v>
       </c>
       <c r="AI376">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ376" t="s">
         <v>90</v>
@@ -8839,7 +8852,7 @@
         <v>89</v>
       </c>
       <c r="AI377">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ377" t="s">
         <v>90</v>
@@ -8856,7 +8869,7 @@
         <v>89</v>
       </c>
       <c r="AI378">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AJ378" t="s">
         <v>90</v>
@@ -8873,7 +8886,7 @@
         <v>89</v>
       </c>
       <c r="AI379">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ379" t="s">
         <v>90</v>
@@ -8890,7 +8903,7 @@
         <v>89</v>
       </c>
       <c r="AI380">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ380" t="s">
         <v>90</v>
@@ -8907,10 +8920,10 @@
         <v>89</v>
       </c>
       <c r="AI381">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AJ381" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="382" spans="32:36" x14ac:dyDescent="0.2">
@@ -8924,7 +8937,7 @@
         <v>89</v>
       </c>
       <c r="AI382">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AJ382" t="s">
         <v>91</v>
@@ -8941,7 +8954,7 @@
         <v>89</v>
       </c>
       <c r="AI383">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ383" t="s">
         <v>91</v>
@@ -8958,7 +8971,7 @@
         <v>89</v>
       </c>
       <c r="AI384">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AJ384" t="s">
         <v>91</v>
@@ -8975,7 +8988,7 @@
         <v>89</v>
       </c>
       <c r="AI385">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ385" t="s">
         <v>91</v>
@@ -8992,7 +9005,7 @@
         <v>89</v>
       </c>
       <c r="AI386">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ386" t="s">
         <v>91</v>
@@ -9000,33 +9013,33 @@
     </row>
     <row r="387" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF387">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG387" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AH387">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI387">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AJ387" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="388" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF388">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG388" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AH388">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI388">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ388" t="s">
         <v>92</v>
@@ -9043,10 +9056,10 @@
         <v>91</v>
       </c>
       <c r="AI389">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ389" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="390" spans="32:36" x14ac:dyDescent="0.2">
@@ -9063,24 +9076,24 @@
         <v>1</v>
       </c>
       <c r="AJ390" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="391" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF391">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG391" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AH391">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI391">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ391" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="392" spans="32:36" x14ac:dyDescent="0.2">
@@ -9094,10 +9107,10 @@
         <v>92</v>
       </c>
       <c r="AI392">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ392" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="393" spans="32:36" x14ac:dyDescent="0.2">
@@ -9111,44 +9124,44 @@
         <v>92</v>
       </c>
       <c r="AI393">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ393" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="394" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF394">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG394" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AH394">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI394">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ394" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="395" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF395">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG395" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AH395">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI395">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ395" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="396" spans="32:36" x14ac:dyDescent="0.2">
@@ -9162,10 +9175,10 @@
         <v>94</v>
       </c>
       <c r="AI396">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ396" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="32:36" x14ac:dyDescent="0.2">
@@ -9179,41 +9192,41 @@
         <v>94</v>
       </c>
       <c r="AI397">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ397" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="398" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF398">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG398" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AH398">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI398">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ398" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="399" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF399">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG399" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AH399">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI399">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ399" t="s">
         <v>102</v>
@@ -9221,16 +9234,16 @@
     </row>
     <row r="400" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF400">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG400" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AH400">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI400">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ400" t="s">
         <v>102</v>
@@ -9247,27 +9260,27 @@
         <v>97</v>
       </c>
       <c r="AI401">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ401" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="402" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF402">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG402" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AH402">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI402">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ402" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="403" spans="32:36" x14ac:dyDescent="0.2">
@@ -9281,58 +9294,58 @@
         <v>98</v>
       </c>
       <c r="AI403">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ403" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="404" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF404">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG404" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AH404">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AI404">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ404" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="405" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF405">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG405" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AH405">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI405">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ405" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="406" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF406">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG406" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AH406">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI406">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ406" t="s">
         <v>105</v>
@@ -9349,10 +9362,10 @@
         <v>101</v>
       </c>
       <c r="AI407">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ407" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="408" spans="32:36" x14ac:dyDescent="0.2">
@@ -9369,24 +9382,24 @@
         <v>1</v>
       </c>
       <c r="AJ408" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="409" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF409">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG409" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH409">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI409">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ409" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="410" spans="32:36" x14ac:dyDescent="0.2">
@@ -9400,10 +9413,10 @@
         <v>102</v>
       </c>
       <c r="AI410">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ410" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="411" spans="32:36" x14ac:dyDescent="0.2">
@@ -9417,41 +9430,41 @@
         <v>102</v>
       </c>
       <c r="AI411">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ411" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="412" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF412">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG412" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH412">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI412">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ412" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="413" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF413">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG413" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH413">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AI413">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ413" t="s">
         <v>105</v>
@@ -9468,10 +9481,10 @@
         <v>104</v>
       </c>
       <c r="AI414">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ414" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="415" spans="32:36" x14ac:dyDescent="0.2">
@@ -9485,41 +9498,41 @@
         <v>104</v>
       </c>
       <c r="AI415">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ415" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="416" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF416">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG416" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH416">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI416">
         <v>1</v>
       </c>
       <c r="AJ416" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
     </row>
     <row r="417" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF417">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG417" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH417">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI417">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ417" t="s">
         <v>110</v>
@@ -9527,16 +9540,16 @@
     </row>
     <row r="418" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF418">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG418" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH418">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AI418">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ418" t="s">
         <v>110</v>
@@ -9553,27 +9566,27 @@
         <v>107</v>
       </c>
       <c r="AI419">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ419" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="420" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF420">
+        <v>107</v>
+      </c>
+      <c r="AG420" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH420">
+        <v>107</v>
+      </c>
+      <c r="AI420">
+        <v>2</v>
+      </c>
+      <c r="AJ420" t="s">
         <v>108</v>
-      </c>
-      <c r="AG420" t="s">
-        <v>325</v>
-      </c>
-      <c r="AH420">
-        <v>108</v>
-      </c>
-      <c r="AI420">
-        <v>1</v>
-      </c>
-      <c r="AJ420" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="421" spans="32:36" x14ac:dyDescent="0.2">
@@ -9587,27 +9600,27 @@
         <v>108</v>
       </c>
       <c r="AI421">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ421" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="422" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF422">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG422" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AH422">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AI422">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ422" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="423" spans="32:36" x14ac:dyDescent="0.2">
@@ -9624,24 +9637,24 @@
         <v>2</v>
       </c>
       <c r="AJ423" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
     </row>
     <row r="424" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF424">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG424" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AH424">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI424">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ424" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
     </row>
     <row r="425" spans="32:36" x14ac:dyDescent="0.2">
@@ -9655,27 +9668,27 @@
         <v>110</v>
       </c>
       <c r="AI425">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ425" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
     </row>
     <row r="426" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF426">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG426" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AH426">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI426">
         <v>2</v>
       </c>
       <c r="AJ426" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
     </row>
     <row r="427" spans="32:36" x14ac:dyDescent="0.2">
@@ -9692,24 +9705,24 @@
         <v>2</v>
       </c>
       <c r="AJ427" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
     </row>
     <row r="428" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF428">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG428" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AH428">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AI428">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ428" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
     </row>
     <row r="429" spans="32:36" x14ac:dyDescent="0.2">
@@ -9723,27 +9736,27 @@
         <v>112</v>
       </c>
       <c r="AI429">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ429" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
     </row>
     <row r="430" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF430">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG430" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AH430">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AI430">
         <v>2</v>
       </c>
       <c r="AJ430" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
     </row>
     <row r="431" spans="32:36" x14ac:dyDescent="0.2">
@@ -9760,24 +9773,24 @@
         <v>2</v>
       </c>
       <c r="AJ431" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="432" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF432">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG432" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AH432">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AI432">
         <v>2</v>
       </c>
       <c r="AJ432" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="433" spans="32:36" x14ac:dyDescent="0.2">
@@ -9791,27 +9804,27 @@
         <v>114</v>
       </c>
       <c r="AI433">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ433" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
     </row>
     <row r="434" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF434">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG434" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AH434">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AI434">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ434" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="435" spans="32:36" x14ac:dyDescent="0.2">
@@ -9828,21 +9841,21 @@
         <v>2</v>
       </c>
       <c r="AJ435" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="436" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF436">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG436" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH436">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AI436">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ436" t="s">
         <v>122</v>
@@ -9859,27 +9872,27 @@
         <v>116</v>
       </c>
       <c r="AI437">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ437" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
     </row>
     <row r="438" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF438">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG438" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH438">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AI438">
         <v>2</v>
       </c>
       <c r="AJ438" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
     </row>
     <row r="439" spans="32:36" x14ac:dyDescent="0.2">
@@ -9896,24 +9909,24 @@
         <v>2</v>
       </c>
       <c r="AJ439" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="440" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF440">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG440" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH440">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AI440">
         <v>2</v>
       </c>
       <c r="AJ440" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
     </row>
     <row r="441" spans="32:36" x14ac:dyDescent="0.2">
@@ -9927,27 +9940,27 @@
         <v>118</v>
       </c>
       <c r="AI441">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ441" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
     </row>
     <row r="442" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF442">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG442" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AH442">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AI442">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ442" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="443" spans="32:36" x14ac:dyDescent="0.2">
@@ -9964,24 +9977,24 @@
         <v>2</v>
       </c>
       <c r="AJ443" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="444" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF444">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG444" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AH444">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI444">
         <v>2</v>
       </c>
       <c r="AJ444" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
     </row>
     <row r="445" spans="32:36" x14ac:dyDescent="0.2">
@@ -9995,27 +10008,27 @@
         <v>120</v>
       </c>
       <c r="AI445">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ445" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
     </row>
     <row r="446" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF446">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG446" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AH446">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI446">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ446" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="447" spans="32:36" x14ac:dyDescent="0.2">
@@ -10032,24 +10045,24 @@
         <v>2</v>
       </c>
       <c r="AJ447" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="448" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF448">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG448" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH448">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI448">
         <v>2</v>
       </c>
       <c r="AJ448" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
     </row>
     <row r="449" spans="32:36" x14ac:dyDescent="0.2">
@@ -10063,27 +10076,27 @@
         <v>122</v>
       </c>
       <c r="AI449">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ449" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
     </row>
     <row r="450" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF450">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG450" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AH450">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI450">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ450" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="451" spans="32:36" x14ac:dyDescent="0.2">
@@ -10100,24 +10113,24 @@
         <v>2</v>
       </c>
       <c r="AJ451" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="452" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF452">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG452" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AH452">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI452">
         <v>2</v>
       </c>
       <c r="AJ452" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
     </row>
     <row r="453" spans="32:36" x14ac:dyDescent="0.2">
@@ -10131,27 +10144,27 @@
         <v>124</v>
       </c>
       <c r="AI453">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ453" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
     </row>
     <row r="454" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF454">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG454" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AH454">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI454">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ454" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="455" spans="32:36" x14ac:dyDescent="0.2">
@@ -10168,24 +10181,24 @@
         <v>2</v>
       </c>
       <c r="AJ455" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="456" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF456">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG456" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH456">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AI456">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ456" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="457" spans="32:36" x14ac:dyDescent="0.2">
@@ -10199,27 +10212,27 @@
         <v>126</v>
       </c>
       <c r="AI457">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ457" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
     </row>
     <row r="458" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF458">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG458" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AH458">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI458">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ458" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="459" spans="32:36" x14ac:dyDescent="0.2">
@@ -10233,27 +10246,27 @@
         <v>127</v>
       </c>
       <c r="AI459">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ459" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
     <row r="460" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF460">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG460" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AH460">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI460">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ460" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="461" spans="32:36" x14ac:dyDescent="0.2">
@@ -10267,27 +10280,27 @@
         <v>128</v>
       </c>
       <c r="AI461">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ461" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="462" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF462">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG462" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AH462">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AI462">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ462" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="463" spans="32:36" x14ac:dyDescent="0.2">
@@ -10301,24 +10314,24 @@
         <v>129</v>
       </c>
       <c r="AI463">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ463" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="464" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF464">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG464" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AH464">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI464">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ464" t="s">
         <v>90</v>
@@ -10335,27 +10348,27 @@
         <v>130</v>
       </c>
       <c r="AI465">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ465" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
     </row>
     <row r="466" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF466">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG466" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH466">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI466">
         <v>1</v>
       </c>
       <c r="AJ466" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="467" spans="32:36" x14ac:dyDescent="0.2">
@@ -10369,27 +10382,27 @@
         <v>131</v>
       </c>
       <c r="AI467">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ467" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="468" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF468">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG468" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AH468">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI468">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ468" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="469" spans="32:36" x14ac:dyDescent="0.2">
@@ -10403,27 +10416,27 @@
         <v>132</v>
       </c>
       <c r="AI469">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ469" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
     </row>
     <row r="470" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF470">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG470" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AH470">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI470">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ470" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
     </row>
     <row r="471" spans="32:36" x14ac:dyDescent="0.2">
@@ -10437,27 +10450,27 @@
         <v>133</v>
       </c>
       <c r="AI471">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ471" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
     </row>
     <row r="472" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF472">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG472" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH472">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AI472">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ472" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
     </row>
     <row r="473" spans="32:36" x14ac:dyDescent="0.2">
@@ -10471,24 +10484,24 @@
         <v>134</v>
       </c>
       <c r="AI473">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ473" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="474" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF474">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG474" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AH474">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AI474">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ474" t="s">
         <v>91</v>
@@ -10505,27 +10518,27 @@
         <v>135</v>
       </c>
       <c r="AI475">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ475" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
     </row>
     <row r="476" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF476">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG476" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AH476">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AI476">
         <v>1</v>
       </c>
       <c r="AJ476" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="477" spans="32:36" x14ac:dyDescent="0.2">
@@ -10542,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="AJ477" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="478" spans="32:36" x14ac:dyDescent="0.2">
@@ -10556,10 +10569,10 @@
         <v>136</v>
       </c>
       <c r="AI478">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ478" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="479" spans="32:36" x14ac:dyDescent="0.2">
@@ -10573,27 +10586,27 @@
         <v>136</v>
       </c>
       <c r="AI479">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ479" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="480" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF480">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG480" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH480">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AI480">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ480" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
     </row>
     <row r="481" spans="32:36" x14ac:dyDescent="0.2">
@@ -10607,10 +10620,10 @@
         <v>137</v>
       </c>
       <c r="AI481">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ481" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="482" spans="32:36" x14ac:dyDescent="0.2">
@@ -10627,7 +10640,7 @@
         <v>1</v>
       </c>
       <c r="AJ482" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="483" spans="32:36" x14ac:dyDescent="0.2">
@@ -10644,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="AJ483" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="484" spans="32:36" x14ac:dyDescent="0.2">
@@ -10658,10 +10671,10 @@
         <v>137</v>
       </c>
       <c r="AI484">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ484" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="485" spans="32:36" x14ac:dyDescent="0.2">
@@ -10675,10 +10688,10 @@
         <v>137</v>
       </c>
       <c r="AI485">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ485" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="486" spans="32:36" x14ac:dyDescent="0.2">
@@ -10692,10 +10705,10 @@
         <v>137</v>
       </c>
       <c r="AI486">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ486" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="487" spans="32:36" x14ac:dyDescent="0.2">
@@ -10709,10 +10722,10 @@
         <v>137</v>
       </c>
       <c r="AI487">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ487" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="488" spans="32:36" x14ac:dyDescent="0.2">
@@ -10729,7 +10742,7 @@
         <v>1</v>
       </c>
       <c r="AJ488" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="489" spans="32:36" x14ac:dyDescent="0.2">
@@ -10746,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="AJ489" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="490" spans="32:36" x14ac:dyDescent="0.2">
@@ -10760,10 +10773,10 @@
         <v>137</v>
       </c>
       <c r="AI490">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ490" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="491" spans="32:36" x14ac:dyDescent="0.2">
@@ -10777,10 +10790,10 @@
         <v>137</v>
       </c>
       <c r="AI491">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AJ491" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="492" spans="32:36" x14ac:dyDescent="0.2">
@@ -10794,10 +10807,10 @@
         <v>137</v>
       </c>
       <c r="AI492">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ492" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="493" spans="32:36" x14ac:dyDescent="0.2">
@@ -10814,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="AJ493" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="494" spans="32:36" x14ac:dyDescent="0.2">
@@ -10828,10 +10841,10 @@
         <v>137</v>
       </c>
       <c r="AI494">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ494" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="495" spans="32:36" x14ac:dyDescent="0.2">
@@ -10845,10 +10858,10 @@
         <v>137</v>
       </c>
       <c r="AI495">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AJ495" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="496" spans="32:36" x14ac:dyDescent="0.2">
@@ -10865,7 +10878,7 @@
         <v>2</v>
       </c>
       <c r="AJ496" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="497" spans="32:36" x14ac:dyDescent="0.2">
@@ -10879,10 +10892,10 @@
         <v>137</v>
       </c>
       <c r="AI497">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AJ497" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="498" spans="32:36" x14ac:dyDescent="0.2">
@@ -10896,10 +10909,10 @@
         <v>137</v>
       </c>
       <c r="AI498">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ498" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="499" spans="32:36" x14ac:dyDescent="0.2">
@@ -10916,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="AJ499" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
     </row>
     <row r="500" spans="32:36" x14ac:dyDescent="0.2">
@@ -10933,7 +10946,7 @@
         <v>1</v>
       </c>
       <c r="AJ500" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="501" spans="32:36" x14ac:dyDescent="0.2">
@@ -10947,10 +10960,10 @@
         <v>137</v>
       </c>
       <c r="AI501">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ501" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="502" spans="32:36" x14ac:dyDescent="0.2">
@@ -10964,10 +10977,10 @@
         <v>137</v>
       </c>
       <c r="AI502">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ502" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="503" spans="32:36" x14ac:dyDescent="0.2">
@@ -10984,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="AJ503" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="504" spans="32:36" x14ac:dyDescent="0.2">
@@ -11001,7 +11014,7 @@
         <v>1</v>
       </c>
       <c r="AJ504" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="505" spans="32:36" x14ac:dyDescent="0.2">
@@ -11018,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="AJ505" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
     </row>
     <row r="506" spans="32:36" x14ac:dyDescent="0.2">
@@ -11035,7 +11048,7 @@
         <v>1</v>
       </c>
       <c r="AJ506" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
     </row>
     <row r="507" spans="32:36" x14ac:dyDescent="0.2">
@@ -11052,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="AJ507" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="508" spans="32:36" x14ac:dyDescent="0.2">
@@ -11066,10 +11079,10 @@
         <v>137</v>
       </c>
       <c r="AI508">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ508" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="509" spans="32:36" x14ac:dyDescent="0.2">
@@ -11083,10 +11096,10 @@
         <v>137</v>
       </c>
       <c r="AI509">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ509" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="510" spans="32:36" x14ac:dyDescent="0.2">
@@ -11103,7 +11116,7 @@
         <v>1</v>
       </c>
       <c r="AJ510" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="511" spans="32:36" x14ac:dyDescent="0.2">
@@ -11120,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="AJ511" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="512" spans="32:36" x14ac:dyDescent="0.2">
@@ -11137,7 +11150,7 @@
         <v>1</v>
       </c>
       <c r="AJ512" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="513" spans="32:36" x14ac:dyDescent="0.2">
@@ -11151,10 +11164,10 @@
         <v>137</v>
       </c>
       <c r="AI513">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ513" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
     </row>
     <row r="514" spans="32:36" x14ac:dyDescent="0.2">
@@ -11171,7 +11184,7 @@
         <v>2</v>
       </c>
       <c r="AJ514" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="515" spans="32:36" x14ac:dyDescent="0.2">
@@ -11185,27 +11198,27 @@
         <v>137</v>
       </c>
       <c r="AI515">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AJ515" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="516" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF516">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG516" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AH516">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI516">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AJ516" t="s">
-        <v>138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="32:36" x14ac:dyDescent="0.2">
@@ -11219,27 +11232,44 @@
         <v>138</v>
       </c>
       <c r="AI517">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ517" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="518" spans="32:36" x14ac:dyDescent="0.2">
+      <c r="AF518">
+        <v>138</v>
+      </c>
+      <c r="AG518" t="s">
+        <v>355</v>
+      </c>
+      <c r="AH518">
+        <v>138</v>
+      </c>
+      <c r="AI518">
+        <v>1</v>
+      </c>
+      <c r="AJ518" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AT536">
-    <sortCondition ref="A4:A536"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AT537">
+    <sortCondition ref="A5:A537"/>
   </sortState>
   <mergeCells count="6">
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A49:C49"/>
     <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A46:C46"/>
     <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:E47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="50" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
+  <pageSetup scale="69" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Eurorack_USB-C_Power_Supply/Eurorack_USB-C_Power_Supply_bom.xlsx
+++ b/Eurorack_USB-C_Power_Supply/Eurorack_USB-C_Power_Supply_bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Documents/GitHub/Midi-boards/Eurorack_USB-C_Power_Supply/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A2C59D-1960-9C46-9C73-01D16EFC99E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752232E-55B0-5945-90D0-91E243966FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" xr2:uid="{6A056D03-5A41-7E4C-9F1A-726EE5E8421D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Eurorack USB-C Power Supply" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Eurorack USB-C Power Supply'!$A$1:$E$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Eurorack USB-C Power Supply'!$A$1:$E$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="414">
   <si>
     <t>D</t>
   </si>
@@ -1321,6 +1321,9 @@
   </si>
   <si>
     <t>https://github.com/Deftaudio/Midi-boards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-pin 2.54mm jumper </t>
   </si>
 </sst>
 </file>
@@ -1626,13 +1629,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>47033</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1986,10 +1989,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AJ518"/>
+  <dimension ref="A2:AJ519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E53" sqref="A1:E53"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2326,200 +2329,209 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="1:29" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="24" t="s">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="24" t="s">
         <v>372</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="24" t="s">
-        <v>401</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
       <c r="D46" s="12"/>
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="27"/>
-    </row>
-    <row r="48" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="12"/>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="27"/>
+    </row>
+    <row r="49" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="E48" s="5"/>
-      <c r="R48" t="s">
-        <v>2</v>
-      </c>
-      <c r="S48" t="s">
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="E49" s="5"/>
+      <c r="R49" t="s">
+        <v>2</v>
+      </c>
+      <c r="S49" t="s">
         <v>148</v>
       </c>
-      <c r="T48">
-        <v>1</v>
-      </c>
-      <c r="V48" t="s">
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="V49" t="s">
         <v>149</v>
       </c>
-      <c r="W48" t="s">
+      <c r="W49" t="s">
         <v>150</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AA49" t="s">
         <v>12</v>
       </c>
-      <c r="AB48">
-        <v>1</v>
-      </c>
-      <c r="AC48" t="s">
+      <c r="AB49">
+        <v>1</v>
+      </c>
+      <c r="AC49" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A50" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
@@ -2529,37 +2541,17 @@
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="8"/>
-      <c r="R52" t="s">
-        <v>2</v>
-      </c>
-      <c r="S52" t="s">
-        <v>148</v>
-      </c>
-      <c r="T52">
-        <v>1</v>
-      </c>
-      <c r="V52" t="s">
-        <v>149</v>
-      </c>
-      <c r="W52" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB52">
-        <v>6</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>155</v>
-      </c>
+      <c r="A52" s="14"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="8"/>
       <c r="R53" t="s">
         <v>2</v>
       </c>
@@ -2576,13 +2568,13 @@
         <v>150</v>
       </c>
       <c r="AA53" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="AB53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
@@ -2602,13 +2594,13 @@
         <v>150</v>
       </c>
       <c r="AA54" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="AB54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC54" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
@@ -2631,10 +2623,10 @@
         <v>12</v>
       </c>
       <c r="AB55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC55" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
@@ -2657,10 +2649,10 @@
         <v>12</v>
       </c>
       <c r="AB56">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
@@ -2683,10 +2675,10 @@
         <v>12</v>
       </c>
       <c r="AB57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
@@ -2709,10 +2701,10 @@
         <v>12</v>
       </c>
       <c r="AB58">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
@@ -2735,10 +2727,10 @@
         <v>12</v>
       </c>
       <c r="AB59">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
@@ -2758,33 +2750,39 @@
         <v>150</v>
       </c>
       <c r="AA60" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="AB60">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC60" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R61" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S61" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="T61">
-        <v>2</v>
-      </c>
-      <c r="U61" t="s">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="V61" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="W61" t="s">
-        <v>12</v>
+        <v>150</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB61">
+        <v>14</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
@@ -2797,17 +2795,14 @@
       <c r="T62">
         <v>2</v>
       </c>
+      <c r="U62" t="s">
+        <v>159</v>
+      </c>
       <c r="V62" t="s">
         <v>133</v>
       </c>
       <c r="W62" t="s">
         <v>12</v>
-      </c>
-      <c r="X62" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
@@ -2827,10 +2822,10 @@
         <v>12</v>
       </c>
       <c r="X63" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y63" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
@@ -2849,8 +2844,11 @@
       <c r="W64" t="s">
         <v>12</v>
       </c>
-      <c r="Z64" t="s">
-        <v>161</v>
+      <c r="X64" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="18:29" x14ac:dyDescent="0.2">
@@ -2869,14 +2867,8 @@
       <c r="W65" t="s">
         <v>12</v>
       </c>
-      <c r="AA65" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB65">
-        <v>1</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>162</v>
+      <c r="Z65" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="18:29" x14ac:dyDescent="0.2">
@@ -2899,7 +2891,7 @@
         <v>12</v>
       </c>
       <c r="AB66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC66" t="s">
         <v>162</v>
@@ -2910,22 +2902,25 @@
         <v>6</v>
       </c>
       <c r="S67" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V67" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="W67" t="s">
-        <v>4</v>
-      </c>
-      <c r="X67" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>160</v>
+        <v>12</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB67">
+        <v>2</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="18:29" x14ac:dyDescent="0.2">
@@ -2945,10 +2940,10 @@
         <v>4</v>
       </c>
       <c r="X68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y68" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="18:29" x14ac:dyDescent="0.2">
@@ -2967,8 +2962,11 @@
       <c r="W69" t="s">
         <v>4</v>
       </c>
-      <c r="Z69" t="s">
-        <v>163</v>
+      <c r="X69" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="18:29" x14ac:dyDescent="0.2">
@@ -2987,14 +2985,8 @@
       <c r="W70" t="s">
         <v>4</v>
       </c>
-      <c r="AA70" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB70">
-        <v>1</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>162</v>
+      <c r="Z70" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="18:29" x14ac:dyDescent="0.2">
@@ -3017,7 +3009,7 @@
         <v>12</v>
       </c>
       <c r="AB71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC71" t="s">
         <v>162</v>
@@ -3043,7 +3035,7 @@
         <v>12</v>
       </c>
       <c r="AB72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC72" t="s">
         <v>162</v>
@@ -3069,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="AB73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC73" t="s">
         <v>162</v>
@@ -3095,7 +3087,7 @@
         <v>12</v>
       </c>
       <c r="AB74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC74" t="s">
         <v>162</v>
@@ -3103,25 +3095,28 @@
     </row>
     <row r="75" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R75" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="S75" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="T75">
+        <v>3</v>
+      </c>
+      <c r="V75" t="s">
+        <v>5</v>
+      </c>
+      <c r="W75" t="s">
         <v>4</v>
       </c>
-      <c r="V75" t="s">
-        <v>31</v>
-      </c>
-      <c r="W75" t="s">
+      <c r="AA75" t="s">
         <v>12</v>
       </c>
-      <c r="X75" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>32</v>
+      <c r="AB75">
+        <v>5</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="18:29" x14ac:dyDescent="0.2">
@@ -3141,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="X76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y76" t="s">
         <v>32</v>
@@ -3163,8 +3158,11 @@
       <c r="W77" t="s">
         <v>12</v>
       </c>
-      <c r="Z77" t="s">
-        <v>164</v>
+      <c r="X77" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="18:29" x14ac:dyDescent="0.2">
@@ -3183,14 +3181,8 @@
       <c r="W78" t="s">
         <v>12</v>
       </c>
-      <c r="AA78" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB78">
-        <v>1</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>162</v>
+      <c r="Z78" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="18:29" x14ac:dyDescent="0.2">
@@ -3213,7 +3205,7 @@
         <v>12</v>
       </c>
       <c r="AB79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC79" t="s">
         <v>162</v>
@@ -3224,22 +3216,25 @@
         <v>14</v>
       </c>
       <c r="S80" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="T80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V80" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="W80" t="s">
         <v>12</v>
       </c>
-      <c r="X80" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>0</v>
+      <c r="AA80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB80">
+        <v>2</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="18:29" x14ac:dyDescent="0.2">
@@ -3259,7 +3254,7 @@
         <v>12</v>
       </c>
       <c r="X81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y81" t="s">
         <v>0</v>
@@ -3281,8 +3276,11 @@
       <c r="W82" t="s">
         <v>12</v>
       </c>
-      <c r="Z82" t="s">
-        <v>165</v>
+      <c r="X82" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="18:29" x14ac:dyDescent="0.2">
@@ -3302,7 +3300,7 @@
         <v>12</v>
       </c>
       <c r="Z83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="18:29" x14ac:dyDescent="0.2">
@@ -3322,7 +3320,7 @@
         <v>12</v>
       </c>
       <c r="Z84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="18:29" x14ac:dyDescent="0.2">
@@ -3342,7 +3340,7 @@
         <v>12</v>
       </c>
       <c r="Z85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="18:29" x14ac:dyDescent="0.2">
@@ -3361,14 +3359,8 @@
       <c r="W86" t="s">
         <v>12</v>
       </c>
-      <c r="AA86" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB86">
-        <v>1</v>
-      </c>
-      <c r="AC86" t="s">
-        <v>162</v>
+      <c r="Z86" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="18:29" x14ac:dyDescent="0.2">
@@ -3388,10 +3380,10 @@
         <v>12</v>
       </c>
       <c r="AA87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AB87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC87" t="s">
         <v>162</v>
@@ -3402,22 +3394,25 @@
         <v>14</v>
       </c>
       <c r="S88" t="s">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="T88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V88" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="W88" t="s">
         <v>12</v>
       </c>
-      <c r="X88" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>171</v>
+      <c r="AA88" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB88">
+        <v>2</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="18:29" x14ac:dyDescent="0.2">
@@ -3437,10 +3432,10 @@
         <v>12</v>
       </c>
       <c r="X89" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y89" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="18:29" x14ac:dyDescent="0.2">
@@ -3459,14 +3454,11 @@
       <c r="W90" t="s">
         <v>12</v>
       </c>
-      <c r="AA90">
-        <v>1</v>
-      </c>
-      <c r="AB90">
-        <v>1</v>
-      </c>
-      <c r="AC90" t="s">
-        <v>162</v>
+      <c r="X90" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="18:29" x14ac:dyDescent="0.2">
@@ -3486,10 +3478,10 @@
         <v>12</v>
       </c>
       <c r="AA91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC91" t="s">
         <v>162</v>
@@ -3512,10 +3504,10 @@
         <v>12</v>
       </c>
       <c r="AA92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC92" t="s">
         <v>162</v>
@@ -3526,22 +3518,25 @@
         <v>14</v>
       </c>
       <c r="S93" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="T93">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V93" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="W93" t="s">
         <v>12</v>
       </c>
-      <c r="X93" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>0</v>
+      <c r="AA93">
+        <v>3</v>
+      </c>
+      <c r="AB93">
+        <v>3</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="18:29" x14ac:dyDescent="0.2">
@@ -3561,10 +3556,10 @@
         <v>12</v>
       </c>
       <c r="X94" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y94" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="18:29" x14ac:dyDescent="0.2">
@@ -3583,8 +3578,11 @@
       <c r="W95" t="s">
         <v>12</v>
       </c>
-      <c r="Z95" t="s">
-        <v>172</v>
+      <c r="X95" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="18:29" x14ac:dyDescent="0.2">
@@ -3604,7 +3602,7 @@
         <v>12</v>
       </c>
       <c r="Z96" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="18:29" x14ac:dyDescent="0.2">
@@ -3624,7 +3622,7 @@
         <v>12</v>
       </c>
       <c r="Z97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="18:29" x14ac:dyDescent="0.2">
@@ -3643,14 +3641,8 @@
       <c r="W98" t="s">
         <v>12</v>
       </c>
-      <c r="AA98" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB98">
-        <v>1</v>
-      </c>
-      <c r="AC98" t="s">
-        <v>162</v>
+      <c r="Z98" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="18:29" x14ac:dyDescent="0.2">
@@ -3670,10 +3662,10 @@
         <v>12</v>
       </c>
       <c r="AA99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AB99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC99" t="s">
         <v>162</v>
@@ -3684,22 +3676,25 @@
         <v>14</v>
       </c>
       <c r="S100" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="T100">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V100" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="W100" t="s">
         <v>12</v>
       </c>
-      <c r="X100" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y100" t="s">
-        <v>15</v>
+      <c r="AA100" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB100">
+        <v>2</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="18:29" x14ac:dyDescent="0.2">
@@ -3719,7 +3714,7 @@
         <v>12</v>
       </c>
       <c r="X101" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y101" t="s">
         <v>15</v>
@@ -3741,8 +3736,11 @@
       <c r="W102" t="s">
         <v>12</v>
       </c>
-      <c r="Z102" t="s">
-        <v>175</v>
+      <c r="X102" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="18:29" x14ac:dyDescent="0.2">
@@ -3761,14 +3759,8 @@
       <c r="W103" t="s">
         <v>12</v>
       </c>
-      <c r="AA103" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB103">
-        <v>1</v>
-      </c>
-      <c r="AC103" t="s">
-        <v>162</v>
+      <c r="Z103" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="104" spans="18:29" x14ac:dyDescent="0.2">
@@ -3791,7 +3783,7 @@
         <v>12</v>
       </c>
       <c r="AB104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC104" t="s">
         <v>162</v>
@@ -3799,22 +3791,28 @@
     </row>
     <row r="105" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R105" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="S105" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="T105">
-        <v>9</v>
-      </c>
-      <c r="U105" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="V105" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="W105" t="s">
-        <v>93</v>
+        <v>12</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB105">
+        <v>2</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="18:29" x14ac:dyDescent="0.2">
@@ -3827,17 +3825,14 @@
       <c r="T106">
         <v>9</v>
       </c>
+      <c r="U106" t="s">
+        <v>176</v>
+      </c>
       <c r="V106" t="s">
         <v>94</v>
       </c>
       <c r="W106" t="s">
         <v>93</v>
-      </c>
-      <c r="X106" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y106" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="107" spans="18:29" x14ac:dyDescent="0.2">
@@ -3857,10 +3852,10 @@
         <v>93</v>
       </c>
       <c r="X107" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y107" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="18:29" x14ac:dyDescent="0.2">
@@ -3879,8 +3874,11 @@
       <c r="W108" t="s">
         <v>93</v>
       </c>
-      <c r="Z108" t="s">
-        <v>177</v>
+      <c r="X108" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="18:29" x14ac:dyDescent="0.2">
@@ -3900,7 +3898,7 @@
         <v>93</v>
       </c>
       <c r="Z109" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="110" spans="18:29" x14ac:dyDescent="0.2">
@@ -3919,14 +3917,8 @@
       <c r="W110" t="s">
         <v>93</v>
       </c>
-      <c r="AA110" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB110">
-        <v>1</v>
-      </c>
-      <c r="AC110" t="s">
-        <v>180</v>
+      <c r="Z110" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="18:29" x14ac:dyDescent="0.2">
@@ -3946,13 +3938,13 @@
         <v>93</v>
       </c>
       <c r="AA111" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="AB111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC111" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="18:29" x14ac:dyDescent="0.2">
@@ -3972,10 +3964,10 @@
         <v>93</v>
       </c>
       <c r="AA112" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="AB112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC112" t="s">
         <v>162</v>
@@ -3998,13 +3990,13 @@
         <v>93</v>
       </c>
       <c r="AA113" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="AB113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC113" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="18:29" x14ac:dyDescent="0.2">
@@ -4024,13 +4016,13 @@
         <v>93</v>
       </c>
       <c r="AA114" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="AB114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC114" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="115" spans="18:29" x14ac:dyDescent="0.2">
@@ -4050,10 +4042,10 @@
         <v>93</v>
       </c>
       <c r="AA115" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="AB115">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC115" t="s">
         <v>162</v>
@@ -4076,10 +4068,10 @@
         <v>93</v>
       </c>
       <c r="AA116" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB116">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC116" t="s">
         <v>162</v>
@@ -4102,10 +4094,10 @@
         <v>93</v>
       </c>
       <c r="AA117" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="AB117">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC117" t="s">
         <v>162</v>
@@ -4113,25 +4105,28 @@
     </row>
     <row r="118" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R118" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="S118" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="T118">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V118" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="W118" t="s">
-        <v>76</v>
-      </c>
-      <c r="X118" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y118" t="s">
-        <v>152</v>
+        <v>93</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB118">
+        <v>8</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="18:29" x14ac:dyDescent="0.2">
@@ -4151,10 +4146,10 @@
         <v>76</v>
       </c>
       <c r="X119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y119" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="18:29" x14ac:dyDescent="0.2">
@@ -4173,8 +4168,11 @@
       <c r="W120" t="s">
         <v>76</v>
       </c>
-      <c r="Z120" t="s">
-        <v>183</v>
+      <c r="X120" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="18:29" x14ac:dyDescent="0.2">
@@ -4194,7 +4192,7 @@
         <v>76</v>
       </c>
       <c r="Z121" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="18:29" x14ac:dyDescent="0.2">
@@ -4213,14 +4211,8 @@
       <c r="W122" t="s">
         <v>76</v>
       </c>
-      <c r="AA122" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB122">
-        <v>1</v>
-      </c>
-      <c r="AC122" t="s">
-        <v>186</v>
+      <c r="Z122" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="18:29" x14ac:dyDescent="0.2">
@@ -4240,10 +4232,10 @@
         <v>76</v>
       </c>
       <c r="AA123" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AB123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC123" t="s">
         <v>186</v>
@@ -4266,10 +4258,10 @@
         <v>76</v>
       </c>
       <c r="AA124" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC124" t="s">
         <v>186</v>
@@ -4292,13 +4284,13 @@
         <v>76</v>
       </c>
       <c r="AA125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC125" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="18:29" x14ac:dyDescent="0.2">
@@ -4318,13 +4310,13 @@
         <v>76</v>
       </c>
       <c r="AA126" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AB126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC126" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="18:29" x14ac:dyDescent="0.2">
@@ -4344,13 +4336,13 @@
         <v>76</v>
       </c>
       <c r="AA127" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB127">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC127" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="18:29" x14ac:dyDescent="0.2">
@@ -4370,10 +4362,10 @@
         <v>76</v>
       </c>
       <c r="AA128" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC128" t="s">
         <v>186</v>
@@ -4396,10 +4388,10 @@
         <v>76</v>
       </c>
       <c r="AA129" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC129" t="s">
         <v>186</v>
@@ -4422,10 +4414,10 @@
         <v>76</v>
       </c>
       <c r="AA130" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB130">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC130" t="s">
         <v>186</v>
@@ -4448,10 +4440,10 @@
         <v>76</v>
       </c>
       <c r="AA131" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AB131">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC131" t="s">
         <v>186</v>
@@ -4474,10 +4466,10 @@
         <v>76</v>
       </c>
       <c r="AA132" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AB132">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC132" t="s">
         <v>186</v>
@@ -4500,10 +4492,10 @@
         <v>76</v>
       </c>
       <c r="AA133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB133">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC133" t="s">
         <v>186</v>
@@ -4526,10 +4518,10 @@
         <v>76</v>
       </c>
       <c r="AA134" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AB134">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC134" t="s">
         <v>186</v>
@@ -4552,13 +4544,13 @@
         <v>76</v>
       </c>
       <c r="AA135" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AB135">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC135" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="18:29" x14ac:dyDescent="0.2">
@@ -4578,13 +4570,13 @@
         <v>76</v>
       </c>
       <c r="AA136" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB136">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC136" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="18:29" x14ac:dyDescent="0.2">
@@ -4604,10 +4596,10 @@
         <v>76</v>
       </c>
       <c r="AA137" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AB137">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC137" t="s">
         <v>186</v>
@@ -4630,10 +4622,10 @@
         <v>76</v>
       </c>
       <c r="AA138" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB138">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC138" t="s">
         <v>186</v>
@@ -4656,10 +4648,10 @@
         <v>76</v>
       </c>
       <c r="AA139" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB139">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC139" t="s">
         <v>186</v>
@@ -4667,25 +4659,28 @@
     </row>
     <row r="140" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R140" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="S140" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="T140">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V140" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="W140" t="s">
-        <v>139</v>
-      </c>
-      <c r="X140" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y140" t="s">
-        <v>152</v>
+        <v>76</v>
+      </c>
+      <c r="AA140" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB140">
+        <v>18</v>
+      </c>
+      <c r="AC140" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="141" spans="18:29" x14ac:dyDescent="0.2">
@@ -4705,10 +4700,10 @@
         <v>139</v>
       </c>
       <c r="X141" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y141" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="18:29" x14ac:dyDescent="0.2">
@@ -4728,10 +4723,10 @@
         <v>139</v>
       </c>
       <c r="X142" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="Y142" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="18:29" x14ac:dyDescent="0.2">
@@ -4751,10 +4746,10 @@
         <v>139</v>
       </c>
       <c r="X143" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y143" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
     </row>
     <row r="144" spans="18:29" x14ac:dyDescent="0.2">
@@ -4774,10 +4769,10 @@
         <v>139</v>
       </c>
       <c r="X144" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="Y144" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="18:29" x14ac:dyDescent="0.2">
@@ -4797,10 +4792,10 @@
         <v>139</v>
       </c>
       <c r="X145" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Y145" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="18:29" x14ac:dyDescent="0.2">
@@ -4820,10 +4815,10 @@
         <v>139</v>
       </c>
       <c r="X146" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="Y146" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="18:29" x14ac:dyDescent="0.2">
@@ -4843,10 +4838,10 @@
         <v>139</v>
       </c>
       <c r="X147" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="Y147" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="18:29" x14ac:dyDescent="0.2">
@@ -4866,10 +4861,10 @@
         <v>139</v>
       </c>
       <c r="X148" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Y148" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="18:29" x14ac:dyDescent="0.2">
@@ -4889,10 +4884,10 @@
         <v>139</v>
       </c>
       <c r="X149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y149" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150" spans="18:29" x14ac:dyDescent="0.2">
@@ -4912,10 +4907,10 @@
         <v>139</v>
       </c>
       <c r="X150" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y150" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151" spans="18:29" x14ac:dyDescent="0.2">
@@ -4935,10 +4930,10 @@
         <v>139</v>
       </c>
       <c r="X151" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Y151" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="18:29" x14ac:dyDescent="0.2">
@@ -4958,10 +4953,10 @@
         <v>139</v>
       </c>
       <c r="X152" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y152" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" spans="18:29" x14ac:dyDescent="0.2">
@@ -4980,14 +4975,11 @@
       <c r="W153" t="s">
         <v>139</v>
       </c>
-      <c r="AA153" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB153">
-        <v>1</v>
-      </c>
-      <c r="AC153" t="s">
-        <v>157</v>
+      <c r="X153" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="18:29" x14ac:dyDescent="0.2">
@@ -5007,10 +4999,10 @@
         <v>139</v>
       </c>
       <c r="AA154" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="AB154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC154" t="s">
         <v>157</v>
@@ -5033,36 +5025,39 @@
         <v>139</v>
       </c>
       <c r="AA155" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="AB155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC155" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R156" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="S156" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="T156">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V156" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="W156" t="s">
-        <v>41</v>
-      </c>
-      <c r="X156" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y156" t="s">
-        <v>210</v>
+        <v>139</v>
+      </c>
+      <c r="AA156" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB156">
+        <v>3</v>
+      </c>
+      <c r="AC156" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="157" spans="18:29" x14ac:dyDescent="0.2">
@@ -5082,10 +5077,10 @@
         <v>41</v>
       </c>
       <c r="X157" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y157" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
     </row>
     <row r="158" spans="18:29" x14ac:dyDescent="0.2">
@@ -5105,10 +5100,10 @@
         <v>41</v>
       </c>
       <c r="X158" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="Y158" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="159" spans="18:29" x14ac:dyDescent="0.2">
@@ -5128,10 +5123,10 @@
         <v>41</v>
       </c>
       <c r="X159" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y159" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="160" spans="18:29" x14ac:dyDescent="0.2">
@@ -5151,10 +5146,10 @@
         <v>41</v>
       </c>
       <c r="X160" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="Y160" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="161" spans="18:31" x14ac:dyDescent="0.2">
@@ -5174,10 +5169,10 @@
         <v>41</v>
       </c>
       <c r="X161" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Y161" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" spans="18:31" x14ac:dyDescent="0.2">
@@ -5197,10 +5192,10 @@
         <v>41</v>
       </c>
       <c r="X162" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="Y162" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="163" spans="18:31" x14ac:dyDescent="0.2">
@@ -5220,10 +5215,10 @@
         <v>41</v>
       </c>
       <c r="X163" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="Y163" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="164" spans="18:31" x14ac:dyDescent="0.2">
@@ -5243,10 +5238,10 @@
         <v>41</v>
       </c>
       <c r="X164" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Y164" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="165" spans="18:31" x14ac:dyDescent="0.2">
@@ -5266,10 +5261,10 @@
         <v>41</v>
       </c>
       <c r="X165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y165" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="166" spans="18:31" x14ac:dyDescent="0.2">
@@ -5289,10 +5284,10 @@
         <v>41</v>
       </c>
       <c r="X166" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y166" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167" spans="18:31" x14ac:dyDescent="0.2">
@@ -5312,10 +5307,10 @@
         <v>41</v>
       </c>
       <c r="X167" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Y167" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="18:31" x14ac:dyDescent="0.2">
@@ -5335,10 +5330,10 @@
         <v>41</v>
       </c>
       <c r="X168" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y168" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169" spans="18:31" x14ac:dyDescent="0.2">
@@ -5357,14 +5352,11 @@
       <c r="W169" t="s">
         <v>41</v>
       </c>
-      <c r="AA169" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB169">
-        <v>1</v>
-      </c>
-      <c r="AC169" t="s">
-        <v>162</v>
+      <c r="X169" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="170" spans="18:31" x14ac:dyDescent="0.2">
@@ -5384,10 +5376,10 @@
         <v>41</v>
       </c>
       <c r="AA170" t="s">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="AB170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC170" t="s">
         <v>162</v>
@@ -5410,100 +5402,109 @@
         <v>41</v>
       </c>
       <c r="AA171" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="AB171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC171" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="172" spans="18:31" x14ac:dyDescent="0.2">
-      <c r="AD172" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE172" t="s">
-        <v>212</v>
+      <c r="R172" t="s">
+        <v>46</v>
+      </c>
+      <c r="S172" t="s">
+        <v>47</v>
+      </c>
+      <c r="T172">
+        <v>12</v>
+      </c>
+      <c r="V172" t="s">
+        <v>45</v>
+      </c>
+      <c r="W172" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA172" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB172">
+        <v>3</v>
+      </c>
+      <c r="AC172" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="173" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD173" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE173" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="174" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD174" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AE174" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="175" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD175" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="AE175" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="176" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD176" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AE176" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="177" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD177" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AE177" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="178" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD178" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE178" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="179" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD179" t="s">
         <v>46</v>
       </c>
-      <c r="AE178" t="s">
+      <c r="AE179" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="179" spans="30:36" x14ac:dyDescent="0.2">
-      <c r="AF179">
-        <v>1</v>
-      </c>
-      <c r="AG179" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH179">
-        <v>1</v>
-      </c>
-      <c r="AI179">
-        <v>1</v>
-      </c>
-      <c r="AJ179" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="180" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG180" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ180" t="s">
         <v>3</v>
@@ -5511,33 +5512,33 @@
     </row>
     <row r="181" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF181">
+        <v>2</v>
+      </c>
+      <c r="AG181" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH181">
+        <v>2</v>
+      </c>
+      <c r="AI181">
         <v>3</v>
       </c>
-      <c r="AG181" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH181">
+      <c r="AJ181" t="s">
         <v>3</v>
-      </c>
-      <c r="AI181">
-        <v>1</v>
-      </c>
-      <c r="AJ181" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="182" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG182" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AH182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ182" t="s">
         <v>8</v>
@@ -5545,33 +5546,33 @@
     </row>
     <row r="183" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF183">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG183" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AH183">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF184">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG184" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AH184">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ184" t="s">
         <v>9</v>
@@ -5579,33 +5580,33 @@
     </row>
     <row r="185" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF185">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG185" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AH185">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ185" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF186">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG186" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AH186">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ186" t="s">
         <v>10</v>
@@ -5613,19 +5614,19 @@
     </row>
     <row r="187" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF187">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG187" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AH187">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ187" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="30:36" x14ac:dyDescent="0.2">
@@ -5639,27 +5640,27 @@
         <v>9</v>
       </c>
       <c r="AI188">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ188" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
     </row>
     <row r="189" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF189">
+        <v>9</v>
+      </c>
+      <c r="AG189" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH189">
+        <v>9</v>
+      </c>
+      <c r="AI189">
+        <v>5</v>
+      </c>
+      <c r="AJ189" t="s">
         <v>10</v>
-      </c>
-      <c r="AG189" t="s">
-        <v>228</v>
-      </c>
-      <c r="AH189">
-        <v>10</v>
-      </c>
-      <c r="AI189">
-        <v>4</v>
-      </c>
-      <c r="AJ189" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="190" spans="30:36" x14ac:dyDescent="0.2">
@@ -5673,27 +5674,27 @@
         <v>10</v>
       </c>
       <c r="AI190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ190" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF191">
+        <v>10</v>
+      </c>
+      <c r="AG191" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH191">
+        <v>10</v>
+      </c>
+      <c r="AI191">
+        <v>2</v>
+      </c>
+      <c r="AJ191" t="s">
         <v>11</v>
-      </c>
-      <c r="AG191" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH191">
-        <v>11</v>
-      </c>
-      <c r="AI191">
-        <v>4</v>
-      </c>
-      <c r="AJ191" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="192" spans="30:36" x14ac:dyDescent="0.2">
@@ -5707,27 +5708,27 @@
         <v>11</v>
       </c>
       <c r="AI192">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ192" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF193">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG193" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AH193">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ193" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="32:36" x14ac:dyDescent="0.2">
@@ -5741,27 +5742,27 @@
         <v>12</v>
       </c>
       <c r="AI194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ194" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF195">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG195" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AH195">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ195" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="32:36" x14ac:dyDescent="0.2">
@@ -5775,44 +5776,44 @@
         <v>13</v>
       </c>
       <c r="AI196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ196" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF197">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG197" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AH197">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ197" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF198">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG198" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH198">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI198">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AJ198" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
     </row>
     <row r="199" spans="32:36" x14ac:dyDescent="0.2">
@@ -5829,7 +5830,7 @@
         <v>9</v>
       </c>
       <c r="AJ199" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" spans="32:36" x14ac:dyDescent="0.2">
@@ -5843,7 +5844,7 @@
         <v>15</v>
       </c>
       <c r="AI200">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ200" t="s">
         <v>1</v>
@@ -5860,10 +5861,10 @@
         <v>15</v>
       </c>
       <c r="AI201">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AJ201" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="32:36" x14ac:dyDescent="0.2">
@@ -5877,10 +5878,10 @@
         <v>15</v>
       </c>
       <c r="AI202">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ202" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203" spans="32:36" x14ac:dyDescent="0.2">
@@ -5894,7 +5895,7 @@
         <v>15</v>
       </c>
       <c r="AI203">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ203" t="s">
         <v>1</v>
@@ -5911,7 +5912,7 @@
         <v>15</v>
       </c>
       <c r="AI204">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ204" t="s">
         <v>1</v>
@@ -5928,10 +5929,10 @@
         <v>15</v>
       </c>
       <c r="AI205">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ205" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="32:36" x14ac:dyDescent="0.2">
@@ -5945,7 +5946,7 @@
         <v>15</v>
       </c>
       <c r="AI206">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AJ206" t="s">
         <v>19</v>
@@ -5962,7 +5963,7 @@
         <v>15</v>
       </c>
       <c r="AI207">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AJ207" t="s">
         <v>19</v>
@@ -5979,10 +5980,10 @@
         <v>15</v>
       </c>
       <c r="AI208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ208" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="209" spans="32:36" x14ac:dyDescent="0.2">
@@ -5996,41 +5997,41 @@
         <v>15</v>
       </c>
       <c r="AI209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ209" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF210">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG210" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AH210">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI210">
         <v>1</v>
       </c>
       <c r="AJ210" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF211">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG211" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AH211">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ211" t="s">
         <v>20</v>
@@ -6038,16 +6039,16 @@
     </row>
     <row r="212" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF212">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG212" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AH212">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI212">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ212" t="s">
         <v>20</v>
@@ -6064,41 +6065,41 @@
         <v>18</v>
       </c>
       <c r="AI213">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ213" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF214">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG214" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AH214">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI214">
         <v>1</v>
       </c>
       <c r="AJ214" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="215" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF215">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG215" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AH215">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ215" t="s">
         <v>21</v>
@@ -6106,16 +6107,16 @@
     </row>
     <row r="216" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF216">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG216" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AH216">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI216">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ216" t="s">
         <v>21</v>
@@ -6132,41 +6133,41 @@
         <v>21</v>
       </c>
       <c r="AI217">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ217" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF218">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH218">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI218">
         <v>1</v>
       </c>
       <c r="AJ218" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
     </row>
     <row r="219" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF219">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG219" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH219">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ219" t="s">
         <v>22</v>
@@ -6174,16 +6175,16 @@
     </row>
     <row r="220" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF220">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG220" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AH220">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI220">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ220" t="s">
         <v>22</v>
@@ -6200,27 +6201,27 @@
         <v>24</v>
       </c>
       <c r="AI221">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ221" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF222">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG222" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH222">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI222">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ222" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="223" spans="32:36" x14ac:dyDescent="0.2">
@@ -6234,27 +6235,27 @@
         <v>25</v>
       </c>
       <c r="AI223">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ223" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="224" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF224">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG224" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AH224">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI224">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ224" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="225" spans="32:36" x14ac:dyDescent="0.2">
@@ -6268,27 +6269,27 @@
         <v>26</v>
       </c>
       <c r="AI225">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ225" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF226">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG226" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AH226">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI226">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ226" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="227" spans="32:36" x14ac:dyDescent="0.2">
@@ -6302,27 +6303,27 @@
         <v>27</v>
       </c>
       <c r="AI227">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ227" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="228" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF228">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG228" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH228">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI228">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ228" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="229" spans="32:36" x14ac:dyDescent="0.2">
@@ -6336,41 +6337,41 @@
         <v>28</v>
       </c>
       <c r="AI229">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ229" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="230" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF230">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG230" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH230">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ230" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="231" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF231">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG231" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH231">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI231">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ231" t="s">
         <v>61</v>
@@ -6378,33 +6379,33 @@
     </row>
     <row r="232" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF232">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG232" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AH232">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI232">
         <v>1</v>
       </c>
       <c r="AJ232" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="233" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF233">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG233" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH233">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ233" t="s">
         <v>27</v>
@@ -6412,16 +6413,16 @@
     </row>
     <row r="234" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF234">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG234" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH234">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI234">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ234" t="s">
         <v>27</v>
@@ -6438,27 +6439,27 @@
         <v>33</v>
       </c>
       <c r="AI235">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ235" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
     </row>
     <row r="236" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF236">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG236" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="AH236">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AI236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ236" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="237" spans="32:36" x14ac:dyDescent="0.2">
@@ -6475,7 +6476,7 @@
         <v>2</v>
       </c>
       <c r="AJ237" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="238" spans="32:36" x14ac:dyDescent="0.2">
@@ -6489,10 +6490,10 @@
         <v>34</v>
       </c>
       <c r="AI238">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ238" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="239" spans="32:36" x14ac:dyDescent="0.2">
@@ -6506,10 +6507,10 @@
         <v>34</v>
       </c>
       <c r="AI239">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ239" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="240" spans="32:36" x14ac:dyDescent="0.2">
@@ -6526,7 +6527,7 @@
         <v>2</v>
       </c>
       <c r="AJ240" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241" spans="32:36" x14ac:dyDescent="0.2">
@@ -6543,7 +6544,7 @@
         <v>2</v>
       </c>
       <c r="AJ241" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="242" spans="32:36" x14ac:dyDescent="0.2">
@@ -6560,7 +6561,7 @@
         <v>2</v>
       </c>
       <c r="AJ242" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="243" spans="32:36" x14ac:dyDescent="0.2">
@@ -6577,7 +6578,7 @@
         <v>2</v>
       </c>
       <c r="AJ243" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
     </row>
     <row r="244" spans="32:36" x14ac:dyDescent="0.2">
@@ -6594,7 +6595,7 @@
         <v>2</v>
       </c>
       <c r="AJ244" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
     </row>
     <row r="245" spans="32:36" x14ac:dyDescent="0.2">
@@ -6611,7 +6612,7 @@
         <v>2</v>
       </c>
       <c r="AJ245" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="246" spans="32:36" x14ac:dyDescent="0.2">
@@ -6625,10 +6626,10 @@
         <v>34</v>
       </c>
       <c r="AI246">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ246" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
     </row>
     <row r="247" spans="32:36" x14ac:dyDescent="0.2">
@@ -6642,10 +6643,10 @@
         <v>34</v>
       </c>
       <c r="AI247">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ247" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
     </row>
     <row r="248" spans="32:36" x14ac:dyDescent="0.2">
@@ -6662,7 +6663,7 @@
         <v>2</v>
       </c>
       <c r="AJ248" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
     </row>
     <row r="249" spans="32:36" x14ac:dyDescent="0.2">
@@ -6679,7 +6680,7 @@
         <v>2</v>
       </c>
       <c r="AJ249" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="250" spans="32:36" x14ac:dyDescent="0.2">
@@ -6693,10 +6694,10 @@
         <v>34</v>
       </c>
       <c r="AI250">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ250" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="32:36" x14ac:dyDescent="0.2">
@@ -6710,10 +6711,10 @@
         <v>34</v>
       </c>
       <c r="AI251">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ251" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="252" spans="32:36" x14ac:dyDescent="0.2">
@@ -6730,7 +6731,7 @@
         <v>2</v>
       </c>
       <c r="AJ252" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="253" spans="32:36" x14ac:dyDescent="0.2">
@@ -6747,7 +6748,7 @@
         <v>2</v>
       </c>
       <c r="AJ253" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="32:36" x14ac:dyDescent="0.2">
@@ -6764,7 +6765,7 @@
         <v>2</v>
       </c>
       <c r="AJ254" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
     </row>
     <row r="255" spans="32:36" x14ac:dyDescent="0.2">
@@ -6778,10 +6779,10 @@
         <v>34</v>
       </c>
       <c r="AI255">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ255" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
     </row>
     <row r="256" spans="32:36" x14ac:dyDescent="0.2">
@@ -6795,10 +6796,10 @@
         <v>34</v>
       </c>
       <c r="AI256">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ256" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="257" spans="32:36" x14ac:dyDescent="0.2">
@@ -6812,10 +6813,10 @@
         <v>34</v>
       </c>
       <c r="AI257">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ257" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="32:36" x14ac:dyDescent="0.2">
@@ -6832,7 +6833,7 @@
         <v>7</v>
       </c>
       <c r="AJ258" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="259" spans="32:36" x14ac:dyDescent="0.2">
@@ -6846,10 +6847,10 @@
         <v>34</v>
       </c>
       <c r="AI259">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ259" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="32:36" x14ac:dyDescent="0.2">
@@ -6866,7 +6867,7 @@
         <v>2</v>
       </c>
       <c r="AJ260" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="261" spans="32:36" x14ac:dyDescent="0.2">
@@ -6883,7 +6884,7 @@
         <v>2</v>
       </c>
       <c r="AJ261" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="32:36" x14ac:dyDescent="0.2">
@@ -6897,10 +6898,10 @@
         <v>34</v>
       </c>
       <c r="AI262">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ262" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="263" spans="32:36" x14ac:dyDescent="0.2">
@@ -6914,10 +6915,10 @@
         <v>34</v>
       </c>
       <c r="AI263">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ263" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="264" spans="32:36" x14ac:dyDescent="0.2">
@@ -6934,7 +6935,7 @@
         <v>2</v>
       </c>
       <c r="AJ264" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="265" spans="32:36" x14ac:dyDescent="0.2">
@@ -6948,10 +6949,10 @@
         <v>34</v>
       </c>
       <c r="AI265">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ265" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
     </row>
     <row r="266" spans="32:36" x14ac:dyDescent="0.2">
@@ -6965,10 +6966,10 @@
         <v>34</v>
       </c>
       <c r="AI266">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ266" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="267" spans="32:36" x14ac:dyDescent="0.2">
@@ -6982,10 +6983,10 @@
         <v>34</v>
       </c>
       <c r="AI267">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ267" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
     </row>
     <row r="268" spans="32:36" x14ac:dyDescent="0.2">
@@ -6999,10 +7000,10 @@
         <v>34</v>
       </c>
       <c r="AI268">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ268" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
     </row>
     <row r="269" spans="32:36" x14ac:dyDescent="0.2">
@@ -7019,24 +7020,24 @@
         <v>2</v>
       </c>
       <c r="AJ269" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
     </row>
     <row r="270" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF270">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG270" t="s">
-        <v>252</v>
+        <v>156</v>
       </c>
       <c r="AH270">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI270">
         <v>2</v>
       </c>
       <c r="AJ270" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="271" spans="32:36" x14ac:dyDescent="0.2">
@@ -7050,27 +7051,27 @@
         <v>35</v>
       </c>
       <c r="AI271">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ271" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="272" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF272">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG272" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH272">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI272">
         <v>4</v>
       </c>
       <c r="AJ272" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="273" spans="32:36" x14ac:dyDescent="0.2">
@@ -7084,41 +7085,41 @@
         <v>36</v>
       </c>
       <c r="AI273">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ273" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="274" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF274">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG274" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AH274">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI274">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ274" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="275" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF275">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG275" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH275">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI275">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ275" t="s">
         <v>62</v>
@@ -7126,19 +7127,19 @@
     </row>
     <row r="276" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF276">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG276" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH276">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI276">
         <v>1</v>
       </c>
       <c r="AJ276" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="277" spans="32:36" x14ac:dyDescent="0.2">
@@ -7152,27 +7153,27 @@
         <v>39</v>
       </c>
       <c r="AI277">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ277" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="278" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF278">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG278" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH278">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AI278">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ278" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="32:36" x14ac:dyDescent="0.2">
@@ -7186,27 +7187,27 @@
         <v>40</v>
       </c>
       <c r="AI279">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ279" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="280" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF280">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG280" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH280">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AI280">
         <v>5</v>
       </c>
       <c r="AJ280" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="281" spans="32:36" x14ac:dyDescent="0.2">
@@ -7220,27 +7221,27 @@
         <v>41</v>
       </c>
       <c r="AI281">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ281" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF282">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG282" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH282">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI282">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AJ282" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="283" spans="32:36" x14ac:dyDescent="0.2">
@@ -7254,7 +7255,7 @@
         <v>42</v>
       </c>
       <c r="AI283">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ283" t="s">
         <v>39</v>
@@ -7271,10 +7272,10 @@
         <v>42</v>
       </c>
       <c r="AI284">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ284" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="285" spans="32:36" x14ac:dyDescent="0.2">
@@ -7288,10 +7289,10 @@
         <v>42</v>
       </c>
       <c r="AI285">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AJ285" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="286" spans="32:36" x14ac:dyDescent="0.2">
@@ -7305,10 +7306,10 @@
         <v>42</v>
       </c>
       <c r="AI286">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ286" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="287" spans="32:36" x14ac:dyDescent="0.2">
@@ -7322,7 +7323,7 @@
         <v>42</v>
       </c>
       <c r="AI287">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ287" t="s">
         <v>35</v>
@@ -7339,7 +7340,7 @@
         <v>42</v>
       </c>
       <c r="AI288">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AJ288" t="s">
         <v>35</v>
@@ -7356,10 +7357,10 @@
         <v>42</v>
       </c>
       <c r="AI289">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ289" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="290" spans="32:36" x14ac:dyDescent="0.2">
@@ -7373,10 +7374,10 @@
         <v>42</v>
       </c>
       <c r="AI290">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AJ290" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="291" spans="32:36" x14ac:dyDescent="0.2">
@@ -7390,10 +7391,10 @@
         <v>42</v>
       </c>
       <c r="AI291">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AJ291" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="292" spans="32:36" x14ac:dyDescent="0.2">
@@ -7407,10 +7408,10 @@
         <v>42</v>
       </c>
       <c r="AI292">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AJ292" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="293" spans="32:36" x14ac:dyDescent="0.2">
@@ -7424,27 +7425,27 @@
         <v>42</v>
       </c>
       <c r="AI293">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AJ293" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="294" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF294">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG294" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AH294">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI294">
         <v>1</v>
       </c>
       <c r="AJ294" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
     </row>
     <row r="295" spans="32:36" x14ac:dyDescent="0.2">
@@ -7458,27 +7459,27 @@
         <v>43</v>
       </c>
       <c r="AI295">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ295" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="296" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF296">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG296" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AH296">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI296">
         <v>5</v>
       </c>
       <c r="AJ296" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="297" spans="32:36" x14ac:dyDescent="0.2">
@@ -7492,27 +7493,27 @@
         <v>44</v>
       </c>
       <c r="AI297">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ297" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
     </row>
     <row r="298" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF298">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG298" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AH298">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ298" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="299" spans="32:36" x14ac:dyDescent="0.2">
@@ -7526,27 +7527,27 @@
         <v>45</v>
       </c>
       <c r="AI299">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ299" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="300" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF300">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AG300" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH300">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI300">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ300" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="301" spans="32:36" x14ac:dyDescent="0.2">
@@ -7560,27 +7561,27 @@
         <v>46</v>
       </c>
       <c r="AI301">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ301" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="302" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF302">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG302" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AH302">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI302">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ302" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="303" spans="32:36" x14ac:dyDescent="0.2">
@@ -7594,24 +7595,24 @@
         <v>47</v>
       </c>
       <c r="AI303">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AJ303" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="304" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF304">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AG304" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH304">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI304">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ304" t="s">
         <v>35</v>
@@ -7628,27 +7629,27 @@
         <v>48</v>
       </c>
       <c r="AI305">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AJ305" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="306" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF306">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG306" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AH306">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI306">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ306" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="307" spans="32:36" x14ac:dyDescent="0.2">
@@ -7662,27 +7663,27 @@
         <v>49</v>
       </c>
       <c r="AI307">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ307" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="308" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF308">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG308" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AH308">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI308">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ308" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="309" spans="32:36" x14ac:dyDescent="0.2">
@@ -7696,27 +7697,27 @@
         <v>50</v>
       </c>
       <c r="AI309">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ309" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="310" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF310">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG310" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AH310">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI310">
         <v>3</v>
       </c>
       <c r="AJ310" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="311" spans="32:36" x14ac:dyDescent="0.2">
@@ -7730,27 +7731,27 @@
         <v>51</v>
       </c>
       <c r="AI311">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ311" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="312" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF312">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG312" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AH312">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI312">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ312" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="313" spans="32:36" x14ac:dyDescent="0.2">
@@ -7764,27 +7765,27 @@
         <v>52</v>
       </c>
       <c r="AI313">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ313" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="314" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF314">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG314" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH314">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI314">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ314" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="315" spans="32:36" x14ac:dyDescent="0.2">
@@ -7798,27 +7799,27 @@
         <v>53</v>
       </c>
       <c r="AI315">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AJ315" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="316" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF316">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG316" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AH316">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI316">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AJ316" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="317" spans="32:36" x14ac:dyDescent="0.2">
@@ -7832,27 +7833,27 @@
         <v>54</v>
       </c>
       <c r="AI317">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AJ317" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="318" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF318">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG318" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AH318">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI318">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ318" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="319" spans="32:36" x14ac:dyDescent="0.2">
@@ -7866,27 +7867,27 @@
         <v>55</v>
       </c>
       <c r="AI319">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ319" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF320">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG320" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AH320">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI320">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ320" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="321" spans="32:36" x14ac:dyDescent="0.2">
@@ -7900,27 +7901,27 @@
         <v>56</v>
       </c>
       <c r="AI321">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ321" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF322">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG322" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH322">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI322">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ322" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="323" spans="32:36" x14ac:dyDescent="0.2">
@@ -7934,27 +7935,27 @@
         <v>57</v>
       </c>
       <c r="AI323">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ323" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF324">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG324" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH324">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI324">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ324" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="325" spans="32:36" x14ac:dyDescent="0.2">
@@ -7968,27 +7969,27 @@
         <v>58</v>
       </c>
       <c r="AI325">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ325" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF326">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG326" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH326">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI326">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ326" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="327" spans="32:36" x14ac:dyDescent="0.2">
@@ -8002,27 +8003,27 @@
         <v>59</v>
       </c>
       <c r="AI327">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ327" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="328" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF328">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG328" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AH328">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI328">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ328" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="329" spans="32:36" x14ac:dyDescent="0.2">
@@ -8036,27 +8037,27 @@
         <v>60</v>
       </c>
       <c r="AI329">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ329" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="330" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF330">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG330" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AH330">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI330">
         <v>1</v>
       </c>
       <c r="AJ330" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="331" spans="32:36" x14ac:dyDescent="0.2">
@@ -8070,24 +8071,24 @@
         <v>61</v>
       </c>
       <c r="AI331">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ331" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="332" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF332">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG332" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AH332">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI332">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ332" t="s">
         <v>19</v>
@@ -8104,27 +8105,27 @@
         <v>62</v>
       </c>
       <c r="AI333">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ333" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="334" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF334">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG334" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AH334">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI334">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ334" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="335" spans="32:36" x14ac:dyDescent="0.2">
@@ -8138,27 +8139,27 @@
         <v>63</v>
       </c>
       <c r="AI335">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ335" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="336" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF336">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG336" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH336">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI336">
         <v>1</v>
       </c>
       <c r="AJ336" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="337" spans="32:36" x14ac:dyDescent="0.2">
@@ -8172,27 +8173,27 @@
         <v>64</v>
       </c>
       <c r="AI337">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ337" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="338" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF338">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG338" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AH338">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AI338">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AJ338" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="339" spans="32:36" x14ac:dyDescent="0.2">
@@ -8209,24 +8210,24 @@
         <v>2</v>
       </c>
       <c r="AJ339" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="340" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF340">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG340" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH340">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI340">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ340" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="341" spans="32:36" x14ac:dyDescent="0.2">
@@ -8240,27 +8241,27 @@
         <v>66</v>
       </c>
       <c r="AI341">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ341" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="342" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF342">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG342" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH342">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI342">
         <v>2</v>
       </c>
       <c r="AJ342" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="343" spans="32:36" x14ac:dyDescent="0.2">
@@ -8274,24 +8275,24 @@
         <v>67</v>
       </c>
       <c r="AI343">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ343" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="344" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF344">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG344" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AH344">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ344" t="s">
         <v>75</v>
@@ -8299,16 +8300,16 @@
     </row>
     <row r="345" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF345">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG345" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH345">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI345">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ345" t="s">
         <v>75</v>
@@ -8325,41 +8326,41 @@
         <v>69</v>
       </c>
       <c r="AI346">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ346" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="347" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF347">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG347" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH347">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI347">
         <v>4</v>
       </c>
       <c r="AJ347" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF348">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG348" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AH348">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI348">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AJ348" t="s">
         <v>75</v>
@@ -8367,16 +8368,16 @@
     </row>
     <row r="349" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF349">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG349" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AH349">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI349">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ349" t="s">
         <v>75</v>
@@ -8393,41 +8394,41 @@
         <v>72</v>
       </c>
       <c r="AI350">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AJ350" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="351" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF351">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG351" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AH351">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI351">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AJ351" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="352" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF352">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG352" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH352">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI352">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ352" t="s">
         <v>75</v>
@@ -8435,19 +8436,19 @@
     </row>
     <row r="353" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF353">
+        <v>74</v>
+      </c>
+      <c r="AG353" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH353">
+        <v>74</v>
+      </c>
+      <c r="AI353">
+        <v>10</v>
+      </c>
+      <c r="AJ353" t="s">
         <v>75</v>
-      </c>
-      <c r="AG353" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH353">
-        <v>75</v>
-      </c>
-      <c r="AI353">
-        <v>1</v>
-      </c>
-      <c r="AJ353" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="354" spans="32:36" x14ac:dyDescent="0.2">
@@ -8461,24 +8462,24 @@
         <v>75</v>
       </c>
       <c r="AI354">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AJ354" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="355" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF355">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG355" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AH355">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI355">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ355" t="s">
         <v>75</v>
@@ -8486,16 +8487,16 @@
     </row>
     <row r="356" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF356">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG356" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AH356">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI356">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ356" t="s">
         <v>75</v>
@@ -8503,16 +8504,16 @@
     </row>
     <row r="357" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF357">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG357" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AH357">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AI357">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ357" t="s">
         <v>75</v>
@@ -8520,16 +8521,16 @@
     </row>
     <row r="358" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF358">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG358" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AH358">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI358">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ358" t="s">
         <v>75</v>
@@ -8537,16 +8538,16 @@
     </row>
     <row r="359" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF359">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG359" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AH359">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AI359">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ359" t="s">
         <v>75</v>
@@ -8563,27 +8564,27 @@
         <v>80</v>
       </c>
       <c r="AI360">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AJ360" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="361" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF361">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG361" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AH361">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI361">
         <v>2</v>
       </c>
       <c r="AJ361" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="362" spans="32:36" x14ac:dyDescent="0.2">
@@ -8597,27 +8598,27 @@
         <v>81</v>
       </c>
       <c r="AI362">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ362" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="363" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF363">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG363" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AH363">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI363">
         <v>1</v>
       </c>
       <c r="AJ363" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="364" spans="32:36" x14ac:dyDescent="0.2">
@@ -8631,27 +8632,27 @@
         <v>82</v>
       </c>
       <c r="AI364">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ364" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="365" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF365">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG365" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AH365">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI365">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ365" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="366" spans="32:36" x14ac:dyDescent="0.2">
@@ -8668,24 +8669,24 @@
         <v>1</v>
       </c>
       <c r="AJ366" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="367" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF367">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG367" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH367">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI367">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AJ367" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="368" spans="32:36" x14ac:dyDescent="0.2">
@@ -8699,27 +8700,27 @@
         <v>84</v>
       </c>
       <c r="AI368">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AJ368" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="369" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF369">
+        <v>84</v>
+      </c>
+      <c r="AG369" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH369">
+        <v>84</v>
+      </c>
+      <c r="AI369">
+        <v>2</v>
+      </c>
+      <c r="AJ369" t="s">
         <v>85</v>
-      </c>
-      <c r="AG369" t="s">
-        <v>302</v>
-      </c>
-      <c r="AH369">
-        <v>85</v>
-      </c>
-      <c r="AI369">
-        <v>1</v>
-      </c>
-      <c r="AJ369" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="370" spans="32:36" x14ac:dyDescent="0.2">
@@ -8736,24 +8737,24 @@
         <v>1</v>
       </c>
       <c r="AJ370" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="371" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF371">
+        <v>85</v>
+      </c>
+      <c r="AG371" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH371">
+        <v>85</v>
+      </c>
+      <c r="AI371">
+        <v>1</v>
+      </c>
+      <c r="AJ371" t="s">
         <v>86</v>
-      </c>
-      <c r="AG371" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH371">
-        <v>86</v>
-      </c>
-      <c r="AI371">
-        <v>1</v>
-      </c>
-      <c r="AJ371" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="372" spans="32:36" x14ac:dyDescent="0.2">
@@ -8770,24 +8771,24 @@
         <v>1</v>
       </c>
       <c r="AJ372" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="373" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF373">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG373" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AH373">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI373">
         <v>1</v>
       </c>
       <c r="AJ373" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="374" spans="32:36" x14ac:dyDescent="0.2">
@@ -8801,44 +8802,44 @@
         <v>87</v>
       </c>
       <c r="AI374">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ374" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="375" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF375">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG375" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AH375">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI375">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AJ375" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="376" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF376">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG376" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AH376">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI376">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AJ376" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="377" spans="32:36" x14ac:dyDescent="0.2">
@@ -8852,7 +8853,7 @@
         <v>89</v>
       </c>
       <c r="AI377">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ377" t="s">
         <v>90</v>
@@ -8869,7 +8870,7 @@
         <v>89</v>
       </c>
       <c r="AI378">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ378" t="s">
         <v>90</v>
@@ -8886,7 +8887,7 @@
         <v>89</v>
       </c>
       <c r="AI379">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AJ379" t="s">
         <v>90</v>
@@ -8903,7 +8904,7 @@
         <v>89</v>
       </c>
       <c r="AI380">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ380" t="s">
         <v>90</v>
@@ -8920,7 +8921,7 @@
         <v>89</v>
       </c>
       <c r="AI381">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ381" t="s">
         <v>90</v>
@@ -8937,10 +8938,10 @@
         <v>89</v>
       </c>
       <c r="AI382">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AJ382" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="383" spans="32:36" x14ac:dyDescent="0.2">
@@ -8954,7 +8955,7 @@
         <v>89</v>
       </c>
       <c r="AI383">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AJ383" t="s">
         <v>91</v>
@@ -8971,7 +8972,7 @@
         <v>89</v>
       </c>
       <c r="AI384">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ384" t="s">
         <v>91</v>
@@ -8988,7 +8989,7 @@
         <v>89</v>
       </c>
       <c r="AI385">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AJ385" t="s">
         <v>91</v>
@@ -9005,7 +9006,7 @@
         <v>89</v>
       </c>
       <c r="AI386">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ386" t="s">
         <v>91</v>
@@ -9022,7 +9023,7 @@
         <v>89</v>
       </c>
       <c r="AI387">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ387" t="s">
         <v>91</v>
@@ -9030,33 +9031,33 @@
     </row>
     <row r="388" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF388">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG388" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AH388">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI388">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AJ388" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="389" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF389">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG389" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AH389">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI389">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ389" t="s">
         <v>92</v>
@@ -9073,10 +9074,10 @@
         <v>91</v>
       </c>
       <c r="AI390">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ390" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="391" spans="32:36" x14ac:dyDescent="0.2">
@@ -9093,24 +9094,24 @@
         <v>1</v>
       </c>
       <c r="AJ391" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="392" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF392">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG392" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AH392">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI392">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ392" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="393" spans="32:36" x14ac:dyDescent="0.2">
@@ -9124,10 +9125,10 @@
         <v>92</v>
       </c>
       <c r="AI393">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ393" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="394" spans="32:36" x14ac:dyDescent="0.2">
@@ -9141,44 +9142,44 @@
         <v>92</v>
       </c>
       <c r="AI394">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ394" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="395" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF395">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG395" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AH395">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI395">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ395" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="396" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF396">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG396" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AH396">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI396">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ396" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="397" spans="32:36" x14ac:dyDescent="0.2">
@@ -9192,10 +9193,10 @@
         <v>94</v>
       </c>
       <c r="AI397">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ397" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="32:36" x14ac:dyDescent="0.2">
@@ -9209,41 +9210,41 @@
         <v>94</v>
       </c>
       <c r="AI398">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ398" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="399" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF399">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG399" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AH399">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ399" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="400" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF400">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG400" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AH400">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI400">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ400" t="s">
         <v>102</v>
@@ -9251,16 +9252,16 @@
     </row>
     <row r="401" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF401">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG401" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AH401">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI401">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ401" t="s">
         <v>102</v>
@@ -9277,27 +9278,27 @@
         <v>97</v>
       </c>
       <c r="AI402">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ402" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="403" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF403">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG403" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AH403">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI403">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ403" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="404" spans="32:36" x14ac:dyDescent="0.2">
@@ -9311,58 +9312,58 @@
         <v>98</v>
       </c>
       <c r="AI404">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ404" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="405" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF405">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG405" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AH405">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AI405">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ405" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="406" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF406">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG406" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AH406">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI406">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ406" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="407" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF407">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG407" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AH407">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI407">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ407" t="s">
         <v>105</v>
@@ -9379,10 +9380,10 @@
         <v>101</v>
       </c>
       <c r="AI408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ408" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="409" spans="32:36" x14ac:dyDescent="0.2">
@@ -9399,24 +9400,24 @@
         <v>1</v>
       </c>
       <c r="AJ409" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="410" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF410">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG410" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH410">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI410">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ410" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="411" spans="32:36" x14ac:dyDescent="0.2">
@@ -9430,10 +9431,10 @@
         <v>102</v>
       </c>
       <c r="AI411">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ411" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="412" spans="32:36" x14ac:dyDescent="0.2">
@@ -9447,41 +9448,41 @@
         <v>102</v>
       </c>
       <c r="AI412">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ412" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="413" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF413">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG413" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH413">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI413">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ413" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="414" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF414">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG414" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH414">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AI414">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ414" t="s">
         <v>105</v>
@@ -9498,10 +9499,10 @@
         <v>104</v>
       </c>
       <c r="AI415">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ415" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="416" spans="32:36" x14ac:dyDescent="0.2">
@@ -9515,41 +9516,41 @@
         <v>104</v>
       </c>
       <c r="AI416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ416" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="417" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF417">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG417" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH417">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI417">
         <v>1</v>
       </c>
       <c r="AJ417" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
     </row>
     <row r="418" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF418">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG418" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH418">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI418">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ418" t="s">
         <v>110</v>
@@ -9557,16 +9558,16 @@
     </row>
     <row r="419" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF419">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG419" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH419">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AI419">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ419" t="s">
         <v>110</v>
@@ -9583,27 +9584,27 @@
         <v>107</v>
       </c>
       <c r="AI420">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ420" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="421" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF421">
+        <v>107</v>
+      </c>
+      <c r="AG421" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH421">
+        <v>107</v>
+      </c>
+      <c r="AI421">
+        <v>2</v>
+      </c>
+      <c r="AJ421" t="s">
         <v>108</v>
-      </c>
-      <c r="AG421" t="s">
-        <v>325</v>
-      </c>
-      <c r="AH421">
-        <v>108</v>
-      </c>
-      <c r="AI421">
-        <v>1</v>
-      </c>
-      <c r="AJ421" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="422" spans="32:36" x14ac:dyDescent="0.2">
@@ -9617,27 +9618,27 @@
         <v>108</v>
       </c>
       <c r="AI422">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ422" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="423" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF423">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG423" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AH423">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AI423">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ423" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="424" spans="32:36" x14ac:dyDescent="0.2">
@@ -9654,24 +9655,24 @@
         <v>2</v>
       </c>
       <c r="AJ424" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
     </row>
     <row r="425" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF425">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG425" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AH425">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI425">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ425" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
     </row>
     <row r="426" spans="32:36" x14ac:dyDescent="0.2">
@@ -9685,27 +9686,27 @@
         <v>110</v>
       </c>
       <c r="AI426">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ426" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
     </row>
     <row r="427" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF427">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG427" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AH427">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI427">
         <v>2</v>
       </c>
       <c r="AJ427" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
     </row>
     <row r="428" spans="32:36" x14ac:dyDescent="0.2">
@@ -9722,24 +9723,24 @@
         <v>2</v>
       </c>
       <c r="AJ428" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
     </row>
     <row r="429" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF429">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG429" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AH429">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AI429">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ429" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
     </row>
     <row r="430" spans="32:36" x14ac:dyDescent="0.2">
@@ -9753,27 +9754,27 @@
         <v>112</v>
       </c>
       <c r="AI430">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ430" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
     </row>
     <row r="431" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF431">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG431" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AH431">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AI431">
         <v>2</v>
       </c>
       <c r="AJ431" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
     </row>
     <row r="432" spans="32:36" x14ac:dyDescent="0.2">
@@ -9790,24 +9791,24 @@
         <v>2</v>
       </c>
       <c r="AJ432" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="433" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF433">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG433" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AH433">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AI433">
         <v>2</v>
       </c>
       <c r="AJ433" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="434" spans="32:36" x14ac:dyDescent="0.2">
@@ -9821,27 +9822,27 @@
         <v>114</v>
       </c>
       <c r="AI434">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ434" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
     </row>
     <row r="435" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF435">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG435" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AH435">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AI435">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ435" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="436" spans="32:36" x14ac:dyDescent="0.2">
@@ -9858,21 +9859,21 @@
         <v>2</v>
       </c>
       <c r="AJ436" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="437" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF437">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG437" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH437">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AI437">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ437" t="s">
         <v>122</v>
@@ -9889,27 +9890,27 @@
         <v>116</v>
       </c>
       <c r="AI438">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ438" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
     </row>
     <row r="439" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF439">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG439" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH439">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AI439">
         <v>2</v>
       </c>
       <c r="AJ439" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
     </row>
     <row r="440" spans="32:36" x14ac:dyDescent="0.2">
@@ -9926,24 +9927,24 @@
         <v>2</v>
       </c>
       <c r="AJ440" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="441" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF441">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG441" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH441">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AI441">
         <v>2</v>
       </c>
       <c r="AJ441" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
     </row>
     <row r="442" spans="32:36" x14ac:dyDescent="0.2">
@@ -9957,27 +9958,27 @@
         <v>118</v>
       </c>
       <c r="AI442">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ442" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
     </row>
     <row r="443" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF443">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG443" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AH443">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AI443">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ443" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="444" spans="32:36" x14ac:dyDescent="0.2">
@@ -9994,24 +9995,24 @@
         <v>2</v>
       </c>
       <c r="AJ444" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="445" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF445">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG445" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AH445">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI445">
         <v>2</v>
       </c>
       <c r="AJ445" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
     </row>
     <row r="446" spans="32:36" x14ac:dyDescent="0.2">
@@ -10025,27 +10026,27 @@
         <v>120</v>
       </c>
       <c r="AI446">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ446" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
     </row>
     <row r="447" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF447">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG447" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AH447">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI447">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ447" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="448" spans="32:36" x14ac:dyDescent="0.2">
@@ -10062,24 +10063,24 @@
         <v>2</v>
       </c>
       <c r="AJ448" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="449" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF449">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG449" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH449">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI449">
         <v>2</v>
       </c>
       <c r="AJ449" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
     </row>
     <row r="450" spans="32:36" x14ac:dyDescent="0.2">
@@ -10093,27 +10094,27 @@
         <v>122</v>
       </c>
       <c r="AI450">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ450" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
     </row>
     <row r="451" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF451">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG451" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AH451">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI451">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ451" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="452" spans="32:36" x14ac:dyDescent="0.2">
@@ -10130,24 +10131,24 @@
         <v>2</v>
       </c>
       <c r="AJ452" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="453" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF453">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG453" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AH453">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI453">
         <v>2</v>
       </c>
       <c r="AJ453" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
     </row>
     <row r="454" spans="32:36" x14ac:dyDescent="0.2">
@@ -10161,27 +10162,27 @@
         <v>124</v>
       </c>
       <c r="AI454">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ454" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
     </row>
     <row r="455" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF455">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG455" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AH455">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI455">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ455" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="456" spans="32:36" x14ac:dyDescent="0.2">
@@ -10198,24 +10199,24 @@
         <v>2</v>
       </c>
       <c r="AJ456" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="457" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF457">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG457" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH457">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AI457">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ457" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="458" spans="32:36" x14ac:dyDescent="0.2">
@@ -10229,27 +10230,27 @@
         <v>126</v>
       </c>
       <c r="AI458">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ458" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
     </row>
     <row r="459" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF459">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG459" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AH459">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI459">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ459" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="460" spans="32:36" x14ac:dyDescent="0.2">
@@ -10263,27 +10264,27 @@
         <v>127</v>
       </c>
       <c r="AI460">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ460" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
     <row r="461" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF461">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG461" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AH461">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI461">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ461" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="462" spans="32:36" x14ac:dyDescent="0.2">
@@ -10297,27 +10298,27 @@
         <v>128</v>
       </c>
       <c r="AI462">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ462" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="463" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF463">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG463" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AH463">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AI463">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ463" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="464" spans="32:36" x14ac:dyDescent="0.2">
@@ -10331,24 +10332,24 @@
         <v>129</v>
       </c>
       <c r="AI464">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ464" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="465" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF465">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG465" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AH465">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI465">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ465" t="s">
         <v>90</v>
@@ -10365,27 +10366,27 @@
         <v>130</v>
       </c>
       <c r="AI466">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ466" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
     </row>
     <row r="467" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF467">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG467" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH467">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI467">
         <v>1</v>
       </c>
       <c r="AJ467" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="468" spans="32:36" x14ac:dyDescent="0.2">
@@ -10399,27 +10400,27 @@
         <v>131</v>
       </c>
       <c r="AI468">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ468" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="469" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF469">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG469" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AH469">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI469">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ469" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="470" spans="32:36" x14ac:dyDescent="0.2">
@@ -10433,27 +10434,27 @@
         <v>132</v>
       </c>
       <c r="AI470">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ470" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
     </row>
     <row r="471" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF471">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG471" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AH471">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI471">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ471" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
     </row>
     <row r="472" spans="32:36" x14ac:dyDescent="0.2">
@@ -10467,27 +10468,27 @@
         <v>133</v>
       </c>
       <c r="AI472">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ472" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
     </row>
     <row r="473" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF473">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG473" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH473">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AI473">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ473" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
     </row>
     <row r="474" spans="32:36" x14ac:dyDescent="0.2">
@@ -10501,24 +10502,24 @@
         <v>134</v>
       </c>
       <c r="AI474">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ474" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="475" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF475">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG475" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AH475">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AI475">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ475" t="s">
         <v>91</v>
@@ -10535,27 +10536,27 @@
         <v>135</v>
       </c>
       <c r="AI476">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ476" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
     </row>
     <row r="477" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF477">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG477" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AH477">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AI477">
         <v>1</v>
       </c>
       <c r="AJ477" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="478" spans="32:36" x14ac:dyDescent="0.2">
@@ -10572,7 +10573,7 @@
         <v>1</v>
       </c>
       <c r="AJ478" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="479" spans="32:36" x14ac:dyDescent="0.2">
@@ -10586,10 +10587,10 @@
         <v>136</v>
       </c>
       <c r="AI479">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ479" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="480" spans="32:36" x14ac:dyDescent="0.2">
@@ -10603,27 +10604,27 @@
         <v>136</v>
       </c>
       <c r="AI480">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ480" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="481" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF481">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG481" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH481">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AI481">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ481" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
     </row>
     <row r="482" spans="32:36" x14ac:dyDescent="0.2">
@@ -10637,10 +10638,10 @@
         <v>137</v>
       </c>
       <c r="AI482">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ482" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="483" spans="32:36" x14ac:dyDescent="0.2">
@@ -10657,7 +10658,7 @@
         <v>1</v>
       </c>
       <c r="AJ483" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="484" spans="32:36" x14ac:dyDescent="0.2">
@@ -10674,7 +10675,7 @@
         <v>1</v>
       </c>
       <c r="AJ484" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="485" spans="32:36" x14ac:dyDescent="0.2">
@@ -10688,10 +10689,10 @@
         <v>137</v>
       </c>
       <c r="AI485">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ485" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="486" spans="32:36" x14ac:dyDescent="0.2">
@@ -10705,10 +10706,10 @@
         <v>137</v>
       </c>
       <c r="AI486">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ486" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="487" spans="32:36" x14ac:dyDescent="0.2">
@@ -10722,10 +10723,10 @@
         <v>137</v>
       </c>
       <c r="AI487">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ487" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="488" spans="32:36" x14ac:dyDescent="0.2">
@@ -10739,10 +10740,10 @@
         <v>137</v>
       </c>
       <c r="AI488">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ488" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="489" spans="32:36" x14ac:dyDescent="0.2">
@@ -10759,7 +10760,7 @@
         <v>1</v>
       </c>
       <c r="AJ489" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="490" spans="32:36" x14ac:dyDescent="0.2">
@@ -10776,7 +10777,7 @@
         <v>1</v>
       </c>
       <c r="AJ490" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="491" spans="32:36" x14ac:dyDescent="0.2">
@@ -10790,10 +10791,10 @@
         <v>137</v>
       </c>
       <c r="AI491">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ491" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="492" spans="32:36" x14ac:dyDescent="0.2">
@@ -10807,10 +10808,10 @@
         <v>137</v>
       </c>
       <c r="AI492">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AJ492" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="493" spans="32:36" x14ac:dyDescent="0.2">
@@ -10824,10 +10825,10 @@
         <v>137</v>
       </c>
       <c r="AI493">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ493" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="494" spans="32:36" x14ac:dyDescent="0.2">
@@ -10844,7 +10845,7 @@
         <v>1</v>
       </c>
       <c r="AJ494" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="495" spans="32:36" x14ac:dyDescent="0.2">
@@ -10858,10 +10859,10 @@
         <v>137</v>
       </c>
       <c r="AI495">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ495" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="496" spans="32:36" x14ac:dyDescent="0.2">
@@ -10875,10 +10876,10 @@
         <v>137</v>
       </c>
       <c r="AI496">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AJ496" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="497" spans="32:36" x14ac:dyDescent="0.2">
@@ -10895,7 +10896,7 @@
         <v>2</v>
       </c>
       <c r="AJ497" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="498" spans="32:36" x14ac:dyDescent="0.2">
@@ -10909,10 +10910,10 @@
         <v>137</v>
       </c>
       <c r="AI498">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AJ498" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="499" spans="32:36" x14ac:dyDescent="0.2">
@@ -10926,10 +10927,10 @@
         <v>137</v>
       </c>
       <c r="AI499">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ499" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="500" spans="32:36" x14ac:dyDescent="0.2">
@@ -10946,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="AJ500" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
     </row>
     <row r="501" spans="32:36" x14ac:dyDescent="0.2">
@@ -10963,7 +10964,7 @@
         <v>1</v>
       </c>
       <c r="AJ501" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="502" spans="32:36" x14ac:dyDescent="0.2">
@@ -10977,10 +10978,10 @@
         <v>137</v>
       </c>
       <c r="AI502">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ502" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="503" spans="32:36" x14ac:dyDescent="0.2">
@@ -10994,10 +10995,10 @@
         <v>137</v>
       </c>
       <c r="AI503">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ503" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="504" spans="32:36" x14ac:dyDescent="0.2">
@@ -11014,7 +11015,7 @@
         <v>1</v>
       </c>
       <c r="AJ504" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="505" spans="32:36" x14ac:dyDescent="0.2">
@@ -11031,7 +11032,7 @@
         <v>1</v>
       </c>
       <c r="AJ505" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="506" spans="32:36" x14ac:dyDescent="0.2">
@@ -11048,7 +11049,7 @@
         <v>1</v>
       </c>
       <c r="AJ506" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
     </row>
     <row r="507" spans="32:36" x14ac:dyDescent="0.2">
@@ -11065,7 +11066,7 @@
         <v>1</v>
       </c>
       <c r="AJ507" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
     </row>
     <row r="508" spans="32:36" x14ac:dyDescent="0.2">
@@ -11082,7 +11083,7 @@
         <v>1</v>
       </c>
       <c r="AJ508" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="509" spans="32:36" x14ac:dyDescent="0.2">
@@ -11096,10 +11097,10 @@
         <v>137</v>
       </c>
       <c r="AI509">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ509" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="510" spans="32:36" x14ac:dyDescent="0.2">
@@ -11113,10 +11114,10 @@
         <v>137</v>
       </c>
       <c r="AI510">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ510" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="511" spans="32:36" x14ac:dyDescent="0.2">
@@ -11133,7 +11134,7 @@
         <v>1</v>
       </c>
       <c r="AJ511" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="512" spans="32:36" x14ac:dyDescent="0.2">
@@ -11150,7 +11151,7 @@
         <v>1</v>
       </c>
       <c r="AJ512" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="513" spans="32:36" x14ac:dyDescent="0.2">
@@ -11167,7 +11168,7 @@
         <v>1</v>
       </c>
       <c r="AJ513" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="514" spans="32:36" x14ac:dyDescent="0.2">
@@ -11181,10 +11182,10 @@
         <v>137</v>
       </c>
       <c r="AI514">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ514" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
     </row>
     <row r="515" spans="32:36" x14ac:dyDescent="0.2">
@@ -11201,7 +11202,7 @@
         <v>2</v>
       </c>
       <c r="AJ515" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="516" spans="32:36" x14ac:dyDescent="0.2">
@@ -11215,27 +11216,27 @@
         <v>137</v>
       </c>
       <c r="AI516">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AJ516" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="517" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF517">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG517" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AH517">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI517">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AJ517" t="s">
-        <v>138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="32:36" x14ac:dyDescent="0.2">
@@ -11249,23 +11250,40 @@
         <v>138</v>
       </c>
       <c r="AI518">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ518" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="519" spans="32:36" x14ac:dyDescent="0.2">
+      <c r="AF519">
+        <v>138</v>
+      </c>
+      <c r="AG519" t="s">
+        <v>355</v>
+      </c>
+      <c r="AH519">
+        <v>138</v>
+      </c>
+      <c r="AI519">
+        <v>1</v>
+      </c>
+      <c r="AJ519" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AT537">
-    <sortCondition ref="A5:A537"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AT538">
+    <sortCondition ref="A5:A538"/>
   </sortState>
   <mergeCells count="6">
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A50:C50"/>
     <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A47:C47"/>
     <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:E48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
